--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Courses\2.2 Project Client on Board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saxion-my.sharepoint.com/personal/508343_student_saxion_nl/Documents/secondYear/Project Client on Board/59/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E655F07E-9948-4291-B9E2-F505DEA8BB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E655F07E-9948-4291-B9E2-F505DEA8BB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279CA1DD-58AB-4A46-9BCA-511BE4123658}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
-  <si>
-    <t>Student-1</t>
-  </si>
   <si>
     <t>Student-2</t>
   </si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Badr </t>
   </si>
 </sst>
 </file>
@@ -567,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -589,7 +589,6 @@
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -614,13 +613,13 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -654,6 +653,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -666,12 +666,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -681,7 +675,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,7 +755,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Student-1</c:v>
+                  <c:v>Badr </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1746,7 +1745,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1987,7 +1986,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82118767"/>
@@ -2046,7 +2045,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82118351"/>
@@ -2088,7 +2087,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2122,7 +2121,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3064,51 +3063,51 @@
     <col min="1" max="1" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="28" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:8" s="27" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="B2" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="26" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="45" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="27" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3386,36 +3385,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="str">
+      <c r="A1" s="23" t="str">
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="43" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="str">
+      <c r="A3" s="13" t="str">
         <f>Total!D2</f>
-        <v>Student-1</v>
-      </c>
-      <c r="B3" s="42" t="str">
+        <v xml:space="preserve">Badr </v>
+      </c>
+      <c r="B3" s="40" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -3516,36 +3515,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="str">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <f>SUM(B10:G10)</f>
         <v>0</v>
       </c>
@@ -3561,20 +3560,20 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="str">
+      <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Student-2</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -3675,55 +3674,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="str">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <f>SUM(B19:G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="str">
+      <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Student-3</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -3824,55 +3823,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="str">
+    <row r="28" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <f>SUM(B28:G28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="str">
+      <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Student-4</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -3973,55 +3972,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="str">
+    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <f>SUM(B37:G37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="str">
+      <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Student-5</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -4059,7 +4058,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4125,54 +4124,54 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="str">
+      <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <f>SUM(B46:G46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="str">
+      <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Student-6</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -4210,7 +4209,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4276,54 +4275,54 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="str">
+      <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="str">
+      <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Student-7</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -4361,7 +4360,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -4427,54 +4426,54 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="str">
+      <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
         <v>0</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <f>SUM(B64:G64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="str">
+      <c r="A66" s="12" t="str">
         <f>Total!D9</f>
         <v>Student-8</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -4512,7 +4511,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -4578,54 +4577,54 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="str">
+      <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <f>SUM(B73:G73)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="str">
+      <c r="A75" s="12" t="str">
         <f>Total!D10</f>
         <v>Student-9</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -4663,7 +4662,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -4729,54 +4728,54 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="str">
+      <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="11">
         <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
         <v>0</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="11">
         <f>SUM(B82:G82)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="str">
+      <c r="A84" s="12" t="str">
         <f>Total!D11</f>
         <v>Student-10</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -4814,7 +4813,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -4880,52 +4879,52 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="str">
+      <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="11">
         <f t="shared" ref="B91:G91" si="25">SUM(B86:B90)</f>
         <v>0</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="11">
         <f>SUM(B91:G91)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4937,12 +4936,12 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" style="28" customWidth="1"/>
     <col min="2" max="2" width="65.6640625" customWidth="1"/>
     <col min="3" max="3" width="4.33203125" customWidth="1"/>
     <col min="4" max="4" width="28.5546875" customWidth="1"/>
@@ -5140,49 +5139,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="33" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="37"/>
-      <c r="D1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>41</v>
+      <c r="M1" s="25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="E2" s="3">
         <f>'Week (1)'!$H$11</f>
@@ -5224,8 +5223,8 @@
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38"/>
       <c r="B3" s="39"/>
-      <c r="D3" s="17" t="s">
-        <v>1</v>
+      <c r="D3" s="16" t="s">
+        <v>0</v>
       </c>
       <c r="E3" s="3">
         <f>'Week (1)'!$H$21</f>
@@ -5266,13 +5265,13 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="E4" s="3">
         <f>'Week (1)'!$H$30</f>
@@ -5314,8 +5313,8 @@
     <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="39"/>
-      <c r="D5" s="17" t="s">
-        <v>3</v>
+      <c r="D5" s="16" t="s">
+        <v>2</v>
       </c>
       <c r="E5" s="3">
         <f>'Week (1)'!$H$39</f>
@@ -5355,10 +5354,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="D6" s="17" t="s">
-        <v>27</v>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="D6" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="3">
         <f>'Week (1)'!$H$48</f>
@@ -5398,10 +5397,10 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="D7" s="17" t="s">
-        <v>28</v>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="D7" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="3">
         <f>'Week (1)'!$H$57</f>
@@ -5441,10 +5440,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="D8" s="17" t="s">
-        <v>29</v>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="D8" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="3">
         <f>'Week (1)'!$H$66</f>
@@ -5484,10 +5483,10 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="D9" s="17" t="s">
-        <v>30</v>
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="D9" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="3">
         <f>'Week (1)'!$H$75</f>
@@ -5527,10 +5526,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
-      <c r="D10" s="17" t="s">
-        <v>31</v>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="D10" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="3">
         <f>'Week (1)'!$H$84</f>
@@ -5570,10 +5569,10 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="D11" s="17" t="s">
-        <v>32</v>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="D11" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="E11" s="3">
         <f>'Week (1)'!$H$93</f>
@@ -5613,155 +5612,153 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="D12" s="18" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="D12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" ref="E12:L12" si="3">SUM(E2:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="D13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="16">
-        <f>SUM(E2:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="16">
-        <f>SUM(F2:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <f>SUM(G2:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <f>SUM(H2:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
-        <f>SUM(I2:I11)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="16">
-        <f>SUM(J2:J11)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
-        <f>SUM(K2:K11)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="16">
-        <f>SUM(L2:L11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32"/>
-      <c r="D13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20">
         <f>SUM(E2:F11)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20">
         <f>SUM(G2:H11)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21">
+      <c r="I13" s="20"/>
+      <c r="J13" s="20">
         <f>SUM(I2:J11)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21">
+      <c r="K13" s="20"/>
+      <c r="L13" s="20">
         <f>SUM(K12:L12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="32"/>
-      <c r="D14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="A14" s="32"/>
+      <c r="B14" s="31"/>
+      <c r="D14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="18">
         <f>E15-E12</f>
         <v>960</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <f>E14-F12</f>
         <v>960</v>
       </c>
-      <c r="G14" s="19">
-        <f t="shared" ref="G14:L14" si="3">F14-G12</f>
+      <c r="G14" s="18">
+        <f t="shared" ref="G14:L14" si="4">F14-G12</f>
         <v>960</v>
       </c>
-      <c r="H14" s="19">
-        <f t="shared" si="3"/>
+      <c r="H14" s="18">
+        <f t="shared" si="4"/>
         <v>960</v>
       </c>
-      <c r="I14" s="19">
-        <f t="shared" si="3"/>
+      <c r="I14" s="18">
+        <f t="shared" si="4"/>
         <v>960</v>
       </c>
-      <c r="J14" s="19">
-        <f t="shared" si="3"/>
+      <c r="J14" s="18">
+        <f t="shared" si="4"/>
         <v>960</v>
       </c>
-      <c r="K14" s="19">
-        <f t="shared" si="3"/>
+      <c r="K14" s="18">
+        <f t="shared" si="4"/>
         <v>960</v>
       </c>
-      <c r="L14" s="19">
-        <f t="shared" si="3"/>
+      <c r="L14" s="18">
+        <f t="shared" si="4"/>
         <v>960</v>
       </c>
-      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="35">
+      <c r="A15" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="34">
         <f>COUNTIF(D2:D11, "&gt;''" )*12</f>
         <v>120</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="19">
-        <f t="shared" ref="E15:K15" si="4">$B$15+F15</f>
+      <c r="D15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" ref="E15:K15" si="5">$B$15+F15</f>
         <v>960</v>
       </c>
-      <c r="F15" s="19">
-        <f t="shared" si="4"/>
+      <c r="F15" s="18">
+        <f t="shared" si="5"/>
         <v>840</v>
       </c>
-      <c r="G15" s="19">
-        <f t="shared" si="4"/>
+      <c r="G15" s="18">
+        <f t="shared" si="5"/>
         <v>720</v>
       </c>
-      <c r="H15" s="19">
-        <f t="shared" si="4"/>
+      <c r="H15" s="18">
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
-      <c r="I15" s="19">
-        <f t="shared" si="4"/>
+      <c r="I15" s="18">
+        <f t="shared" si="5"/>
         <v>480</v>
       </c>
-      <c r="J15" s="19">
-        <f t="shared" si="4"/>
+      <c r="J15" s="18">
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="K15" s="19">
-        <f t="shared" si="4"/>
+      <c r="K15" s="18">
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L15" s="18">
         <f>$B$15</f>
         <v>120</v>
       </c>
-      <c r="M15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6051,56 +6048,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="str">
+      <c r="A1" s="23" t="str">
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="str">
+      <c r="A3" s="13" t="str">
         <f>Total!D2</f>
-        <v>Student-1</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+        <v xml:space="preserve">Badr </v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="H4" s="8" t="str">
         <f>Total!$M$1</f>
@@ -6109,7 +6106,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -6184,36 +6181,36 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="str">
+    <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="str">
         <f>Total!$M$1</f>
         <v>Total</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <f t="shared" ref="B11:G11" si="1">SUM(B5:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <f>SUM(B11:G11)</f>
         <v>0</v>
       </c>
@@ -6229,20 +6226,20 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="str">
+      <c r="A13" s="12" t="str">
         <f>Total!D3</f>
         <v>Student-2</v>
       </c>
-      <c r="B13" s="42" t="str">
+      <c r="B13" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
@@ -6280,7 +6277,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -6346,55 +6343,55 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="str">
+    <row r="21" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <f t="shared" ref="B21:G21" si="4">SUM(B15:B20)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <f>SUM(B21:G21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="str">
+      <c r="A23" s="12" t="str">
         <f>Total!D4</f>
         <v>Student-3</v>
       </c>
-      <c r="B23" s="42" t="str">
+      <c r="B23" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
@@ -6432,7 +6429,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -6497,55 +6494,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="str">
+    <row r="30" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B30" s="12">
-        <f>SUM(B25:B29)</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="12">
-        <f>SUM(C25:C29)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="12">
-        <f>SUM(D25:D29)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="12">
-        <f>SUM(E25:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="12">
-        <f>SUM(F25:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
-        <f>SUM(G25:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="12">
+      <c r="B30" s="11">
+        <f t="shared" ref="B30:G30" si="7">SUM(B25:B29)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
         <f>SUM(B30:G30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="str">
+      <c r="A32" s="12" t="str">
         <f>Total!D5</f>
         <v>Student-4</v>
       </c>
-      <c r="B32" s="42" t="str">
+      <c r="B32" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="str">
@@ -6557,33 +6554,33 @@
         <v>Ma</v>
       </c>
       <c r="C33" s="8" t="str">
-        <f t="shared" ref="C33:H33" si="7">C$4</f>
+        <f t="shared" ref="C33:H33" si="8">C$4</f>
         <v>Di</v>
       </c>
       <c r="D33" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Wo</v>
       </c>
       <c r="E33" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Do</v>
       </c>
       <c r="F33" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vr</v>
       </c>
       <c r="G33" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Za/Zo</v>
       </c>
       <c r="H33" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Total</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -6605,7 +6602,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
-        <f t="shared" ref="H35:H38" si="8">SUM(B35:G35)</f>
+        <f t="shared" ref="H35:H38" si="9">SUM(B35:G35)</f>
         <v>0</v>
       </c>
     </row>
@@ -6618,7 +6615,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6631,7 +6628,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6644,59 +6641,59 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B39" s="12">
-        <f>SUM(B34:B38)</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="12">
-        <f>SUM(C34:C38)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="12">
-        <f>SUM(D34:D38)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="12">
-        <f>SUM(E34:E38)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="12">
-        <f>SUM(F34:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="12">
-        <f>SUM(G34:G38)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="12">
+      <c r="B39" s="11">
+        <f t="shared" ref="B39:G39" si="10">SUM(B34:B38)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="11">
         <f>SUM(B39:G39)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="str">
+      <c r="A41" s="12" t="str">
         <f>Total!D6</f>
         <v>Student-5</v>
       </c>
-      <c r="B41" s="42" t="str">
+      <c r="B41" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="str">
@@ -6708,33 +6705,33 @@
         <v>Ma</v>
       </c>
       <c r="C42" s="8" t="str">
-        <f t="shared" ref="C42:H42" si="9">C$4</f>
+        <f t="shared" ref="C42:H42" si="11">C$4</f>
         <v>Di</v>
       </c>
       <c r="D42" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Wo</v>
       </c>
       <c r="E42" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Do</v>
       </c>
       <c r="F42" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Vr</v>
       </c>
       <c r="G42" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Za/Zo</v>
       </c>
       <c r="H42" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Total</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -6756,7 +6753,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
-        <f t="shared" ref="H44:H47" si="10">SUM(B44:G44)</f>
+        <f t="shared" ref="H44:H47" si="12">SUM(B44:G44)</f>
         <v>0</v>
       </c>
     </row>
@@ -6769,7 +6766,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6782,7 +6779,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6795,59 +6792,59 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="str">
+      <c r="A48" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B48" s="12">
-        <f t="shared" ref="B48:G48" si="11">SUM(B43:B47)</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D48" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="12">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="12">
+      <c r="B48" s="11">
+        <f t="shared" ref="B48:G48" si="13">SUM(B43:B47)</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
         <f>SUM(B48:G48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="str">
+      <c r="A50" s="12" t="str">
         <f>Total!D7</f>
         <v>Student-6</v>
       </c>
-      <c r="B50" s="42" t="str">
+      <c r="B50" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="44"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="str">
@@ -6859,33 +6856,33 @@
         <v>Ma</v>
       </c>
       <c r="C51" s="8" t="str">
-        <f t="shared" ref="C51:H51" si="12">C$4</f>
+        <f t="shared" ref="C51:H51" si="14">C$4</f>
         <v>Di</v>
       </c>
       <c r="D51" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Wo</v>
       </c>
       <c r="E51" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Do</v>
       </c>
       <c r="F51" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Vr</v>
       </c>
       <c r="G51" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Za/Zo</v>
       </c>
       <c r="H51" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Total</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -6907,7 +6904,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="6">
-        <f t="shared" ref="H53:H56" si="13">SUM(B53:G53)</f>
+        <f t="shared" ref="H53:H56" si="15">SUM(B53:G53)</f>
         <v>0</v>
       </c>
     </row>
@@ -6920,7 +6917,7 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6933,7 +6930,7 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -6946,59 +6943,59 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="str">
+      <c r="A57" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B57" s="12">
-        <f t="shared" ref="B57:G57" si="14">SUM(B52:B56)</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="12">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="D57" s="12">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="12">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="12">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G57" s="12">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="12">
+      <c r="B57" s="11">
+        <f t="shared" ref="B57:G57" si="16">SUM(B52:B56)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="11">
         <f>SUM(B57:G57)</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="str">
+      <c r="A59" s="12" t="str">
         <f>Total!D8</f>
         <v>Student-7</v>
       </c>
-      <c r="B59" s="42" t="str">
+      <c r="B59" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="44"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="42"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="str">
@@ -7010,33 +7007,33 @@
         <v>Ma</v>
       </c>
       <c r="C60" s="8" t="str">
-        <f t="shared" ref="C60:H60" si="15">C$4</f>
+        <f t="shared" ref="C60:H60" si="17">C$4</f>
         <v>Di</v>
       </c>
       <c r="D60" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Wo</v>
       </c>
       <c r="E60" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Do</v>
       </c>
       <c r="F60" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Vr</v>
       </c>
       <c r="G60" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Za/Zo</v>
       </c>
       <c r="H60" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Total</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -7058,7 +7055,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="6">
-        <f t="shared" ref="H62:H65" si="16">SUM(B62:G62)</f>
+        <f t="shared" ref="H62:H65" si="18">SUM(B62:G62)</f>
         <v>0</v>
       </c>
     </row>
@@ -7071,7 +7068,7 @@
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -7084,7 +7081,7 @@
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -7097,59 +7094,59 @@
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="str">
+      <c r="A66" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B66" s="12">
-        <f t="shared" ref="B66:G66" si="17">SUM(B61:B65)</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="12">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="D66" s="12">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="12">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="12">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="12">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="12">
+      <c r="B66" s="11">
+        <f t="shared" ref="B66:G66" si="19">SUM(B61:B65)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
         <f>SUM(B66:G66)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="str">
+      <c r="A68" s="12" t="str">
         <f>Total!D9</f>
         <v>Student-8</v>
       </c>
-      <c r="B68" s="42" t="str">
+      <c r="B68" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="44"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="42"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="str">
@@ -7161,33 +7158,33 @@
         <v>Ma</v>
       </c>
       <c r="C69" s="8" t="str">
-        <f t="shared" ref="C69:H69" si="18">C$4</f>
+        <f t="shared" ref="C69:H69" si="20">C$4</f>
         <v>Di</v>
       </c>
       <c r="D69" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Wo</v>
       </c>
       <c r="E69" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Do</v>
       </c>
       <c r="F69" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Vr</v>
       </c>
       <c r="G69" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Za/Zo</v>
       </c>
       <c r="H69" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Total</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -7209,7 +7206,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="6">
-        <f t="shared" ref="H71:H74" si="19">SUM(B71:G71)</f>
+        <f t="shared" ref="H71:H74" si="21">SUM(B71:G71)</f>
         <v>0</v>
       </c>
     </row>
@@ -7222,7 +7219,7 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7235,7 +7232,7 @@
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -7248,59 +7245,59 @@
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="str">
+      <c r="A75" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B75" s="12">
-        <f t="shared" ref="B75:G75" si="20">SUM(B70:B74)</f>
-        <v>0</v>
-      </c>
-      <c r="C75" s="12">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D75" s="12">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="12">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="12">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="12">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="12">
+      <c r="B75" s="11">
+        <f t="shared" ref="B75:G75" si="22">SUM(B70:B74)</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="11">
         <f>SUM(B75:G75)</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="str">
+      <c r="A77" s="12" t="str">
         <f>Total!D10</f>
         <v>Student-9</v>
       </c>
-      <c r="B77" s="42" t="str">
+      <c r="B77" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="44"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="42"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="str">
@@ -7312,33 +7309,33 @@
         <v>Ma</v>
       </c>
       <c r="C78" s="8" t="str">
-        <f t="shared" ref="C78:H78" si="21">C$4</f>
+        <f t="shared" ref="C78:H78" si="23">C$4</f>
         <v>Di</v>
       </c>
       <c r="D78" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Wo</v>
       </c>
       <c r="E78" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Do</v>
       </c>
       <c r="F78" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Vr</v>
       </c>
       <c r="G78" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Za/Zo</v>
       </c>
       <c r="H78" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Total</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -7360,7 +7357,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="6">
-        <f t="shared" ref="H80:H83" si="22">SUM(B80:G80)</f>
+        <f t="shared" ref="H80:H83" si="24">SUM(B80:G80)</f>
         <v>0</v>
       </c>
     </row>
@@ -7373,7 +7370,7 @@
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -7386,7 +7383,7 @@
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -7399,59 +7396,59 @@
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="str">
+      <c r="A84" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B84" s="12">
-        <f t="shared" ref="B84:G84" si="23">SUM(B79:B83)</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="12">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="D84" s="12">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="12">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="F84" s="12">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="12">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="12">
+      <c r="B84" s="11">
+        <f t="shared" ref="B84:G84" si="25">SUM(B79:B83)</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D84" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="11">
         <f>SUM(B84:G84)</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="str">
+      <c r="A86" s="12" t="str">
         <f>Total!D11</f>
         <v>Student-10</v>
       </c>
-      <c r="B86" s="42" t="str">
+      <c r="B86" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="44"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="str">
@@ -7463,33 +7460,33 @@
         <v>Ma</v>
       </c>
       <c r="C87" s="8" t="str">
-        <f t="shared" ref="C87:H87" si="24">C$4</f>
+        <f t="shared" ref="C87:H87" si="26">C$4</f>
         <v>Di</v>
       </c>
       <c r="D87" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Wo</v>
       </c>
       <c r="E87" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Do</v>
       </c>
       <c r="F87" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Vr</v>
       </c>
       <c r="G87" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Za/Zo</v>
       </c>
       <c r="H87" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Total</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -7511,7 +7508,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="6">
-        <f t="shared" ref="H89:H92" si="25">SUM(B89:G89)</f>
+        <f t="shared" ref="H89:H92" si="27">SUM(B89:G89)</f>
         <v>0</v>
       </c>
     </row>
@@ -7524,7 +7521,7 @@
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -7537,7 +7534,7 @@
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
       <c r="H91" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -7550,57 +7547,57 @@
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="str">
+      <c r="A93" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B93" s="12">
-        <f t="shared" ref="B93:G93" si="26">SUM(B88:B92)</f>
-        <v>0</v>
-      </c>
-      <c r="C93" s="12">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="D93" s="12">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="12">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="12">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="12">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="12">
+      <c r="B93" s="11">
+        <f t="shared" ref="B93:G93" si="28">SUM(B88:B92)</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="D93" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="11">
         <f>SUM(B93:G93)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7881,36 +7878,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="str">
+      <c r="A1" s="23" t="str">
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="43" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="str">
+      <c r="A3" s="13" t="str">
         <f>Total!D2</f>
-        <v>Student-1</v>
-      </c>
-      <c r="B3" s="42" t="str">
+        <v xml:space="preserve">Badr </v>
+      </c>
+      <c r="B3" s="40" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -8011,36 +8008,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="str">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <f>SUM(B10:G10)</f>
         <v>0</v>
       </c>
@@ -8056,20 +8053,20 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="str">
+      <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Student-2</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -8170,55 +8167,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="str">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <f>SUM(B19:G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="str">
+      <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Student-3</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -8319,55 +8316,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="str">
+    <row r="28" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <f>SUM(B28:G28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="str">
+      <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Student-4</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -8468,55 +8465,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="str">
+    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <f>SUM(B37:G37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="str">
+      <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Student-5</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -8554,7 +8551,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -8620,54 +8617,54 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="str">
+      <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <f>SUM(B46:G46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="str">
+      <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Student-6</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -8705,7 +8702,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8771,54 +8768,54 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="str">
+      <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="str">
+      <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Student-7</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -8856,7 +8853,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8922,54 +8919,54 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="str">
+      <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
         <v>0</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <f>SUM(B64:G64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="str">
+      <c r="A66" s="12" t="str">
         <f>Total!D9</f>
         <v>Student-8</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -9007,7 +9004,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -9073,54 +9070,54 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="str">
+      <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <f>SUM(B73:G73)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="str">
+      <c r="A75" s="12" t="str">
         <f>Total!D10</f>
         <v>Student-9</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -9158,7 +9155,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -9224,54 +9221,54 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="str">
+      <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="11">
         <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
         <v>0</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="11">
         <f>SUM(B82:G82)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="str">
+      <c r="A84" s="12" t="str">
         <f>Total!D11</f>
         <v>Student-10</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -9309,7 +9306,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -9375,52 +9372,52 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="str">
+      <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="11">
         <f t="shared" ref="B91:G91" si="25">SUM(B86:B90)</f>
         <v>0</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="11">
         <f>SUM(B91:G91)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9696,36 +9693,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="str">
+      <c r="A1" s="23" t="str">
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="43" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="str">
+      <c r="A3" s="13" t="str">
         <f>Total!D2</f>
-        <v>Student-1</v>
-      </c>
-      <c r="B3" s="42" t="str">
+        <v xml:space="preserve">Badr </v>
+      </c>
+      <c r="B3" s="40" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -9826,36 +9823,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="str">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <f>SUM(B10:G10)</f>
         <v>0</v>
       </c>
@@ -9871,20 +9868,20 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="str">
+      <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Student-2</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -9985,55 +9982,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="str">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <f>SUM(B19:G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="str">
+      <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Student-3</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -10134,55 +10131,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="str">
+    <row r="28" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <f>SUM(B28:G28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="str">
+      <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Student-4</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -10283,55 +10280,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="str">
+    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <f>SUM(B37:G37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="str">
+      <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Student-5</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -10369,7 +10366,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -10435,54 +10432,54 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="str">
+      <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <f>SUM(B46:G46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="str">
+      <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Student-6</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -10520,7 +10517,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -10586,54 +10583,54 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="str">
+      <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="str">
+      <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Student-7</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -10671,7 +10668,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -10737,54 +10734,54 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="str">
+      <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
         <v>0</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <f>SUM(B64:G64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="str">
+      <c r="A66" s="12" t="str">
         <f>Total!D9</f>
         <v>Student-8</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -10822,7 +10819,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -10888,54 +10885,54 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="str">
+      <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <f>SUM(B73:G73)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="str">
+      <c r="A75" s="12" t="str">
         <f>Total!D10</f>
         <v>Student-9</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -10973,7 +10970,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -11039,54 +11036,54 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="str">
+      <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="11">
         <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
         <v>0</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="11">
         <f>SUM(B82:G82)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="str">
+      <c r="A84" s="12" t="str">
         <f>Total!D11</f>
         <v>Student-10</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -11124,7 +11121,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -11190,52 +11187,52 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="str">
+      <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="11">
         <f t="shared" ref="B91:G91" si="25">SUM(B86:B90)</f>
         <v>0</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="11">
         <f>SUM(B91:G91)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11511,36 +11508,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="str">
+      <c r="A1" s="23" t="str">
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="43" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="str">
+      <c r="A3" s="13" t="str">
         <f>Total!D2</f>
-        <v>Student-1</v>
-      </c>
-      <c r="B3" s="42" t="str">
+        <v xml:space="preserve">Badr </v>
+      </c>
+      <c r="B3" s="40" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -11641,36 +11638,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="str">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <f>SUM(B10:G10)</f>
         <v>0</v>
       </c>
@@ -11686,20 +11683,20 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="str">
+      <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Student-2</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -11800,55 +11797,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="str">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <f>SUM(B19:G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="str">
+      <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Student-3</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -11949,55 +11946,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="str">
+    <row r="28" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <f>SUM(B28:G28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="str">
+      <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Student-4</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -12098,55 +12095,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="str">
+    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <f>SUM(B37:G37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="str">
+      <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Student-5</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -12184,7 +12181,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -12250,54 +12247,54 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="str">
+      <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <f>SUM(B46:G46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="str">
+      <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Student-6</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -12335,7 +12332,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -12401,54 +12398,54 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="str">
+      <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="str">
+      <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Student-7</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -12486,7 +12483,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -12552,54 +12549,54 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="str">
+      <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
         <v>0</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <f>SUM(B64:G64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="str">
+      <c r="A66" s="12" t="str">
         <f>Total!D9</f>
         <v>Student-8</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -12637,7 +12634,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -12703,54 +12700,54 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="str">
+      <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <f>SUM(B73:G73)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="str">
+      <c r="A75" s="12" t="str">
         <f>Total!D10</f>
         <v>Student-9</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -12788,7 +12785,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -12854,54 +12851,54 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="str">
+      <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="11">
         <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
         <v>0</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="11">
         <f>SUM(B82:G82)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="str">
+      <c r="A84" s="12" t="str">
         <f>Total!D11</f>
         <v>Student-10</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -12939,7 +12936,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -13005,52 +13002,52 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="str">
+      <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="11">
         <f t="shared" ref="B91:G91" si="25">SUM(B86:B90)</f>
         <v>0</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="11">
         <f>SUM(B91:G91)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13326,35 +13323,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="str">
+      <c r="A1" s="23" t="str">
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="43" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="str">
+      <c r="A3" s="13" t="str">
         <f>Total!D2</f>
-        <v>Student-1</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+        <v xml:space="preserve">Badr </v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -13455,36 +13452,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="str">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <f>SUM(B10:G10)</f>
         <v>0</v>
       </c>
@@ -13500,20 +13497,20 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="str">
+      <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Student-2</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="40" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -13614,55 +13611,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="str">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <f>SUM(B19:G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="str">
+      <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Student-3</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="40" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -13763,55 +13760,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="str">
+    <row r="28" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <f>SUM(B28:G28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="str">
+      <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Student-4</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="40" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -13912,55 +13909,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="str">
+    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <f>SUM(B37:G37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="str">
+      <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Student-5</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="40" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -13998,7 +13995,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -14064,54 +14061,54 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="str">
+      <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <f>SUM(B46:G46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="str">
+      <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Student-6</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="40" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -14149,7 +14146,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -14215,54 +14212,54 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="str">
+      <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="str">
+      <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Student-7</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="40" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -14300,7 +14297,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -14366,54 +14363,54 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="str">
+      <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
         <v>0</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <f>SUM(B64:G64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="str">
+      <c r="A66" s="12" t="str">
         <f>Total!D9</f>
         <v>Student-8</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="40" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -14451,7 +14448,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -14517,54 +14514,54 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="str">
+      <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <f>SUM(B73:G73)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="str">
+      <c r="A75" s="12" t="str">
         <f>Total!D10</f>
         <v>Student-9</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="40" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -14602,7 +14599,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -14668,54 +14665,54 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="str">
+      <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="11">
         <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
         <v>0</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="11">
         <f>SUM(B82:G82)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="str">
+      <c r="A84" s="12" t="str">
         <f>Total!D11</f>
         <v>Student-10</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="40" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -14753,7 +14750,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -14819,52 +14816,52 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="str">
+      <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="11">
         <f t="shared" ref="B91:G91" si="25">SUM(B86:B90)</f>
         <v>0</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="11">
         <f>SUM(B91:G91)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15140,36 +15137,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="str">
+      <c r="A1" s="23" t="str">
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="43" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="str">
+      <c r="A3" s="13" t="str">
         <f>Total!D2</f>
-        <v>Student-1</v>
-      </c>
-      <c r="B3" s="42" t="str">
+        <v xml:space="preserve">Badr </v>
+      </c>
+      <c r="B3" s="40" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -15270,36 +15267,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="str">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <f>SUM(B10:G10)</f>
         <v>0</v>
       </c>
@@ -15315,20 +15312,20 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="str">
+      <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Student-2</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -15429,55 +15426,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="str">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <f>SUM(B19:G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="str">
+      <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Student-3</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -15578,55 +15575,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="str">
+    <row r="28" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <f>SUM(B28:G28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="str">
+      <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Student-4</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -15727,55 +15724,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="str">
+    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <f>SUM(B37:G37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="str">
+      <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Student-5</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -15810,7 +15807,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -15876,54 +15873,54 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="str">
+      <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <f>SUM(B46:G46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="str">
+      <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Student-6</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -15961,7 +15958,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -16027,54 +16024,54 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="str">
+      <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="str">
+      <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Student-7</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -16112,7 +16109,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -16178,54 +16175,54 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="str">
+      <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
         <v>0</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <f>SUM(B64:G64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="str">
+      <c r="A66" s="12" t="str">
         <f>Total!D9</f>
         <v>Student-8</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -16263,7 +16260,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -16329,54 +16326,54 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="str">
+      <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <f>SUM(B73:G73)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="str">
+      <c r="A75" s="12" t="str">
         <f>Total!D10</f>
         <v>Student-9</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -16414,7 +16411,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -16480,54 +16477,54 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="str">
+      <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="11">
         <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
         <v>0</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="11">
         <f>SUM(B82:G82)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="str">
+      <c r="A84" s="12" t="str">
         <f>Total!D11</f>
         <v>Student-10</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -16565,7 +16562,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -16631,52 +16628,52 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="str">
+      <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="11">
         <f t="shared" ref="B91:G91" si="25">SUM(B86:B90)</f>
         <v>0</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="11">
         <f>SUM(B91:G91)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16952,36 +16949,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="str">
+      <c r="A1" s="23" t="str">
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="43" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="str">
+      <c r="A3" s="13" t="str">
         <f>Total!D2</f>
-        <v>Student-1</v>
-      </c>
-      <c r="B3" s="42" t="str">
+        <v xml:space="preserve">Badr </v>
+      </c>
+      <c r="B3" s="40" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -17082,36 +17079,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="str">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <f>SUM(B10:G10)</f>
         <v>0</v>
       </c>
@@ -17127,20 +17124,20 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="str">
+      <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Student-2</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -17241,55 +17238,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="str">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <f>SUM(B19:G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="str">
+      <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Student-3</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -17390,55 +17387,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="str">
+    <row r="28" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
         <v>0</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <f>SUM(B28:G28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="str">
+      <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Student-4</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -17539,55 +17536,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="str">
+    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <f>SUM(B37:G37)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="str">
+      <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Student-5</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -17625,7 +17622,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -17691,54 +17688,54 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="str">
+      <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <f>SUM(B46:G46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="str">
+      <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Student-6</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -17776,7 +17773,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -17842,54 +17839,54 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="str">
+      <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="str">
+      <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Student-7</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -17927,7 +17924,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -17993,54 +17990,54 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="str">
+      <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
         <v>0</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <f>SUM(B64:G64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="str">
+      <c r="A66" s="12" t="str">
         <f>Total!D9</f>
         <v>Student-8</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -18078,7 +18075,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -18144,54 +18141,54 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="str">
+      <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
         <v>0</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <f>SUM(B73:G73)</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="str">
+      <c r="A75" s="12" t="str">
         <f>Total!D10</f>
         <v>Student-9</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -18229,7 +18226,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -18295,54 +18292,54 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="str">
+      <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B82" s="12">
+      <c r="B82" s="11">
         <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
         <v>0</v>
       </c>
-      <c r="C82" s="12">
+      <c r="C82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E82" s="12">
+      <c r="E82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="11">
         <f>SUM(B82:G82)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="str">
+      <c r="A84" s="12" t="str">
         <f>Total!D11</f>
         <v>Student-10</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="40" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -18380,7 +18377,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -18446,52 +18443,52 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="str">
+      <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B91" s="12">
+      <c r="B91" s="11">
         <f t="shared" ref="B91:G91" si="25">SUM(B86:B90)</f>
         <v>0</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E91" s="12">
+      <c r="E91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F91" s="12">
+      <c r="F91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H91" s="12">
+      <c r="H91" s="11">
         <f>SUM(B91:G91)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18499,6 +18496,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100294690D6A57C3C4B8650464765815F1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="bf1d2ff51e740e451b46e7c13bf9e6da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45f6ce90-ba85-4ef2-b43f-c64448cd95eb" xmlns:ns3="c7549584-aa9c-449c-abfe-2ca02f3a7188" xmlns:ns4="6c73e52c-07d4-4617-ab67-464747257e8d" xmlns:ns5="ab37b2fe-4f81-426e-b942-40459dbac68c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8575fd65d7959dd12bd4dc11d36e634e" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
@@ -18741,27 +18758,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18780,23 +18796,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://saxion-my.sharepoint.com/personal/508343_student_saxion_nl/Documents/ICT 2 Year/Project Client on Board/ProjectClientOnBoard/.idea/shelf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi\Documents\60\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CF53D10-28CE-4BD9-B86C-3963EE37D218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B656C62-2E37-40F9-A584-327F582CF3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" tabRatio="835" firstSheet="9" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="835" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -747,7 +747,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3621,27 +3621,27 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="27" customFormat="1" ht="25.9">
+    <row r="1" spans="1:8" s="27" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="35" customFormat="1" ht="21">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="26" customFormat="1" ht="21">
+    <row r="3" spans="1:8" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="26" customFormat="1" ht="21">
+    <row r="7" spans="1:8" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3681,273 +3681,273 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A799882-C011-443F-BBA4-4F4C207196D0}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
-    <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
-    <col min="9" max="239" width="8.85546875" style="5"/>
-    <col min="240" max="240" width="43.85546875" style="5" customWidth="1"/>
-    <col min="241" max="246" width="6.140625" style="5" customWidth="1"/>
-    <col min="247" max="247" width="7.42578125" style="5" customWidth="1"/>
-    <col min="248" max="495" width="8.85546875" style="5"/>
-    <col min="496" max="496" width="43.85546875" style="5" customWidth="1"/>
-    <col min="497" max="502" width="6.140625" style="5" customWidth="1"/>
-    <col min="503" max="503" width="7.42578125" style="5" customWidth="1"/>
-    <col min="504" max="751" width="8.85546875" style="5"/>
-    <col min="752" max="752" width="43.85546875" style="5" customWidth="1"/>
-    <col min="753" max="758" width="6.140625" style="5" customWidth="1"/>
-    <col min="759" max="759" width="7.42578125" style="5" customWidth="1"/>
-    <col min="760" max="1007" width="8.85546875" style="5"/>
-    <col min="1008" max="1008" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1009" max="1014" width="6.140625" style="5" customWidth="1"/>
-    <col min="1015" max="1015" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1016" max="1263" width="8.85546875" style="5"/>
-    <col min="1264" max="1264" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1265" max="1270" width="6.140625" style="5" customWidth="1"/>
-    <col min="1271" max="1271" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1272" max="1519" width="8.85546875" style="5"/>
-    <col min="1520" max="1520" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1521" max="1526" width="6.140625" style="5" customWidth="1"/>
-    <col min="1527" max="1527" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1528" max="1775" width="8.85546875" style="5"/>
-    <col min="1776" max="1776" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1777" max="1782" width="6.140625" style="5" customWidth="1"/>
-    <col min="1783" max="1783" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1784" max="2031" width="8.85546875" style="5"/>
-    <col min="2032" max="2032" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2033" max="2038" width="6.140625" style="5" customWidth="1"/>
-    <col min="2039" max="2039" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2040" max="2287" width="8.85546875" style="5"/>
-    <col min="2288" max="2288" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2289" max="2294" width="6.140625" style="5" customWidth="1"/>
-    <col min="2295" max="2295" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2296" max="2543" width="8.85546875" style="5"/>
-    <col min="2544" max="2544" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2545" max="2550" width="6.140625" style="5" customWidth="1"/>
-    <col min="2551" max="2551" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2552" max="2799" width="8.85546875" style="5"/>
-    <col min="2800" max="2800" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2801" max="2806" width="6.140625" style="5" customWidth="1"/>
-    <col min="2807" max="2807" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2808" max="3055" width="8.85546875" style="5"/>
-    <col min="3056" max="3056" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3057" max="3062" width="6.140625" style="5" customWidth="1"/>
-    <col min="3063" max="3063" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3064" max="3311" width="8.85546875" style="5"/>
-    <col min="3312" max="3312" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3313" max="3318" width="6.140625" style="5" customWidth="1"/>
-    <col min="3319" max="3319" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3320" max="3567" width="8.85546875" style="5"/>
-    <col min="3568" max="3568" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3569" max="3574" width="6.140625" style="5" customWidth="1"/>
-    <col min="3575" max="3575" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3576" max="3823" width="8.85546875" style="5"/>
-    <col min="3824" max="3824" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3825" max="3830" width="6.140625" style="5" customWidth="1"/>
-    <col min="3831" max="3831" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3832" max="4079" width="8.85546875" style="5"/>
-    <col min="4080" max="4080" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4081" max="4086" width="6.140625" style="5" customWidth="1"/>
-    <col min="4087" max="4087" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4088" max="4335" width="8.85546875" style="5"/>
-    <col min="4336" max="4336" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4337" max="4342" width="6.140625" style="5" customWidth="1"/>
-    <col min="4343" max="4343" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4344" max="4591" width="8.85546875" style="5"/>
-    <col min="4592" max="4592" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4593" max="4598" width="6.140625" style="5" customWidth="1"/>
-    <col min="4599" max="4599" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4600" max="4847" width="8.85546875" style="5"/>
-    <col min="4848" max="4848" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4849" max="4854" width="6.140625" style="5" customWidth="1"/>
-    <col min="4855" max="4855" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4856" max="5103" width="8.85546875" style="5"/>
-    <col min="5104" max="5104" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5105" max="5110" width="6.140625" style="5" customWidth="1"/>
-    <col min="5111" max="5111" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5112" max="5359" width="8.85546875" style="5"/>
-    <col min="5360" max="5360" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5361" max="5366" width="6.140625" style="5" customWidth="1"/>
-    <col min="5367" max="5367" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5368" max="5615" width="8.85546875" style="5"/>
-    <col min="5616" max="5616" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5617" max="5622" width="6.140625" style="5" customWidth="1"/>
-    <col min="5623" max="5623" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5624" max="5871" width="8.85546875" style="5"/>
-    <col min="5872" max="5872" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5873" max="5878" width="6.140625" style="5" customWidth="1"/>
-    <col min="5879" max="5879" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5880" max="6127" width="8.85546875" style="5"/>
-    <col min="6128" max="6128" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6129" max="6134" width="6.140625" style="5" customWidth="1"/>
-    <col min="6135" max="6135" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6136" max="6383" width="8.85546875" style="5"/>
-    <col min="6384" max="6384" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6385" max="6390" width="6.140625" style="5" customWidth="1"/>
-    <col min="6391" max="6391" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6392" max="6639" width="8.85546875" style="5"/>
-    <col min="6640" max="6640" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6641" max="6646" width="6.140625" style="5" customWidth="1"/>
-    <col min="6647" max="6647" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6648" max="6895" width="8.85546875" style="5"/>
-    <col min="6896" max="6896" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6897" max="6902" width="6.140625" style="5" customWidth="1"/>
-    <col min="6903" max="6903" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6904" max="7151" width="8.85546875" style="5"/>
-    <col min="7152" max="7152" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7153" max="7158" width="6.140625" style="5" customWidth="1"/>
-    <col min="7159" max="7159" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7160" max="7407" width="8.85546875" style="5"/>
-    <col min="7408" max="7408" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7409" max="7414" width="6.140625" style="5" customWidth="1"/>
-    <col min="7415" max="7415" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7416" max="7663" width="8.85546875" style="5"/>
-    <col min="7664" max="7664" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7665" max="7670" width="6.140625" style="5" customWidth="1"/>
-    <col min="7671" max="7671" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7672" max="7919" width="8.85546875" style="5"/>
-    <col min="7920" max="7920" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7921" max="7926" width="6.140625" style="5" customWidth="1"/>
-    <col min="7927" max="7927" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7928" max="8175" width="8.85546875" style="5"/>
-    <col min="8176" max="8176" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8177" max="8182" width="6.140625" style="5" customWidth="1"/>
-    <col min="8183" max="8183" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8184" max="8431" width="8.85546875" style="5"/>
-    <col min="8432" max="8432" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8433" max="8438" width="6.140625" style="5" customWidth="1"/>
-    <col min="8439" max="8439" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8440" max="8687" width="8.85546875" style="5"/>
-    <col min="8688" max="8688" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8689" max="8694" width="6.140625" style="5" customWidth="1"/>
-    <col min="8695" max="8695" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8696" max="8943" width="8.85546875" style="5"/>
-    <col min="8944" max="8944" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8945" max="8950" width="6.140625" style="5" customWidth="1"/>
-    <col min="8951" max="8951" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8952" max="9199" width="8.85546875" style="5"/>
-    <col min="9200" max="9200" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9201" max="9206" width="6.140625" style="5" customWidth="1"/>
-    <col min="9207" max="9207" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9208" max="9455" width="8.85546875" style="5"/>
-    <col min="9456" max="9456" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9457" max="9462" width="6.140625" style="5" customWidth="1"/>
-    <col min="9463" max="9463" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9464" max="9711" width="8.85546875" style="5"/>
-    <col min="9712" max="9712" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9713" max="9718" width="6.140625" style="5" customWidth="1"/>
-    <col min="9719" max="9719" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9720" max="9967" width="8.85546875" style="5"/>
-    <col min="9968" max="9968" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9969" max="9974" width="6.140625" style="5" customWidth="1"/>
-    <col min="9975" max="9975" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9976" max="10223" width="8.85546875" style="5"/>
-    <col min="10224" max="10224" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10225" max="10230" width="6.140625" style="5" customWidth="1"/>
-    <col min="10231" max="10231" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10232" max="10479" width="8.85546875" style="5"/>
-    <col min="10480" max="10480" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10481" max="10486" width="6.140625" style="5" customWidth="1"/>
-    <col min="10487" max="10487" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10488" max="10735" width="8.85546875" style="5"/>
-    <col min="10736" max="10736" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10737" max="10742" width="6.140625" style="5" customWidth="1"/>
-    <col min="10743" max="10743" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10744" max="10991" width="8.85546875" style="5"/>
-    <col min="10992" max="10992" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10993" max="10998" width="6.140625" style="5" customWidth="1"/>
-    <col min="10999" max="10999" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11000" max="11247" width="8.85546875" style="5"/>
-    <col min="11248" max="11248" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11249" max="11254" width="6.140625" style="5" customWidth="1"/>
-    <col min="11255" max="11255" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11256" max="11503" width="8.85546875" style="5"/>
-    <col min="11504" max="11504" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11505" max="11510" width="6.140625" style="5" customWidth="1"/>
-    <col min="11511" max="11511" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11512" max="11759" width="8.85546875" style="5"/>
-    <col min="11760" max="11760" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11761" max="11766" width="6.140625" style="5" customWidth="1"/>
-    <col min="11767" max="11767" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11768" max="12015" width="8.85546875" style="5"/>
-    <col min="12016" max="12016" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12017" max="12022" width="6.140625" style="5" customWidth="1"/>
-    <col min="12023" max="12023" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12024" max="12271" width="8.85546875" style="5"/>
-    <col min="12272" max="12272" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12273" max="12278" width="6.140625" style="5" customWidth="1"/>
-    <col min="12279" max="12279" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12280" max="12527" width="8.85546875" style="5"/>
-    <col min="12528" max="12528" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12529" max="12534" width="6.140625" style="5" customWidth="1"/>
-    <col min="12535" max="12535" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12536" max="12783" width="8.85546875" style="5"/>
-    <col min="12784" max="12784" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12785" max="12790" width="6.140625" style="5" customWidth="1"/>
-    <col min="12791" max="12791" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12792" max="13039" width="8.85546875" style="5"/>
-    <col min="13040" max="13040" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13041" max="13046" width="6.140625" style="5" customWidth="1"/>
-    <col min="13047" max="13047" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13048" max="13295" width="8.85546875" style="5"/>
-    <col min="13296" max="13296" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13297" max="13302" width="6.140625" style="5" customWidth="1"/>
-    <col min="13303" max="13303" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13304" max="13551" width="8.85546875" style="5"/>
-    <col min="13552" max="13552" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13553" max="13558" width="6.140625" style="5" customWidth="1"/>
-    <col min="13559" max="13559" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13560" max="13807" width="8.85546875" style="5"/>
-    <col min="13808" max="13808" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13809" max="13814" width="6.140625" style="5" customWidth="1"/>
-    <col min="13815" max="13815" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13816" max="14063" width="8.85546875" style="5"/>
-    <col min="14064" max="14064" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14065" max="14070" width="6.140625" style="5" customWidth="1"/>
-    <col min="14071" max="14071" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14072" max="14319" width="8.85546875" style="5"/>
-    <col min="14320" max="14320" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14321" max="14326" width="6.140625" style="5" customWidth="1"/>
-    <col min="14327" max="14327" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14328" max="14575" width="8.85546875" style="5"/>
-    <col min="14576" max="14576" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14577" max="14582" width="6.140625" style="5" customWidth="1"/>
-    <col min="14583" max="14583" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14584" max="14831" width="8.85546875" style="5"/>
-    <col min="14832" max="14832" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14833" max="14838" width="6.140625" style="5" customWidth="1"/>
-    <col min="14839" max="14839" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14840" max="15087" width="8.85546875" style="5"/>
-    <col min="15088" max="15088" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15089" max="15094" width="6.140625" style="5" customWidth="1"/>
-    <col min="15095" max="15095" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15096" max="15343" width="8.85546875" style="5"/>
-    <col min="15344" max="15344" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15345" max="15350" width="6.140625" style="5" customWidth="1"/>
-    <col min="15351" max="15351" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15352" max="15599" width="8.85546875" style="5"/>
-    <col min="15600" max="15600" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15601" max="15606" width="6.140625" style="5" customWidth="1"/>
-    <col min="15607" max="15607" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15608" max="15855" width="8.85546875" style="5"/>
-    <col min="15856" max="15856" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15857" max="15862" width="6.140625" style="5" customWidth="1"/>
-    <col min="15863" max="15863" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15864" max="16111" width="8.85546875" style="5"/>
-    <col min="16112" max="16112" width="43.85546875" style="5" customWidth="1"/>
-    <col min="16113" max="16118" width="6.140625" style="5" customWidth="1"/>
-    <col min="16119" max="16119" width="7.42578125" style="5" customWidth="1"/>
-    <col min="16120" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="71.44140625" style="5" customWidth="1"/>
+    <col min="2" max="7" width="7.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="5" customWidth="1"/>
+    <col min="9" max="239" width="8.88671875" style="5"/>
+    <col min="240" max="240" width="43.88671875" style="5" customWidth="1"/>
+    <col min="241" max="246" width="6.109375" style="5" customWidth="1"/>
+    <col min="247" max="247" width="7.44140625" style="5" customWidth="1"/>
+    <col min="248" max="495" width="8.88671875" style="5"/>
+    <col min="496" max="496" width="43.88671875" style="5" customWidth="1"/>
+    <col min="497" max="502" width="6.109375" style="5" customWidth="1"/>
+    <col min="503" max="503" width="7.44140625" style="5" customWidth="1"/>
+    <col min="504" max="751" width="8.88671875" style="5"/>
+    <col min="752" max="752" width="43.88671875" style="5" customWidth="1"/>
+    <col min="753" max="758" width="6.109375" style="5" customWidth="1"/>
+    <col min="759" max="759" width="7.44140625" style="5" customWidth="1"/>
+    <col min="760" max="1007" width="8.88671875" style="5"/>
+    <col min="1008" max="1008" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1009" max="1014" width="6.109375" style="5" customWidth="1"/>
+    <col min="1015" max="1015" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1016" max="1263" width="8.88671875" style="5"/>
+    <col min="1264" max="1264" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1265" max="1270" width="6.109375" style="5" customWidth="1"/>
+    <col min="1271" max="1271" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1272" max="1519" width="8.88671875" style="5"/>
+    <col min="1520" max="1520" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1521" max="1526" width="6.109375" style="5" customWidth="1"/>
+    <col min="1527" max="1527" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1528" max="1775" width="8.88671875" style="5"/>
+    <col min="1776" max="1776" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1777" max="1782" width="6.109375" style="5" customWidth="1"/>
+    <col min="1783" max="1783" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1784" max="2031" width="8.88671875" style="5"/>
+    <col min="2032" max="2032" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2033" max="2038" width="6.109375" style="5" customWidth="1"/>
+    <col min="2039" max="2039" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2040" max="2287" width="8.88671875" style="5"/>
+    <col min="2288" max="2288" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2289" max="2294" width="6.109375" style="5" customWidth="1"/>
+    <col min="2295" max="2295" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2296" max="2543" width="8.88671875" style="5"/>
+    <col min="2544" max="2544" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2545" max="2550" width="6.109375" style="5" customWidth="1"/>
+    <col min="2551" max="2551" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2552" max="2799" width="8.88671875" style="5"/>
+    <col min="2800" max="2800" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2801" max="2806" width="6.109375" style="5" customWidth="1"/>
+    <col min="2807" max="2807" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2808" max="3055" width="8.88671875" style="5"/>
+    <col min="3056" max="3056" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3057" max="3062" width="6.109375" style="5" customWidth="1"/>
+    <col min="3063" max="3063" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3064" max="3311" width="8.88671875" style="5"/>
+    <col min="3312" max="3312" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3313" max="3318" width="6.109375" style="5" customWidth="1"/>
+    <col min="3319" max="3319" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3320" max="3567" width="8.88671875" style="5"/>
+    <col min="3568" max="3568" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3569" max="3574" width="6.109375" style="5" customWidth="1"/>
+    <col min="3575" max="3575" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3576" max="3823" width="8.88671875" style="5"/>
+    <col min="3824" max="3824" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3825" max="3830" width="6.109375" style="5" customWidth="1"/>
+    <col min="3831" max="3831" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3832" max="4079" width="8.88671875" style="5"/>
+    <col min="4080" max="4080" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4081" max="4086" width="6.109375" style="5" customWidth="1"/>
+    <col min="4087" max="4087" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4088" max="4335" width="8.88671875" style="5"/>
+    <col min="4336" max="4336" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4337" max="4342" width="6.109375" style="5" customWidth="1"/>
+    <col min="4343" max="4343" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4344" max="4591" width="8.88671875" style="5"/>
+    <col min="4592" max="4592" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4593" max="4598" width="6.109375" style="5" customWidth="1"/>
+    <col min="4599" max="4599" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4600" max="4847" width="8.88671875" style="5"/>
+    <col min="4848" max="4848" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4849" max="4854" width="6.109375" style="5" customWidth="1"/>
+    <col min="4855" max="4855" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4856" max="5103" width="8.88671875" style="5"/>
+    <col min="5104" max="5104" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5105" max="5110" width="6.109375" style="5" customWidth="1"/>
+    <col min="5111" max="5111" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5112" max="5359" width="8.88671875" style="5"/>
+    <col min="5360" max="5360" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5361" max="5366" width="6.109375" style="5" customWidth="1"/>
+    <col min="5367" max="5367" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5368" max="5615" width="8.88671875" style="5"/>
+    <col min="5616" max="5616" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5617" max="5622" width="6.109375" style="5" customWidth="1"/>
+    <col min="5623" max="5623" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5624" max="5871" width="8.88671875" style="5"/>
+    <col min="5872" max="5872" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5873" max="5878" width="6.109375" style="5" customWidth="1"/>
+    <col min="5879" max="5879" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5880" max="6127" width="8.88671875" style="5"/>
+    <col min="6128" max="6128" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6129" max="6134" width="6.109375" style="5" customWidth="1"/>
+    <col min="6135" max="6135" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6136" max="6383" width="8.88671875" style="5"/>
+    <col min="6384" max="6384" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6385" max="6390" width="6.109375" style="5" customWidth="1"/>
+    <col min="6391" max="6391" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6392" max="6639" width="8.88671875" style="5"/>
+    <col min="6640" max="6640" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6641" max="6646" width="6.109375" style="5" customWidth="1"/>
+    <col min="6647" max="6647" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6648" max="6895" width="8.88671875" style="5"/>
+    <col min="6896" max="6896" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6897" max="6902" width="6.109375" style="5" customWidth="1"/>
+    <col min="6903" max="6903" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6904" max="7151" width="8.88671875" style="5"/>
+    <col min="7152" max="7152" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7153" max="7158" width="6.109375" style="5" customWidth="1"/>
+    <col min="7159" max="7159" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7160" max="7407" width="8.88671875" style="5"/>
+    <col min="7408" max="7408" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7409" max="7414" width="6.109375" style="5" customWidth="1"/>
+    <col min="7415" max="7415" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7416" max="7663" width="8.88671875" style="5"/>
+    <col min="7664" max="7664" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7665" max="7670" width="6.109375" style="5" customWidth="1"/>
+    <col min="7671" max="7671" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7672" max="7919" width="8.88671875" style="5"/>
+    <col min="7920" max="7920" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7921" max="7926" width="6.109375" style="5" customWidth="1"/>
+    <col min="7927" max="7927" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7928" max="8175" width="8.88671875" style="5"/>
+    <col min="8176" max="8176" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8177" max="8182" width="6.109375" style="5" customWidth="1"/>
+    <col min="8183" max="8183" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8184" max="8431" width="8.88671875" style="5"/>
+    <col min="8432" max="8432" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8433" max="8438" width="6.109375" style="5" customWidth="1"/>
+    <col min="8439" max="8439" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8440" max="8687" width="8.88671875" style="5"/>
+    <col min="8688" max="8688" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8689" max="8694" width="6.109375" style="5" customWidth="1"/>
+    <col min="8695" max="8695" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8696" max="8943" width="8.88671875" style="5"/>
+    <col min="8944" max="8944" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8945" max="8950" width="6.109375" style="5" customWidth="1"/>
+    <col min="8951" max="8951" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8952" max="9199" width="8.88671875" style="5"/>
+    <col min="9200" max="9200" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9201" max="9206" width="6.109375" style="5" customWidth="1"/>
+    <col min="9207" max="9207" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9208" max="9455" width="8.88671875" style="5"/>
+    <col min="9456" max="9456" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9457" max="9462" width="6.109375" style="5" customWidth="1"/>
+    <col min="9463" max="9463" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9464" max="9711" width="8.88671875" style="5"/>
+    <col min="9712" max="9712" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9713" max="9718" width="6.109375" style="5" customWidth="1"/>
+    <col min="9719" max="9719" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9720" max="9967" width="8.88671875" style="5"/>
+    <col min="9968" max="9968" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9969" max="9974" width="6.109375" style="5" customWidth="1"/>
+    <col min="9975" max="9975" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9976" max="10223" width="8.88671875" style="5"/>
+    <col min="10224" max="10224" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10225" max="10230" width="6.109375" style="5" customWidth="1"/>
+    <col min="10231" max="10231" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10232" max="10479" width="8.88671875" style="5"/>
+    <col min="10480" max="10480" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10481" max="10486" width="6.109375" style="5" customWidth="1"/>
+    <col min="10487" max="10487" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10488" max="10735" width="8.88671875" style="5"/>
+    <col min="10736" max="10736" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10737" max="10742" width="6.109375" style="5" customWidth="1"/>
+    <col min="10743" max="10743" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10744" max="10991" width="8.88671875" style="5"/>
+    <col min="10992" max="10992" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10993" max="10998" width="6.109375" style="5" customWidth="1"/>
+    <col min="10999" max="10999" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11000" max="11247" width="8.88671875" style="5"/>
+    <col min="11248" max="11248" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11249" max="11254" width="6.109375" style="5" customWidth="1"/>
+    <col min="11255" max="11255" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11256" max="11503" width="8.88671875" style="5"/>
+    <col min="11504" max="11504" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11505" max="11510" width="6.109375" style="5" customWidth="1"/>
+    <col min="11511" max="11511" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11512" max="11759" width="8.88671875" style="5"/>
+    <col min="11760" max="11760" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11761" max="11766" width="6.109375" style="5" customWidth="1"/>
+    <col min="11767" max="11767" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11768" max="12015" width="8.88671875" style="5"/>
+    <col min="12016" max="12016" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12017" max="12022" width="6.109375" style="5" customWidth="1"/>
+    <col min="12023" max="12023" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12024" max="12271" width="8.88671875" style="5"/>
+    <col min="12272" max="12272" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12273" max="12278" width="6.109375" style="5" customWidth="1"/>
+    <col min="12279" max="12279" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12280" max="12527" width="8.88671875" style="5"/>
+    <col min="12528" max="12528" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12529" max="12534" width="6.109375" style="5" customWidth="1"/>
+    <col min="12535" max="12535" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12536" max="12783" width="8.88671875" style="5"/>
+    <col min="12784" max="12784" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12785" max="12790" width="6.109375" style="5" customWidth="1"/>
+    <col min="12791" max="12791" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12792" max="13039" width="8.88671875" style="5"/>
+    <col min="13040" max="13040" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13041" max="13046" width="6.109375" style="5" customWidth="1"/>
+    <col min="13047" max="13047" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13048" max="13295" width="8.88671875" style="5"/>
+    <col min="13296" max="13296" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13297" max="13302" width="6.109375" style="5" customWidth="1"/>
+    <col min="13303" max="13303" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13304" max="13551" width="8.88671875" style="5"/>
+    <col min="13552" max="13552" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13553" max="13558" width="6.109375" style="5" customWidth="1"/>
+    <col min="13559" max="13559" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13560" max="13807" width="8.88671875" style="5"/>
+    <col min="13808" max="13808" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13809" max="13814" width="6.109375" style="5" customWidth="1"/>
+    <col min="13815" max="13815" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13816" max="14063" width="8.88671875" style="5"/>
+    <col min="14064" max="14064" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14065" max="14070" width="6.109375" style="5" customWidth="1"/>
+    <col min="14071" max="14071" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14072" max="14319" width="8.88671875" style="5"/>
+    <col min="14320" max="14320" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14321" max="14326" width="6.109375" style="5" customWidth="1"/>
+    <col min="14327" max="14327" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14328" max="14575" width="8.88671875" style="5"/>
+    <col min="14576" max="14576" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14577" max="14582" width="6.109375" style="5" customWidth="1"/>
+    <col min="14583" max="14583" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14584" max="14831" width="8.88671875" style="5"/>
+    <col min="14832" max="14832" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14833" max="14838" width="6.109375" style="5" customWidth="1"/>
+    <col min="14839" max="14839" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14840" max="15087" width="8.88671875" style="5"/>
+    <col min="15088" max="15088" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15089" max="15094" width="6.109375" style="5" customWidth="1"/>
+    <col min="15095" max="15095" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15096" max="15343" width="8.88671875" style="5"/>
+    <col min="15344" max="15344" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15345" max="15350" width="6.109375" style="5" customWidth="1"/>
+    <col min="15351" max="15351" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15352" max="15599" width="8.88671875" style="5"/>
+    <col min="15600" max="15600" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15601" max="15606" width="6.109375" style="5" customWidth="1"/>
+    <col min="15607" max="15607" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15608" max="15855" width="8.88671875" style="5"/>
+    <col min="15856" max="15856" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15857" max="15862" width="6.109375" style="5" customWidth="1"/>
+    <col min="15863" max="15863" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15864" max="16111" width="8.88671875" style="5"/>
+    <col min="16112" max="16112" width="43.88671875" style="5" customWidth="1"/>
+    <col min="16113" max="16118" width="6.109375" style="5" customWidth="1"/>
+    <col min="16119" max="16119" width="7.44140625" style="5" customWidth="1"/>
+    <col min="16120" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="str">
         <f>Total!$L$1</f>
         <v>Week 8</v>
@@ -3963,7 +3963,7 @@
       <c r="G1" s="58"/>
       <c r="H1" s="59"/>
     </row>
-    <row r="3" spans="1:8" ht="22.9">
+    <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v xml:space="preserve">Badr </v>
@@ -3979,7 +3979,7 @@
       <c r="G3" s="56"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -4013,7 +4013,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>51</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>194</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>195</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>196</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>197</v>
       </c>
@@ -4099,7 +4099,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>198</v>
       </c>
@@ -4113,7 +4113,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>199</v>
       </c>
@@ -4130,33 +4130,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
       <c r="B12" s="11">
-        <f>SUM(B5:B11)</f>
+        <f t="shared" ref="B12:G12" si="1">SUM(B5:B11)</f>
         <v>7</v>
       </c>
       <c r="C12" s="11">
-        <f>SUM(C5:C11)</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="D12" s="11">
-        <f>SUM(D5:D11)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E12" s="11">
-        <f>SUM(E5:E11)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="F12" s="11">
-        <f>SUM(F5:F11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f>SUM(G5:G11)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H12" s="11">
@@ -4164,7 +4164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4174,7 +4174,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="22.9">
+    <row r="14" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f>Total!D3</f>
         <v>Frankie</v>
@@ -4190,7 +4190,7 @@
       <c r="G14" s="56"/>
       <c r="H14" s="57"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -4224,7 +4224,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>143</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>200</v>
       </c>
@@ -4256,11 +4256,11 @@
         <v>5</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" ref="H17:H21" si="1">SUM(B17:G17)</f>
+        <f t="shared" ref="H17:H21" si="2">SUM(B17:G17)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>201</v>
       </c>
@@ -4275,11 +4275,11 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>202</v>
       </c>
@@ -4292,11 +4292,11 @@
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="22" customFormat="1">
+    <row r="20" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>203</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>204</v>
       </c>
@@ -4325,37 +4325,37 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
       <c r="B22" s="11">
-        <f t="shared" ref="B22:G22" si="2">SUM(B16:B21)</f>
+        <f t="shared" ref="B22:G22" si="3">SUM(B16:B21)</f>
         <v>2</v>
       </c>
       <c r="C22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="D22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="F22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H22" s="11">
@@ -4363,7 +4363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="22.9">
+    <row r="24" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
         <f>Total!D4</f>
         <v>Desmond</v>
@@ -4379,7 +4379,7 @@
       <c r="G24" s="56"/>
       <c r="H24" s="57"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -4413,7 +4413,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>143</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>205</v>
       </c>
@@ -4445,11 +4445,11 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="6">
-        <f t="shared" ref="H27:H32" si="3">SUM(B27:G27)</f>
+        <f t="shared" ref="H27:H32" si="4">SUM(B27:G27)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>206</v>
       </c>
@@ -4462,11 +4462,11 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>207</v>
       </c>
@@ -4479,11 +4479,11 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="22" customFormat="1">
+    <row r="30" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>208</v>
       </c>
@@ -4496,7 +4496,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" s="22" customFormat="1" ht="26.45">
+    <row r="31" spans="1:8" s="22" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>209</v>
       </c>
@@ -4510,7 +4510,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>210</v>
       </c>
@@ -4523,37 +4523,37 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
       <c r="B33" s="11">
-        <f>SUM(B26:B32)</f>
+        <f t="shared" ref="B33:G33" si="5">SUM(B26:B32)</f>
         <v>9</v>
       </c>
       <c r="C33" s="11">
-        <f>SUM(C26:C32)</f>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
       <c r="D33" s="11">
-        <f>SUM(D26:D32)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="E33" s="11">
-        <f>SUM(E26:E32)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F33" s="11">
-        <f>SUM(F26:F32)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G33" s="11">
-        <f>SUM(G26:G32)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H33" s="11">
@@ -4561,7 +4561,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="22.9">
+    <row r="35" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="str">
         <f>Total!D5</f>
         <v>Georgi</v>
@@ -4577,7 +4577,7 @@
       <c r="G35" s="56"/>
       <c r="H35" s="57"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -4611,7 +4611,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>143</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="39.6">
+    <row r="38" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
         <v>211</v>
       </c>
@@ -4644,7 +4644,7 @@
       <c r="G38" s="10"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="26.45">
+    <row r="39" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
         <v>212</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="G39" s="10"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" s="22" customFormat="1" ht="39.6">
+    <row r="40" spans="1:8" s="22" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
         <v>213</v>
       </c>
@@ -4672,7 +4672,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
         <v>214</v>
       </c>
@@ -4686,7 +4686,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="26.45">
+    <row r="42" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
         <v>215</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="26.45">
+    <row r="43" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
         <v>216</v>
       </c>
@@ -4714,7 +4714,7 @@
       <c r="G43" s="10"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="39.6">
+    <row r="44" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
         <v>217</v>
       </c>
@@ -4727,11 +4727,11 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
-        <f t="shared" ref="H44:H48" si="4">SUM(B44:G44)</f>
+        <f t="shared" ref="H44:H48" si="6">SUM(B44:G44)</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="39.6">
+    <row r="45" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
         <v>218</v>
       </c>
@@ -4744,11 +4744,11 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="39.6">
+    <row r="46" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
         <v>219</v>
       </c>
@@ -4761,11 +4761,11 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="26.45">
+    <row r="47" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>220</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="26.45">
+    <row r="48" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
         <v>221</v>
       </c>
@@ -4792,11 +4792,11 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
         <v>222</v>
       </c>
@@ -4810,7 +4810,7 @@
       </c>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="52.9">
+    <row r="50" spans="1:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>223</v>
       </c>
@@ -4824,33 +4824,33 @@
       </c>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
       <c r="B51" s="11">
-        <f>SUM(B37:B48)</f>
+        <f t="shared" ref="B51:G51" si="7">SUM(B37:B48)</f>
         <v>1.75</v>
       </c>
       <c r="C51" s="11">
-        <f>SUM(C37:C48)</f>
+        <f t="shared" si="7"/>
         <v>9.25</v>
       </c>
       <c r="D51" s="11">
-        <f>SUM(D37:D48)</f>
+        <f t="shared" si="7"/>
         <v>10.5</v>
       </c>
       <c r="E51" s="11">
-        <f>SUM(E37:E48)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F51" s="11">
-        <f>SUM(F37:F48)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G51" s="11">
-        <f>SUM(G37:G48)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H51" s="11">
@@ -4858,8 +4858,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.25"/>
-    <row r="54" spans="1:8" ht="22.9">
+    <row r="54" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="str">
         <f>Total!D7</f>
         <v>Pablo</v>
@@ -4875,7 +4874,7 @@
       <c r="G54" s="56"/>
       <c r="H54" s="57"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -4885,31 +4884,31 @@
         <v>Ma</v>
       </c>
       <c r="C55" s="8" t="str">
-        <f t="shared" ref="C55:H55" si="5">C$4</f>
+        <f t="shared" ref="C55:H55" si="8">C$4</f>
         <v>Di</v>
       </c>
       <c r="D55" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Wo</v>
       </c>
       <c r="E55" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Do</v>
       </c>
       <c r="F55" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Vr</v>
       </c>
       <c r="G55" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Za/Zo</v>
       </c>
       <c r="H55" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>48</v>
       </c>
@@ -4924,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>224</v>
       </c>
@@ -4940,11 +4939,11 @@
         <v>1</v>
       </c>
       <c r="H57" s="6">
-        <f t="shared" ref="H57:H61" si="6">SUM(B57:G57)</f>
+        <f t="shared" ref="H57:H61" si="9">SUM(B57:G57)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.45">
+    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>143</v>
       </c>
@@ -4963,7 +4962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.45">
+    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>225</v>
       </c>
@@ -4979,7 +4978,7 @@
       <c r="G59" s="10"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" ht="14.45">
+    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4989,7 +4988,7 @@
       <c r="G60" s="10"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>226</v>
       </c>
@@ -5004,11 +5003,11 @@
         <v>2</v>
       </c>
       <c r="H61" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>227</v>
       </c>
@@ -5025,33 +5024,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="str">
         <f>$A$12</f>
         <v>Total</v>
       </c>
       <c r="B63" s="11">
-        <f>SUM(B56:B62)</f>
+        <f t="shared" ref="B63:G63" si="10">SUM(B56:B62)</f>
         <v>4</v>
       </c>
       <c r="C63" s="11">
-        <f>SUM(C56:C62)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="D63" s="11">
-        <f>SUM(D56:D62)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="E63" s="11">
-        <f>SUM(E56:E62)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="F63" s="11">
-        <f>SUM(F56:F62)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G63" s="11">
-        <f>SUM(G56:G62)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="H63" s="11">
@@ -5059,7 +5058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="22.9">
+    <row r="65" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="str">
         <f>Total!D8</f>
         <v>Brice</v>
@@ -5075,7 +5074,7 @@
       <c r="G65" s="56"/>
       <c r="H65" s="57"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -5085,31 +5084,31 @@
         <v>Ma</v>
       </c>
       <c r="C66" s="8" t="str">
-        <f t="shared" ref="C66:H66" si="7">C$4</f>
+        <f t="shared" ref="C66:H66" si="11">C$4</f>
         <v>Di</v>
       </c>
       <c r="D66" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Wo</v>
       </c>
       <c r="E66" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Do</v>
       </c>
       <c r="F66" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Vr</v>
       </c>
       <c r="G66" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Za/Zo</v>
       </c>
       <c r="H66" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>48</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>143</v>
       </c>
@@ -5139,11 +5138,11 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="6">
-        <f t="shared" ref="H68:H71" si="8">SUM(B68:G68)</f>
+        <f t="shared" ref="H68:H71" si="12">SUM(B68:G68)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>228</v>
       </c>
@@ -5162,11 +5161,11 @@
         <v>2</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>229</v>
       </c>
@@ -5181,11 +5180,11 @@
         <v>2</v>
       </c>
       <c r="H70" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>230</v>
       </c>
@@ -5198,37 +5197,37 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="str">
         <f>$A$12</f>
         <v>Total</v>
       </c>
       <c r="B72" s="11">
-        <f t="shared" ref="B72:G72" si="9">SUM(B67:B71)</f>
+        <f t="shared" ref="B72:G72" si="13">SUM(B67:B71)</f>
         <v>2</v>
       </c>
       <c r="C72" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
       <c r="D72" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>3.5</v>
       </c>
       <c r="E72" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="H72" s="11">
@@ -5236,13 +5235,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14.25"/>
-    <row r="74" spans="1:8" ht="14.25"/>
-    <row r="75" spans="1:8" ht="14.25"/>
-    <row r="76" spans="1:8" ht="14.25"/>
-    <row r="77" spans="1:8" ht="14.25"/>
-    <row r="78" spans="1:8" ht="14.25"/>
-    <row r="79" spans="1:8" ht="14.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B54:H54"/>
@@ -5262,209 +5254,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="13" width="11.42578125" customWidth="1"/>
-    <col min="257" max="257" width="43.85546875" customWidth="1"/>
-    <col min="258" max="263" width="6.140625" customWidth="1"/>
-    <col min="264" max="264" width="7.42578125" customWidth="1"/>
-    <col min="513" max="513" width="43.85546875" customWidth="1"/>
-    <col min="514" max="519" width="6.140625" customWidth="1"/>
-    <col min="520" max="520" width="7.42578125" customWidth="1"/>
-    <col min="769" max="769" width="43.85546875" customWidth="1"/>
-    <col min="770" max="775" width="6.140625" customWidth="1"/>
-    <col min="776" max="776" width="7.42578125" customWidth="1"/>
-    <col min="1025" max="1025" width="43.85546875" customWidth="1"/>
-    <col min="1026" max="1031" width="6.140625" customWidth="1"/>
-    <col min="1032" max="1032" width="7.42578125" customWidth="1"/>
-    <col min="1281" max="1281" width="43.85546875" customWidth="1"/>
-    <col min="1282" max="1287" width="6.140625" customWidth="1"/>
-    <col min="1288" max="1288" width="7.42578125" customWidth="1"/>
-    <col min="1537" max="1537" width="43.85546875" customWidth="1"/>
-    <col min="1538" max="1543" width="6.140625" customWidth="1"/>
-    <col min="1544" max="1544" width="7.42578125" customWidth="1"/>
-    <col min="1793" max="1793" width="43.85546875" customWidth="1"/>
-    <col min="1794" max="1799" width="6.140625" customWidth="1"/>
-    <col min="1800" max="1800" width="7.42578125" customWidth="1"/>
-    <col min="2049" max="2049" width="43.85546875" customWidth="1"/>
-    <col min="2050" max="2055" width="6.140625" customWidth="1"/>
-    <col min="2056" max="2056" width="7.42578125" customWidth="1"/>
-    <col min="2305" max="2305" width="43.85546875" customWidth="1"/>
-    <col min="2306" max="2311" width="6.140625" customWidth="1"/>
-    <col min="2312" max="2312" width="7.42578125" customWidth="1"/>
-    <col min="2561" max="2561" width="43.85546875" customWidth="1"/>
-    <col min="2562" max="2567" width="6.140625" customWidth="1"/>
-    <col min="2568" max="2568" width="7.42578125" customWidth="1"/>
-    <col min="2817" max="2817" width="43.85546875" customWidth="1"/>
-    <col min="2818" max="2823" width="6.140625" customWidth="1"/>
-    <col min="2824" max="2824" width="7.42578125" customWidth="1"/>
-    <col min="3073" max="3073" width="43.85546875" customWidth="1"/>
-    <col min="3074" max="3079" width="6.140625" customWidth="1"/>
-    <col min="3080" max="3080" width="7.42578125" customWidth="1"/>
-    <col min="3329" max="3329" width="43.85546875" customWidth="1"/>
-    <col min="3330" max="3335" width="6.140625" customWidth="1"/>
-    <col min="3336" max="3336" width="7.42578125" customWidth="1"/>
-    <col min="3585" max="3585" width="43.85546875" customWidth="1"/>
-    <col min="3586" max="3591" width="6.140625" customWidth="1"/>
-    <col min="3592" max="3592" width="7.42578125" customWidth="1"/>
-    <col min="3841" max="3841" width="43.85546875" customWidth="1"/>
-    <col min="3842" max="3847" width="6.140625" customWidth="1"/>
-    <col min="3848" max="3848" width="7.42578125" customWidth="1"/>
-    <col min="4097" max="4097" width="43.85546875" customWidth="1"/>
-    <col min="4098" max="4103" width="6.140625" customWidth="1"/>
-    <col min="4104" max="4104" width="7.42578125" customWidth="1"/>
-    <col min="4353" max="4353" width="43.85546875" customWidth="1"/>
-    <col min="4354" max="4359" width="6.140625" customWidth="1"/>
-    <col min="4360" max="4360" width="7.42578125" customWidth="1"/>
-    <col min="4609" max="4609" width="43.85546875" customWidth="1"/>
-    <col min="4610" max="4615" width="6.140625" customWidth="1"/>
-    <col min="4616" max="4616" width="7.42578125" customWidth="1"/>
-    <col min="4865" max="4865" width="43.85546875" customWidth="1"/>
-    <col min="4866" max="4871" width="6.140625" customWidth="1"/>
-    <col min="4872" max="4872" width="7.42578125" customWidth="1"/>
-    <col min="5121" max="5121" width="43.85546875" customWidth="1"/>
-    <col min="5122" max="5127" width="6.140625" customWidth="1"/>
-    <col min="5128" max="5128" width="7.42578125" customWidth="1"/>
-    <col min="5377" max="5377" width="43.85546875" customWidth="1"/>
-    <col min="5378" max="5383" width="6.140625" customWidth="1"/>
-    <col min="5384" max="5384" width="7.42578125" customWidth="1"/>
-    <col min="5633" max="5633" width="43.85546875" customWidth="1"/>
-    <col min="5634" max="5639" width="6.140625" customWidth="1"/>
-    <col min="5640" max="5640" width="7.42578125" customWidth="1"/>
-    <col min="5889" max="5889" width="43.85546875" customWidth="1"/>
-    <col min="5890" max="5895" width="6.140625" customWidth="1"/>
-    <col min="5896" max="5896" width="7.42578125" customWidth="1"/>
-    <col min="6145" max="6145" width="43.85546875" customWidth="1"/>
-    <col min="6146" max="6151" width="6.140625" customWidth="1"/>
-    <col min="6152" max="6152" width="7.42578125" customWidth="1"/>
-    <col min="6401" max="6401" width="43.85546875" customWidth="1"/>
-    <col min="6402" max="6407" width="6.140625" customWidth="1"/>
-    <col min="6408" max="6408" width="7.42578125" customWidth="1"/>
-    <col min="6657" max="6657" width="43.85546875" customWidth="1"/>
-    <col min="6658" max="6663" width="6.140625" customWidth="1"/>
-    <col min="6664" max="6664" width="7.42578125" customWidth="1"/>
-    <col min="6913" max="6913" width="43.85546875" customWidth="1"/>
-    <col min="6914" max="6919" width="6.140625" customWidth="1"/>
-    <col min="6920" max="6920" width="7.42578125" customWidth="1"/>
-    <col min="7169" max="7169" width="43.85546875" customWidth="1"/>
-    <col min="7170" max="7175" width="6.140625" customWidth="1"/>
-    <col min="7176" max="7176" width="7.42578125" customWidth="1"/>
-    <col min="7425" max="7425" width="43.85546875" customWidth="1"/>
-    <col min="7426" max="7431" width="6.140625" customWidth="1"/>
-    <col min="7432" max="7432" width="7.42578125" customWidth="1"/>
-    <col min="7681" max="7681" width="43.85546875" customWidth="1"/>
-    <col min="7682" max="7687" width="6.140625" customWidth="1"/>
-    <col min="7688" max="7688" width="7.42578125" customWidth="1"/>
-    <col min="7937" max="7937" width="43.85546875" customWidth="1"/>
-    <col min="7938" max="7943" width="6.140625" customWidth="1"/>
-    <col min="7944" max="7944" width="7.42578125" customWidth="1"/>
-    <col min="8193" max="8193" width="43.85546875" customWidth="1"/>
-    <col min="8194" max="8199" width="6.140625" customWidth="1"/>
-    <col min="8200" max="8200" width="7.42578125" customWidth="1"/>
-    <col min="8449" max="8449" width="43.85546875" customWidth="1"/>
-    <col min="8450" max="8455" width="6.140625" customWidth="1"/>
-    <col min="8456" max="8456" width="7.42578125" customWidth="1"/>
-    <col min="8705" max="8705" width="43.85546875" customWidth="1"/>
-    <col min="8706" max="8711" width="6.140625" customWidth="1"/>
-    <col min="8712" max="8712" width="7.42578125" customWidth="1"/>
-    <col min="8961" max="8961" width="43.85546875" customWidth="1"/>
-    <col min="8962" max="8967" width="6.140625" customWidth="1"/>
-    <col min="8968" max="8968" width="7.42578125" customWidth="1"/>
-    <col min="9217" max="9217" width="43.85546875" customWidth="1"/>
-    <col min="9218" max="9223" width="6.140625" customWidth="1"/>
-    <col min="9224" max="9224" width="7.42578125" customWidth="1"/>
-    <col min="9473" max="9473" width="43.85546875" customWidth="1"/>
-    <col min="9474" max="9479" width="6.140625" customWidth="1"/>
-    <col min="9480" max="9480" width="7.42578125" customWidth="1"/>
-    <col min="9729" max="9729" width="43.85546875" customWidth="1"/>
-    <col min="9730" max="9735" width="6.140625" customWidth="1"/>
-    <col min="9736" max="9736" width="7.42578125" customWidth="1"/>
-    <col min="9985" max="9985" width="43.85546875" customWidth="1"/>
-    <col min="9986" max="9991" width="6.140625" customWidth="1"/>
-    <col min="9992" max="9992" width="7.42578125" customWidth="1"/>
-    <col min="10241" max="10241" width="43.85546875" customWidth="1"/>
-    <col min="10242" max="10247" width="6.140625" customWidth="1"/>
-    <col min="10248" max="10248" width="7.42578125" customWidth="1"/>
-    <col min="10497" max="10497" width="43.85546875" customWidth="1"/>
-    <col min="10498" max="10503" width="6.140625" customWidth="1"/>
-    <col min="10504" max="10504" width="7.42578125" customWidth="1"/>
-    <col min="10753" max="10753" width="43.85546875" customWidth="1"/>
-    <col min="10754" max="10759" width="6.140625" customWidth="1"/>
-    <col min="10760" max="10760" width="7.42578125" customWidth="1"/>
-    <col min="11009" max="11009" width="43.85546875" customWidth="1"/>
-    <col min="11010" max="11015" width="6.140625" customWidth="1"/>
-    <col min="11016" max="11016" width="7.42578125" customWidth="1"/>
-    <col min="11265" max="11265" width="43.85546875" customWidth="1"/>
-    <col min="11266" max="11271" width="6.140625" customWidth="1"/>
-    <col min="11272" max="11272" width="7.42578125" customWidth="1"/>
-    <col min="11521" max="11521" width="43.85546875" customWidth="1"/>
-    <col min="11522" max="11527" width="6.140625" customWidth="1"/>
-    <col min="11528" max="11528" width="7.42578125" customWidth="1"/>
-    <col min="11777" max="11777" width="43.85546875" customWidth="1"/>
-    <col min="11778" max="11783" width="6.140625" customWidth="1"/>
-    <col min="11784" max="11784" width="7.42578125" customWidth="1"/>
-    <col min="12033" max="12033" width="43.85546875" customWidth="1"/>
-    <col min="12034" max="12039" width="6.140625" customWidth="1"/>
-    <col min="12040" max="12040" width="7.42578125" customWidth="1"/>
-    <col min="12289" max="12289" width="43.85546875" customWidth="1"/>
-    <col min="12290" max="12295" width="6.140625" customWidth="1"/>
-    <col min="12296" max="12296" width="7.42578125" customWidth="1"/>
-    <col min="12545" max="12545" width="43.85546875" customWidth="1"/>
-    <col min="12546" max="12551" width="6.140625" customWidth="1"/>
-    <col min="12552" max="12552" width="7.42578125" customWidth="1"/>
-    <col min="12801" max="12801" width="43.85546875" customWidth="1"/>
-    <col min="12802" max="12807" width="6.140625" customWidth="1"/>
-    <col min="12808" max="12808" width="7.42578125" customWidth="1"/>
-    <col min="13057" max="13057" width="43.85546875" customWidth="1"/>
-    <col min="13058" max="13063" width="6.140625" customWidth="1"/>
-    <col min="13064" max="13064" width="7.42578125" customWidth="1"/>
-    <col min="13313" max="13313" width="43.85546875" customWidth="1"/>
-    <col min="13314" max="13319" width="6.140625" customWidth="1"/>
-    <col min="13320" max="13320" width="7.42578125" customWidth="1"/>
-    <col min="13569" max="13569" width="43.85546875" customWidth="1"/>
-    <col min="13570" max="13575" width="6.140625" customWidth="1"/>
-    <col min="13576" max="13576" width="7.42578125" customWidth="1"/>
-    <col min="13825" max="13825" width="43.85546875" customWidth="1"/>
-    <col min="13826" max="13831" width="6.140625" customWidth="1"/>
-    <col min="13832" max="13832" width="7.42578125" customWidth="1"/>
-    <col min="14081" max="14081" width="43.85546875" customWidth="1"/>
-    <col min="14082" max="14087" width="6.140625" customWidth="1"/>
-    <col min="14088" max="14088" width="7.42578125" customWidth="1"/>
-    <col min="14337" max="14337" width="43.85546875" customWidth="1"/>
-    <col min="14338" max="14343" width="6.140625" customWidth="1"/>
-    <col min="14344" max="14344" width="7.42578125" customWidth="1"/>
-    <col min="14593" max="14593" width="43.85546875" customWidth="1"/>
-    <col min="14594" max="14599" width="6.140625" customWidth="1"/>
-    <col min="14600" max="14600" width="7.42578125" customWidth="1"/>
-    <col min="14849" max="14849" width="43.85546875" customWidth="1"/>
-    <col min="14850" max="14855" width="6.140625" customWidth="1"/>
-    <col min="14856" max="14856" width="7.42578125" customWidth="1"/>
-    <col min="15105" max="15105" width="43.85546875" customWidth="1"/>
-    <col min="15106" max="15111" width="6.140625" customWidth="1"/>
-    <col min="15112" max="15112" width="7.42578125" customWidth="1"/>
-    <col min="15361" max="15361" width="43.85546875" customWidth="1"/>
-    <col min="15362" max="15367" width="6.140625" customWidth="1"/>
-    <col min="15368" max="15368" width="7.42578125" customWidth="1"/>
-    <col min="15617" max="15617" width="43.85546875" customWidth="1"/>
-    <col min="15618" max="15623" width="6.140625" customWidth="1"/>
-    <col min="15624" max="15624" width="7.42578125" customWidth="1"/>
-    <col min="15873" max="15873" width="43.85546875" customWidth="1"/>
-    <col min="15874" max="15879" width="6.140625" customWidth="1"/>
-    <col min="15880" max="15880" width="7.42578125" customWidth="1"/>
-    <col min="16129" max="16129" width="43.85546875" customWidth="1"/>
-    <col min="16130" max="16135" width="6.140625" customWidth="1"/>
-    <col min="16136" max="16136" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="5" max="13" width="11.44140625" customWidth="1"/>
+    <col min="257" max="257" width="43.88671875" customWidth="1"/>
+    <col min="258" max="263" width="6.109375" customWidth="1"/>
+    <col min="264" max="264" width="7.44140625" customWidth="1"/>
+    <col min="513" max="513" width="43.88671875" customWidth="1"/>
+    <col min="514" max="519" width="6.109375" customWidth="1"/>
+    <col min="520" max="520" width="7.44140625" customWidth="1"/>
+    <col min="769" max="769" width="43.88671875" customWidth="1"/>
+    <col min="770" max="775" width="6.109375" customWidth="1"/>
+    <col min="776" max="776" width="7.44140625" customWidth="1"/>
+    <col min="1025" max="1025" width="43.88671875" customWidth="1"/>
+    <col min="1026" max="1031" width="6.109375" customWidth="1"/>
+    <col min="1032" max="1032" width="7.44140625" customWidth="1"/>
+    <col min="1281" max="1281" width="43.88671875" customWidth="1"/>
+    <col min="1282" max="1287" width="6.109375" customWidth="1"/>
+    <col min="1288" max="1288" width="7.44140625" customWidth="1"/>
+    <col min="1537" max="1537" width="43.88671875" customWidth="1"/>
+    <col min="1538" max="1543" width="6.109375" customWidth="1"/>
+    <col min="1544" max="1544" width="7.44140625" customWidth="1"/>
+    <col min="1793" max="1793" width="43.88671875" customWidth="1"/>
+    <col min="1794" max="1799" width="6.109375" customWidth="1"/>
+    <col min="1800" max="1800" width="7.44140625" customWidth="1"/>
+    <col min="2049" max="2049" width="43.88671875" customWidth="1"/>
+    <col min="2050" max="2055" width="6.109375" customWidth="1"/>
+    <col min="2056" max="2056" width="7.44140625" customWidth="1"/>
+    <col min="2305" max="2305" width="43.88671875" customWidth="1"/>
+    <col min="2306" max="2311" width="6.109375" customWidth="1"/>
+    <col min="2312" max="2312" width="7.44140625" customWidth="1"/>
+    <col min="2561" max="2561" width="43.88671875" customWidth="1"/>
+    <col min="2562" max="2567" width="6.109375" customWidth="1"/>
+    <col min="2568" max="2568" width="7.44140625" customWidth="1"/>
+    <col min="2817" max="2817" width="43.88671875" customWidth="1"/>
+    <col min="2818" max="2823" width="6.109375" customWidth="1"/>
+    <col min="2824" max="2824" width="7.44140625" customWidth="1"/>
+    <col min="3073" max="3073" width="43.88671875" customWidth="1"/>
+    <col min="3074" max="3079" width="6.109375" customWidth="1"/>
+    <col min="3080" max="3080" width="7.44140625" customWidth="1"/>
+    <col min="3329" max="3329" width="43.88671875" customWidth="1"/>
+    <col min="3330" max="3335" width="6.109375" customWidth="1"/>
+    <col min="3336" max="3336" width="7.44140625" customWidth="1"/>
+    <col min="3585" max="3585" width="43.88671875" customWidth="1"/>
+    <col min="3586" max="3591" width="6.109375" customWidth="1"/>
+    <col min="3592" max="3592" width="7.44140625" customWidth="1"/>
+    <col min="3841" max="3841" width="43.88671875" customWidth="1"/>
+    <col min="3842" max="3847" width="6.109375" customWidth="1"/>
+    <col min="3848" max="3848" width="7.44140625" customWidth="1"/>
+    <col min="4097" max="4097" width="43.88671875" customWidth="1"/>
+    <col min="4098" max="4103" width="6.109375" customWidth="1"/>
+    <col min="4104" max="4104" width="7.44140625" customWidth="1"/>
+    <col min="4353" max="4353" width="43.88671875" customWidth="1"/>
+    <col min="4354" max="4359" width="6.109375" customWidth="1"/>
+    <col min="4360" max="4360" width="7.44140625" customWidth="1"/>
+    <col min="4609" max="4609" width="43.88671875" customWidth="1"/>
+    <col min="4610" max="4615" width="6.109375" customWidth="1"/>
+    <col min="4616" max="4616" width="7.44140625" customWidth="1"/>
+    <col min="4865" max="4865" width="43.88671875" customWidth="1"/>
+    <col min="4866" max="4871" width="6.109375" customWidth="1"/>
+    <col min="4872" max="4872" width="7.44140625" customWidth="1"/>
+    <col min="5121" max="5121" width="43.88671875" customWidth="1"/>
+    <col min="5122" max="5127" width="6.109375" customWidth="1"/>
+    <col min="5128" max="5128" width="7.44140625" customWidth="1"/>
+    <col min="5377" max="5377" width="43.88671875" customWidth="1"/>
+    <col min="5378" max="5383" width="6.109375" customWidth="1"/>
+    <col min="5384" max="5384" width="7.44140625" customWidth="1"/>
+    <col min="5633" max="5633" width="43.88671875" customWidth="1"/>
+    <col min="5634" max="5639" width="6.109375" customWidth="1"/>
+    <col min="5640" max="5640" width="7.44140625" customWidth="1"/>
+    <col min="5889" max="5889" width="43.88671875" customWidth="1"/>
+    <col min="5890" max="5895" width="6.109375" customWidth="1"/>
+    <col min="5896" max="5896" width="7.44140625" customWidth="1"/>
+    <col min="6145" max="6145" width="43.88671875" customWidth="1"/>
+    <col min="6146" max="6151" width="6.109375" customWidth="1"/>
+    <col min="6152" max="6152" width="7.44140625" customWidth="1"/>
+    <col min="6401" max="6401" width="43.88671875" customWidth="1"/>
+    <col min="6402" max="6407" width="6.109375" customWidth="1"/>
+    <col min="6408" max="6408" width="7.44140625" customWidth="1"/>
+    <col min="6657" max="6657" width="43.88671875" customWidth="1"/>
+    <col min="6658" max="6663" width="6.109375" customWidth="1"/>
+    <col min="6664" max="6664" width="7.44140625" customWidth="1"/>
+    <col min="6913" max="6913" width="43.88671875" customWidth="1"/>
+    <col min="6914" max="6919" width="6.109375" customWidth="1"/>
+    <col min="6920" max="6920" width="7.44140625" customWidth="1"/>
+    <col min="7169" max="7169" width="43.88671875" customWidth="1"/>
+    <col min="7170" max="7175" width="6.109375" customWidth="1"/>
+    <col min="7176" max="7176" width="7.44140625" customWidth="1"/>
+    <col min="7425" max="7425" width="43.88671875" customWidth="1"/>
+    <col min="7426" max="7431" width="6.109375" customWidth="1"/>
+    <col min="7432" max="7432" width="7.44140625" customWidth="1"/>
+    <col min="7681" max="7681" width="43.88671875" customWidth="1"/>
+    <col min="7682" max="7687" width="6.109375" customWidth="1"/>
+    <col min="7688" max="7688" width="7.44140625" customWidth="1"/>
+    <col min="7937" max="7937" width="43.88671875" customWidth="1"/>
+    <col min="7938" max="7943" width="6.109375" customWidth="1"/>
+    <col min="7944" max="7944" width="7.44140625" customWidth="1"/>
+    <col min="8193" max="8193" width="43.88671875" customWidth="1"/>
+    <col min="8194" max="8199" width="6.109375" customWidth="1"/>
+    <col min="8200" max="8200" width="7.44140625" customWidth="1"/>
+    <col min="8449" max="8449" width="43.88671875" customWidth="1"/>
+    <col min="8450" max="8455" width="6.109375" customWidth="1"/>
+    <col min="8456" max="8456" width="7.44140625" customWidth="1"/>
+    <col min="8705" max="8705" width="43.88671875" customWidth="1"/>
+    <col min="8706" max="8711" width="6.109375" customWidth="1"/>
+    <col min="8712" max="8712" width="7.44140625" customWidth="1"/>
+    <col min="8961" max="8961" width="43.88671875" customWidth="1"/>
+    <col min="8962" max="8967" width="6.109375" customWidth="1"/>
+    <col min="8968" max="8968" width="7.44140625" customWidth="1"/>
+    <col min="9217" max="9217" width="43.88671875" customWidth="1"/>
+    <col min="9218" max="9223" width="6.109375" customWidth="1"/>
+    <col min="9224" max="9224" width="7.44140625" customWidth="1"/>
+    <col min="9473" max="9473" width="43.88671875" customWidth="1"/>
+    <col min="9474" max="9479" width="6.109375" customWidth="1"/>
+    <col min="9480" max="9480" width="7.44140625" customWidth="1"/>
+    <col min="9729" max="9729" width="43.88671875" customWidth="1"/>
+    <col min="9730" max="9735" width="6.109375" customWidth="1"/>
+    <col min="9736" max="9736" width="7.44140625" customWidth="1"/>
+    <col min="9985" max="9985" width="43.88671875" customWidth="1"/>
+    <col min="9986" max="9991" width="6.109375" customWidth="1"/>
+    <col min="9992" max="9992" width="7.44140625" customWidth="1"/>
+    <col min="10241" max="10241" width="43.88671875" customWidth="1"/>
+    <col min="10242" max="10247" width="6.109375" customWidth="1"/>
+    <col min="10248" max="10248" width="7.44140625" customWidth="1"/>
+    <col min="10497" max="10497" width="43.88671875" customWidth="1"/>
+    <col min="10498" max="10503" width="6.109375" customWidth="1"/>
+    <col min="10504" max="10504" width="7.44140625" customWidth="1"/>
+    <col min="10753" max="10753" width="43.88671875" customWidth="1"/>
+    <col min="10754" max="10759" width="6.109375" customWidth="1"/>
+    <col min="10760" max="10760" width="7.44140625" customWidth="1"/>
+    <col min="11009" max="11009" width="43.88671875" customWidth="1"/>
+    <col min="11010" max="11015" width="6.109375" customWidth="1"/>
+    <col min="11016" max="11016" width="7.44140625" customWidth="1"/>
+    <col min="11265" max="11265" width="43.88671875" customWidth="1"/>
+    <col min="11266" max="11271" width="6.109375" customWidth="1"/>
+    <col min="11272" max="11272" width="7.44140625" customWidth="1"/>
+    <col min="11521" max="11521" width="43.88671875" customWidth="1"/>
+    <col min="11522" max="11527" width="6.109375" customWidth="1"/>
+    <col min="11528" max="11528" width="7.44140625" customWidth="1"/>
+    <col min="11777" max="11777" width="43.88671875" customWidth="1"/>
+    <col min="11778" max="11783" width="6.109375" customWidth="1"/>
+    <col min="11784" max="11784" width="7.44140625" customWidth="1"/>
+    <col min="12033" max="12033" width="43.88671875" customWidth="1"/>
+    <col min="12034" max="12039" width="6.109375" customWidth="1"/>
+    <col min="12040" max="12040" width="7.44140625" customWidth="1"/>
+    <col min="12289" max="12289" width="43.88671875" customWidth="1"/>
+    <col min="12290" max="12295" width="6.109375" customWidth="1"/>
+    <col min="12296" max="12296" width="7.44140625" customWidth="1"/>
+    <col min="12545" max="12545" width="43.88671875" customWidth="1"/>
+    <col min="12546" max="12551" width="6.109375" customWidth="1"/>
+    <col min="12552" max="12552" width="7.44140625" customWidth="1"/>
+    <col min="12801" max="12801" width="43.88671875" customWidth="1"/>
+    <col min="12802" max="12807" width="6.109375" customWidth="1"/>
+    <col min="12808" max="12808" width="7.44140625" customWidth="1"/>
+    <col min="13057" max="13057" width="43.88671875" customWidth="1"/>
+    <col min="13058" max="13063" width="6.109375" customWidth="1"/>
+    <col min="13064" max="13064" width="7.44140625" customWidth="1"/>
+    <col min="13313" max="13313" width="43.88671875" customWidth="1"/>
+    <col min="13314" max="13319" width="6.109375" customWidth="1"/>
+    <col min="13320" max="13320" width="7.44140625" customWidth="1"/>
+    <col min="13569" max="13569" width="43.88671875" customWidth="1"/>
+    <col min="13570" max="13575" width="6.109375" customWidth="1"/>
+    <col min="13576" max="13576" width="7.44140625" customWidth="1"/>
+    <col min="13825" max="13825" width="43.88671875" customWidth="1"/>
+    <col min="13826" max="13831" width="6.109375" customWidth="1"/>
+    <col min="13832" max="13832" width="7.44140625" customWidth="1"/>
+    <col min="14081" max="14081" width="43.88671875" customWidth="1"/>
+    <col min="14082" max="14087" width="6.109375" customWidth="1"/>
+    <col min="14088" max="14088" width="7.44140625" customWidth="1"/>
+    <col min="14337" max="14337" width="43.88671875" customWidth="1"/>
+    <col min="14338" max="14343" width="6.109375" customWidth="1"/>
+    <col min="14344" max="14344" width="7.44140625" customWidth="1"/>
+    <col min="14593" max="14593" width="43.88671875" customWidth="1"/>
+    <col min="14594" max="14599" width="6.109375" customWidth="1"/>
+    <col min="14600" max="14600" width="7.44140625" customWidth="1"/>
+    <col min="14849" max="14849" width="43.88671875" customWidth="1"/>
+    <col min="14850" max="14855" width="6.109375" customWidth="1"/>
+    <col min="14856" max="14856" width="7.44140625" customWidth="1"/>
+    <col min="15105" max="15105" width="43.88671875" customWidth="1"/>
+    <col min="15106" max="15111" width="6.109375" customWidth="1"/>
+    <col min="15112" max="15112" width="7.44140625" customWidth="1"/>
+    <col min="15361" max="15361" width="43.88671875" customWidth="1"/>
+    <col min="15362" max="15367" width="6.109375" customWidth="1"/>
+    <col min="15368" max="15368" width="7.44140625" customWidth="1"/>
+    <col min="15617" max="15617" width="43.88671875" customWidth="1"/>
+    <col min="15618" max="15623" width="6.109375" customWidth="1"/>
+    <col min="15624" max="15624" width="7.44140625" customWidth="1"/>
+    <col min="15873" max="15873" width="43.88671875" customWidth="1"/>
+    <col min="15874" max="15879" width="6.109375" customWidth="1"/>
+    <col min="15880" max="15880" width="7.44140625" customWidth="1"/>
+    <col min="16129" max="16129" width="43.88671875" customWidth="1"/>
+    <col min="16130" max="16135" width="6.109375" customWidth="1"/>
+    <col min="16136" max="16136" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33">
+    <row r="1" spans="1:13" ht="33" x14ac:dyDescent="0.4">
       <c r="A1" s="51" t="s">
         <v>11</v>
       </c>
@@ -5500,7 +5492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>22</v>
       </c>
@@ -5547,7 +5539,7 @@
         <v>139.30000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="53"/>
       <c r="B3" s="54"/>
       <c r="D3" s="16" t="s">
@@ -5590,7 +5582,7 @@
         <v>128.5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
         <v>26</v>
       </c>
@@ -5637,7 +5629,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
       <c r="B5" s="54"/>
       <c r="D5" s="16" t="s">
@@ -5680,7 +5672,7 @@
         <v>140.65</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="D6" s="16" t="s">
@@ -5718,7 +5710,7 @@
         <v>34.15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="31"/>
       <c r="D7" s="16" t="s">
@@ -5761,7 +5753,7 @@
         <v>121.4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
       <c r="D8" s="16" t="s">
@@ -5804,7 +5796,7 @@
         <v>122.05</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
       <c r="D9" s="17" t="s">
@@ -5843,7 +5835,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
       <c r="D10" s="19" t="s">
@@ -5870,7 +5862,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
       <c r="B11" s="31"/>
       <c r="D11" s="14" t="s">
@@ -5909,7 +5901,7 @@
         <v>-141.04999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>37</v>
       </c>
@@ -5980,267 +5972,267 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
-    <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
-    <col min="9" max="239" width="8.85546875" style="5"/>
-    <col min="240" max="240" width="43.85546875" style="5" customWidth="1"/>
-    <col min="241" max="246" width="6.140625" style="5" customWidth="1"/>
-    <col min="247" max="247" width="7.42578125" style="5" customWidth="1"/>
-    <col min="248" max="495" width="8.85546875" style="5"/>
-    <col min="496" max="496" width="43.85546875" style="5" customWidth="1"/>
-    <col min="497" max="502" width="6.140625" style="5" customWidth="1"/>
-    <col min="503" max="503" width="7.42578125" style="5" customWidth="1"/>
-    <col min="504" max="751" width="8.85546875" style="5"/>
-    <col min="752" max="752" width="43.85546875" style="5" customWidth="1"/>
-    <col min="753" max="758" width="6.140625" style="5" customWidth="1"/>
-    <col min="759" max="759" width="7.42578125" style="5" customWidth="1"/>
-    <col min="760" max="1007" width="8.85546875" style="5"/>
-    <col min="1008" max="1008" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1009" max="1014" width="6.140625" style="5" customWidth="1"/>
-    <col min="1015" max="1015" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1016" max="1263" width="8.85546875" style="5"/>
-    <col min="1264" max="1264" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1265" max="1270" width="6.140625" style="5" customWidth="1"/>
-    <col min="1271" max="1271" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1272" max="1519" width="8.85546875" style="5"/>
-    <col min="1520" max="1520" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1521" max="1526" width="6.140625" style="5" customWidth="1"/>
-    <col min="1527" max="1527" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1528" max="1775" width="8.85546875" style="5"/>
-    <col min="1776" max="1776" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1777" max="1782" width="6.140625" style="5" customWidth="1"/>
-    <col min="1783" max="1783" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1784" max="2031" width="8.85546875" style="5"/>
-    <col min="2032" max="2032" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2033" max="2038" width="6.140625" style="5" customWidth="1"/>
-    <col min="2039" max="2039" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2040" max="2287" width="8.85546875" style="5"/>
-    <col min="2288" max="2288" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2289" max="2294" width="6.140625" style="5" customWidth="1"/>
-    <col min="2295" max="2295" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2296" max="2543" width="8.85546875" style="5"/>
-    <col min="2544" max="2544" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2545" max="2550" width="6.140625" style="5" customWidth="1"/>
-    <col min="2551" max="2551" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2552" max="2799" width="8.85546875" style="5"/>
-    <col min="2800" max="2800" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2801" max="2806" width="6.140625" style="5" customWidth="1"/>
-    <col min="2807" max="2807" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2808" max="3055" width="8.85546875" style="5"/>
-    <col min="3056" max="3056" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3057" max="3062" width="6.140625" style="5" customWidth="1"/>
-    <col min="3063" max="3063" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3064" max="3311" width="8.85546875" style="5"/>
-    <col min="3312" max="3312" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3313" max="3318" width="6.140625" style="5" customWidth="1"/>
-    <col min="3319" max="3319" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3320" max="3567" width="8.85546875" style="5"/>
-    <col min="3568" max="3568" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3569" max="3574" width="6.140625" style="5" customWidth="1"/>
-    <col min="3575" max="3575" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3576" max="3823" width="8.85546875" style="5"/>
-    <col min="3824" max="3824" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3825" max="3830" width="6.140625" style="5" customWidth="1"/>
-    <col min="3831" max="3831" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3832" max="4079" width="8.85546875" style="5"/>
-    <col min="4080" max="4080" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4081" max="4086" width="6.140625" style="5" customWidth="1"/>
-    <col min="4087" max="4087" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4088" max="4335" width="8.85546875" style="5"/>
-    <col min="4336" max="4336" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4337" max="4342" width="6.140625" style="5" customWidth="1"/>
-    <col min="4343" max="4343" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4344" max="4591" width="8.85546875" style="5"/>
-    <col min="4592" max="4592" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4593" max="4598" width="6.140625" style="5" customWidth="1"/>
-    <col min="4599" max="4599" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4600" max="4847" width="8.85546875" style="5"/>
-    <col min="4848" max="4848" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4849" max="4854" width="6.140625" style="5" customWidth="1"/>
-    <col min="4855" max="4855" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4856" max="5103" width="8.85546875" style="5"/>
-    <col min="5104" max="5104" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5105" max="5110" width="6.140625" style="5" customWidth="1"/>
-    <col min="5111" max="5111" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5112" max="5359" width="8.85546875" style="5"/>
-    <col min="5360" max="5360" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5361" max="5366" width="6.140625" style="5" customWidth="1"/>
-    <col min="5367" max="5367" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5368" max="5615" width="8.85546875" style="5"/>
-    <col min="5616" max="5616" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5617" max="5622" width="6.140625" style="5" customWidth="1"/>
-    <col min="5623" max="5623" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5624" max="5871" width="8.85546875" style="5"/>
-    <col min="5872" max="5872" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5873" max="5878" width="6.140625" style="5" customWidth="1"/>
-    <col min="5879" max="5879" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5880" max="6127" width="8.85546875" style="5"/>
-    <col min="6128" max="6128" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6129" max="6134" width="6.140625" style="5" customWidth="1"/>
-    <col min="6135" max="6135" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6136" max="6383" width="8.85546875" style="5"/>
-    <col min="6384" max="6384" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6385" max="6390" width="6.140625" style="5" customWidth="1"/>
-    <col min="6391" max="6391" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6392" max="6639" width="8.85546875" style="5"/>
-    <col min="6640" max="6640" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6641" max="6646" width="6.140625" style="5" customWidth="1"/>
-    <col min="6647" max="6647" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6648" max="6895" width="8.85546875" style="5"/>
-    <col min="6896" max="6896" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6897" max="6902" width="6.140625" style="5" customWidth="1"/>
-    <col min="6903" max="6903" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6904" max="7151" width="8.85546875" style="5"/>
-    <col min="7152" max="7152" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7153" max="7158" width="6.140625" style="5" customWidth="1"/>
-    <col min="7159" max="7159" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7160" max="7407" width="8.85546875" style="5"/>
-    <col min="7408" max="7408" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7409" max="7414" width="6.140625" style="5" customWidth="1"/>
-    <col min="7415" max="7415" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7416" max="7663" width="8.85546875" style="5"/>
-    <col min="7664" max="7664" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7665" max="7670" width="6.140625" style="5" customWidth="1"/>
-    <col min="7671" max="7671" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7672" max="7919" width="8.85546875" style="5"/>
-    <col min="7920" max="7920" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7921" max="7926" width="6.140625" style="5" customWidth="1"/>
-    <col min="7927" max="7927" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7928" max="8175" width="8.85546875" style="5"/>
-    <col min="8176" max="8176" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8177" max="8182" width="6.140625" style="5" customWidth="1"/>
-    <col min="8183" max="8183" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8184" max="8431" width="8.85546875" style="5"/>
-    <col min="8432" max="8432" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8433" max="8438" width="6.140625" style="5" customWidth="1"/>
-    <col min="8439" max="8439" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8440" max="8687" width="8.85546875" style="5"/>
-    <col min="8688" max="8688" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8689" max="8694" width="6.140625" style="5" customWidth="1"/>
-    <col min="8695" max="8695" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8696" max="8943" width="8.85546875" style="5"/>
-    <col min="8944" max="8944" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8945" max="8950" width="6.140625" style="5" customWidth="1"/>
-    <col min="8951" max="8951" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8952" max="9199" width="8.85546875" style="5"/>
-    <col min="9200" max="9200" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9201" max="9206" width="6.140625" style="5" customWidth="1"/>
-    <col min="9207" max="9207" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9208" max="9455" width="8.85546875" style="5"/>
-    <col min="9456" max="9456" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9457" max="9462" width="6.140625" style="5" customWidth="1"/>
-    <col min="9463" max="9463" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9464" max="9711" width="8.85546875" style="5"/>
-    <col min="9712" max="9712" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9713" max="9718" width="6.140625" style="5" customWidth="1"/>
-    <col min="9719" max="9719" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9720" max="9967" width="8.85546875" style="5"/>
-    <col min="9968" max="9968" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9969" max="9974" width="6.140625" style="5" customWidth="1"/>
-    <col min="9975" max="9975" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9976" max="10223" width="8.85546875" style="5"/>
-    <col min="10224" max="10224" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10225" max="10230" width="6.140625" style="5" customWidth="1"/>
-    <col min="10231" max="10231" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10232" max="10479" width="8.85546875" style="5"/>
-    <col min="10480" max="10480" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10481" max="10486" width="6.140625" style="5" customWidth="1"/>
-    <col min="10487" max="10487" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10488" max="10735" width="8.85546875" style="5"/>
-    <col min="10736" max="10736" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10737" max="10742" width="6.140625" style="5" customWidth="1"/>
-    <col min="10743" max="10743" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10744" max="10991" width="8.85546875" style="5"/>
-    <col min="10992" max="10992" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10993" max="10998" width="6.140625" style="5" customWidth="1"/>
-    <col min="10999" max="10999" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11000" max="11247" width="8.85546875" style="5"/>
-    <col min="11248" max="11248" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11249" max="11254" width="6.140625" style="5" customWidth="1"/>
-    <col min="11255" max="11255" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11256" max="11503" width="8.85546875" style="5"/>
-    <col min="11504" max="11504" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11505" max="11510" width="6.140625" style="5" customWidth="1"/>
-    <col min="11511" max="11511" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11512" max="11759" width="8.85546875" style="5"/>
-    <col min="11760" max="11760" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11761" max="11766" width="6.140625" style="5" customWidth="1"/>
-    <col min="11767" max="11767" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11768" max="12015" width="8.85546875" style="5"/>
-    <col min="12016" max="12016" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12017" max="12022" width="6.140625" style="5" customWidth="1"/>
-    <col min="12023" max="12023" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12024" max="12271" width="8.85546875" style="5"/>
-    <col min="12272" max="12272" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12273" max="12278" width="6.140625" style="5" customWidth="1"/>
-    <col min="12279" max="12279" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12280" max="12527" width="8.85546875" style="5"/>
-    <col min="12528" max="12528" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12529" max="12534" width="6.140625" style="5" customWidth="1"/>
-    <col min="12535" max="12535" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12536" max="12783" width="8.85546875" style="5"/>
-    <col min="12784" max="12784" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12785" max="12790" width="6.140625" style="5" customWidth="1"/>
-    <col min="12791" max="12791" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12792" max="13039" width="8.85546875" style="5"/>
-    <col min="13040" max="13040" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13041" max="13046" width="6.140625" style="5" customWidth="1"/>
-    <col min="13047" max="13047" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13048" max="13295" width="8.85546875" style="5"/>
-    <col min="13296" max="13296" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13297" max="13302" width="6.140625" style="5" customWidth="1"/>
-    <col min="13303" max="13303" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13304" max="13551" width="8.85546875" style="5"/>
-    <col min="13552" max="13552" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13553" max="13558" width="6.140625" style="5" customWidth="1"/>
-    <col min="13559" max="13559" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13560" max="13807" width="8.85546875" style="5"/>
-    <col min="13808" max="13808" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13809" max="13814" width="6.140625" style="5" customWidth="1"/>
-    <col min="13815" max="13815" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13816" max="14063" width="8.85546875" style="5"/>
-    <col min="14064" max="14064" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14065" max="14070" width="6.140625" style="5" customWidth="1"/>
-    <col min="14071" max="14071" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14072" max="14319" width="8.85546875" style="5"/>
-    <col min="14320" max="14320" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14321" max="14326" width="6.140625" style="5" customWidth="1"/>
-    <col min="14327" max="14327" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14328" max="14575" width="8.85546875" style="5"/>
-    <col min="14576" max="14576" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14577" max="14582" width="6.140625" style="5" customWidth="1"/>
-    <col min="14583" max="14583" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14584" max="14831" width="8.85546875" style="5"/>
-    <col min="14832" max="14832" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14833" max="14838" width="6.140625" style="5" customWidth="1"/>
-    <col min="14839" max="14839" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14840" max="15087" width="8.85546875" style="5"/>
-    <col min="15088" max="15088" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15089" max="15094" width="6.140625" style="5" customWidth="1"/>
-    <col min="15095" max="15095" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15096" max="15343" width="8.85546875" style="5"/>
-    <col min="15344" max="15344" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15345" max="15350" width="6.140625" style="5" customWidth="1"/>
-    <col min="15351" max="15351" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15352" max="15599" width="8.85546875" style="5"/>
-    <col min="15600" max="15600" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15601" max="15606" width="6.140625" style="5" customWidth="1"/>
-    <col min="15607" max="15607" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15608" max="15855" width="8.85546875" style="5"/>
-    <col min="15856" max="15856" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15857" max="15862" width="6.140625" style="5" customWidth="1"/>
-    <col min="15863" max="15863" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15864" max="16111" width="8.85546875" style="5"/>
-    <col min="16112" max="16112" width="43.85546875" style="5" customWidth="1"/>
-    <col min="16113" max="16118" width="6.140625" style="5" customWidth="1"/>
-    <col min="16119" max="16119" width="7.42578125" style="5" customWidth="1"/>
-    <col min="16120" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="71.44140625" style="5" customWidth="1"/>
+    <col min="2" max="7" width="7.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="5" customWidth="1"/>
+    <col min="9" max="239" width="8.88671875" style="5"/>
+    <col min="240" max="240" width="43.88671875" style="5" customWidth="1"/>
+    <col min="241" max="246" width="6.109375" style="5" customWidth="1"/>
+    <col min="247" max="247" width="7.44140625" style="5" customWidth="1"/>
+    <col min="248" max="495" width="8.88671875" style="5"/>
+    <col min="496" max="496" width="43.88671875" style="5" customWidth="1"/>
+    <col min="497" max="502" width="6.109375" style="5" customWidth="1"/>
+    <col min="503" max="503" width="7.44140625" style="5" customWidth="1"/>
+    <col min="504" max="751" width="8.88671875" style="5"/>
+    <col min="752" max="752" width="43.88671875" style="5" customWidth="1"/>
+    <col min="753" max="758" width="6.109375" style="5" customWidth="1"/>
+    <col min="759" max="759" width="7.44140625" style="5" customWidth="1"/>
+    <col min="760" max="1007" width="8.88671875" style="5"/>
+    <col min="1008" max="1008" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1009" max="1014" width="6.109375" style="5" customWidth="1"/>
+    <col min="1015" max="1015" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1016" max="1263" width="8.88671875" style="5"/>
+    <col min="1264" max="1264" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1265" max="1270" width="6.109375" style="5" customWidth="1"/>
+    <col min="1271" max="1271" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1272" max="1519" width="8.88671875" style="5"/>
+    <col min="1520" max="1520" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1521" max="1526" width="6.109375" style="5" customWidth="1"/>
+    <col min="1527" max="1527" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1528" max="1775" width="8.88671875" style="5"/>
+    <col min="1776" max="1776" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1777" max="1782" width="6.109375" style="5" customWidth="1"/>
+    <col min="1783" max="1783" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1784" max="2031" width="8.88671875" style="5"/>
+    <col min="2032" max="2032" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2033" max="2038" width="6.109375" style="5" customWidth="1"/>
+    <col min="2039" max="2039" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2040" max="2287" width="8.88671875" style="5"/>
+    <col min="2288" max="2288" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2289" max="2294" width="6.109375" style="5" customWidth="1"/>
+    <col min="2295" max="2295" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2296" max="2543" width="8.88671875" style="5"/>
+    <col min="2544" max="2544" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2545" max="2550" width="6.109375" style="5" customWidth="1"/>
+    <col min="2551" max="2551" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2552" max="2799" width="8.88671875" style="5"/>
+    <col min="2800" max="2800" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2801" max="2806" width="6.109375" style="5" customWidth="1"/>
+    <col min="2807" max="2807" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2808" max="3055" width="8.88671875" style="5"/>
+    <col min="3056" max="3056" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3057" max="3062" width="6.109375" style="5" customWidth="1"/>
+    <col min="3063" max="3063" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3064" max="3311" width="8.88671875" style="5"/>
+    <col min="3312" max="3312" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3313" max="3318" width="6.109375" style="5" customWidth="1"/>
+    <col min="3319" max="3319" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3320" max="3567" width="8.88671875" style="5"/>
+    <col min="3568" max="3568" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3569" max="3574" width="6.109375" style="5" customWidth="1"/>
+    <col min="3575" max="3575" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3576" max="3823" width="8.88671875" style="5"/>
+    <col min="3824" max="3824" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3825" max="3830" width="6.109375" style="5" customWidth="1"/>
+    <col min="3831" max="3831" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3832" max="4079" width="8.88671875" style="5"/>
+    <col min="4080" max="4080" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4081" max="4086" width="6.109375" style="5" customWidth="1"/>
+    <col min="4087" max="4087" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4088" max="4335" width="8.88671875" style="5"/>
+    <col min="4336" max="4336" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4337" max="4342" width="6.109375" style="5" customWidth="1"/>
+    <col min="4343" max="4343" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4344" max="4591" width="8.88671875" style="5"/>
+    <col min="4592" max="4592" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4593" max="4598" width="6.109375" style="5" customWidth="1"/>
+    <col min="4599" max="4599" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4600" max="4847" width="8.88671875" style="5"/>
+    <col min="4848" max="4848" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4849" max="4854" width="6.109375" style="5" customWidth="1"/>
+    <col min="4855" max="4855" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4856" max="5103" width="8.88671875" style="5"/>
+    <col min="5104" max="5104" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5105" max="5110" width="6.109375" style="5" customWidth="1"/>
+    <col min="5111" max="5111" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5112" max="5359" width="8.88671875" style="5"/>
+    <col min="5360" max="5360" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5361" max="5366" width="6.109375" style="5" customWidth="1"/>
+    <col min="5367" max="5367" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5368" max="5615" width="8.88671875" style="5"/>
+    <col min="5616" max="5616" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5617" max="5622" width="6.109375" style="5" customWidth="1"/>
+    <col min="5623" max="5623" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5624" max="5871" width="8.88671875" style="5"/>
+    <col min="5872" max="5872" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5873" max="5878" width="6.109375" style="5" customWidth="1"/>
+    <col min="5879" max="5879" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5880" max="6127" width="8.88671875" style="5"/>
+    <col min="6128" max="6128" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6129" max="6134" width="6.109375" style="5" customWidth="1"/>
+    <col min="6135" max="6135" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6136" max="6383" width="8.88671875" style="5"/>
+    <col min="6384" max="6384" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6385" max="6390" width="6.109375" style="5" customWidth="1"/>
+    <col min="6391" max="6391" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6392" max="6639" width="8.88671875" style="5"/>
+    <col min="6640" max="6640" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6641" max="6646" width="6.109375" style="5" customWidth="1"/>
+    <col min="6647" max="6647" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6648" max="6895" width="8.88671875" style="5"/>
+    <col min="6896" max="6896" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6897" max="6902" width="6.109375" style="5" customWidth="1"/>
+    <col min="6903" max="6903" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6904" max="7151" width="8.88671875" style="5"/>
+    <col min="7152" max="7152" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7153" max="7158" width="6.109375" style="5" customWidth="1"/>
+    <col min="7159" max="7159" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7160" max="7407" width="8.88671875" style="5"/>
+    <col min="7408" max="7408" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7409" max="7414" width="6.109375" style="5" customWidth="1"/>
+    <col min="7415" max="7415" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7416" max="7663" width="8.88671875" style="5"/>
+    <col min="7664" max="7664" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7665" max="7670" width="6.109375" style="5" customWidth="1"/>
+    <col min="7671" max="7671" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7672" max="7919" width="8.88671875" style="5"/>
+    <col min="7920" max="7920" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7921" max="7926" width="6.109375" style="5" customWidth="1"/>
+    <col min="7927" max="7927" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7928" max="8175" width="8.88671875" style="5"/>
+    <col min="8176" max="8176" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8177" max="8182" width="6.109375" style="5" customWidth="1"/>
+    <col min="8183" max="8183" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8184" max="8431" width="8.88671875" style="5"/>
+    <col min="8432" max="8432" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8433" max="8438" width="6.109375" style="5" customWidth="1"/>
+    <col min="8439" max="8439" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8440" max="8687" width="8.88671875" style="5"/>
+    <col min="8688" max="8688" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8689" max="8694" width="6.109375" style="5" customWidth="1"/>
+    <col min="8695" max="8695" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8696" max="8943" width="8.88671875" style="5"/>
+    <col min="8944" max="8944" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8945" max="8950" width="6.109375" style="5" customWidth="1"/>
+    <col min="8951" max="8951" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8952" max="9199" width="8.88671875" style="5"/>
+    <col min="9200" max="9200" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9201" max="9206" width="6.109375" style="5" customWidth="1"/>
+    <col min="9207" max="9207" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9208" max="9455" width="8.88671875" style="5"/>
+    <col min="9456" max="9456" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9457" max="9462" width="6.109375" style="5" customWidth="1"/>
+    <col min="9463" max="9463" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9464" max="9711" width="8.88671875" style="5"/>
+    <col min="9712" max="9712" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9713" max="9718" width="6.109375" style="5" customWidth="1"/>
+    <col min="9719" max="9719" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9720" max="9967" width="8.88671875" style="5"/>
+    <col min="9968" max="9968" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9969" max="9974" width="6.109375" style="5" customWidth="1"/>
+    <col min="9975" max="9975" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9976" max="10223" width="8.88671875" style="5"/>
+    <col min="10224" max="10224" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10225" max="10230" width="6.109375" style="5" customWidth="1"/>
+    <col min="10231" max="10231" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10232" max="10479" width="8.88671875" style="5"/>
+    <col min="10480" max="10480" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10481" max="10486" width="6.109375" style="5" customWidth="1"/>
+    <col min="10487" max="10487" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10488" max="10735" width="8.88671875" style="5"/>
+    <col min="10736" max="10736" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10737" max="10742" width="6.109375" style="5" customWidth="1"/>
+    <col min="10743" max="10743" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10744" max="10991" width="8.88671875" style="5"/>
+    <col min="10992" max="10992" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10993" max="10998" width="6.109375" style="5" customWidth="1"/>
+    <col min="10999" max="10999" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11000" max="11247" width="8.88671875" style="5"/>
+    <col min="11248" max="11248" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11249" max="11254" width="6.109375" style="5" customWidth="1"/>
+    <col min="11255" max="11255" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11256" max="11503" width="8.88671875" style="5"/>
+    <col min="11504" max="11504" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11505" max="11510" width="6.109375" style="5" customWidth="1"/>
+    <col min="11511" max="11511" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11512" max="11759" width="8.88671875" style="5"/>
+    <col min="11760" max="11760" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11761" max="11766" width="6.109375" style="5" customWidth="1"/>
+    <col min="11767" max="11767" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11768" max="12015" width="8.88671875" style="5"/>
+    <col min="12016" max="12016" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12017" max="12022" width="6.109375" style="5" customWidth="1"/>
+    <col min="12023" max="12023" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12024" max="12271" width="8.88671875" style="5"/>
+    <col min="12272" max="12272" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12273" max="12278" width="6.109375" style="5" customWidth="1"/>
+    <col min="12279" max="12279" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12280" max="12527" width="8.88671875" style="5"/>
+    <col min="12528" max="12528" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12529" max="12534" width="6.109375" style="5" customWidth="1"/>
+    <col min="12535" max="12535" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12536" max="12783" width="8.88671875" style="5"/>
+    <col min="12784" max="12784" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12785" max="12790" width="6.109375" style="5" customWidth="1"/>
+    <col min="12791" max="12791" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12792" max="13039" width="8.88671875" style="5"/>
+    <col min="13040" max="13040" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13041" max="13046" width="6.109375" style="5" customWidth="1"/>
+    <col min="13047" max="13047" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13048" max="13295" width="8.88671875" style="5"/>
+    <col min="13296" max="13296" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13297" max="13302" width="6.109375" style="5" customWidth="1"/>
+    <col min="13303" max="13303" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13304" max="13551" width="8.88671875" style="5"/>
+    <col min="13552" max="13552" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13553" max="13558" width="6.109375" style="5" customWidth="1"/>
+    <col min="13559" max="13559" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13560" max="13807" width="8.88671875" style="5"/>
+    <col min="13808" max="13808" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13809" max="13814" width="6.109375" style="5" customWidth="1"/>
+    <col min="13815" max="13815" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13816" max="14063" width="8.88671875" style="5"/>
+    <col min="14064" max="14064" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14065" max="14070" width="6.109375" style="5" customWidth="1"/>
+    <col min="14071" max="14071" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14072" max="14319" width="8.88671875" style="5"/>
+    <col min="14320" max="14320" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14321" max="14326" width="6.109375" style="5" customWidth="1"/>
+    <col min="14327" max="14327" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14328" max="14575" width="8.88671875" style="5"/>
+    <col min="14576" max="14576" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14577" max="14582" width="6.109375" style="5" customWidth="1"/>
+    <col min="14583" max="14583" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14584" max="14831" width="8.88671875" style="5"/>
+    <col min="14832" max="14832" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14833" max="14838" width="6.109375" style="5" customWidth="1"/>
+    <col min="14839" max="14839" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14840" max="15087" width="8.88671875" style="5"/>
+    <col min="15088" max="15088" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15089" max="15094" width="6.109375" style="5" customWidth="1"/>
+    <col min="15095" max="15095" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15096" max="15343" width="8.88671875" style="5"/>
+    <col min="15344" max="15344" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15345" max="15350" width="6.109375" style="5" customWidth="1"/>
+    <col min="15351" max="15351" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15352" max="15599" width="8.88671875" style="5"/>
+    <col min="15600" max="15600" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15601" max="15606" width="6.109375" style="5" customWidth="1"/>
+    <col min="15607" max="15607" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15608" max="15855" width="8.88671875" style="5"/>
+    <col min="15856" max="15856" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15857" max="15862" width="6.109375" style="5" customWidth="1"/>
+    <col min="15863" max="15863" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15864" max="16111" width="8.88671875" style="5"/>
+    <col min="16112" max="16112" width="43.88671875" style="5" customWidth="1"/>
+    <col min="16113" max="16118" width="6.109375" style="5" customWidth="1"/>
+    <col min="16119" max="16119" width="7.44140625" style="5" customWidth="1"/>
+    <col min="16120" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="str">
         <f>Total!$E$1</f>
         <v>Week 1</v>
@@ -6255,7 +6247,7 @@
       <c r="G1" s="58"/>
       <c r="H1" s="59"/>
     </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1">
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v xml:space="preserve">Badr </v>
@@ -6270,7 +6262,7 @@
       <c r="G3" s="56"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1">
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
@@ -6297,7 +6289,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>48</v>
       </c>
@@ -6314,7 +6306,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
@@ -6331,7 +6323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>50</v>
       </c>
@@ -6348,7 +6340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>51</v>
       </c>
@@ -6365,7 +6357,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
@@ -6382,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.899999999999999" customHeight="1">
+    <row r="10" spans="1:8" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6392,7 +6384,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="22" customFormat="1">
+    <row r="11" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="str">
         <f>Total!$M$1</f>
         <v>Total</v>
@@ -6426,7 +6418,7 @@
         <v>12.65</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6436,7 +6428,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="22.5" customHeight="1">
+    <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f>Total!D3</f>
         <v>Frankie</v>
@@ -6452,7 +6444,7 @@
       <c r="G13" s="56"/>
       <c r="H13" s="57"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -6486,7 +6478,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>53</v>
       </c>
@@ -6505,7 +6497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>54</v>
       </c>
@@ -6521,7 +6513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>55</v>
       </c>
@@ -6542,7 +6534,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
@@ -6561,7 +6553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>57</v>
       </c>
@@ -6578,8 +6570,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.9" customHeight="1"/>
-    <row r="21" spans="1:8" s="22" customFormat="1">
+    <row r="20" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
@@ -6613,7 +6605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="22.5" customHeight="1">
+    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
         <f>Total!D4</f>
         <v>Desmond</v>
@@ -6629,7 +6621,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="57"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -6663,7 +6655,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
@@ -6682,7 +6674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>58</v>
       </c>
@@ -6699,7 +6691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>59</v>
       </c>
@@ -6716,7 +6708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -6729,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -6742,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="22" customFormat="1">
+    <row r="30" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
@@ -6776,7 +6768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="22.5" customHeight="1">
+    <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
         <f>Total!D5</f>
         <v>Georgi</v>
@@ -6792,7 +6784,7 @@
       <c r="G32" s="56"/>
       <c r="H32" s="57"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -6826,7 +6818,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>60</v>
       </c>
@@ -6845,7 +6837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>61</v>
       </c>
@@ -6862,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>62</v>
       </c>
@@ -6879,7 +6871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>63</v>
       </c>
@@ -6896,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -6909,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="26.45">
+    <row r="39" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>64</v>
       </c>
@@ -6925,7 +6917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="22" customFormat="1">
+    <row r="40" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
@@ -6959,7 +6951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="22.9">
+    <row r="42" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="str">
         <f>Total!D6</f>
         <v>Marcelo</v>
@@ -6975,7 +6967,7 @@
       <c r="G42" s="56"/>
       <c r="H42" s="57"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -7009,7 +7001,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>53</v>
       </c>
@@ -7028,7 +7020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>65</v>
       </c>
@@ -7045,7 +7037,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>66</v>
       </c>
@@ -7062,7 +7054,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -7075,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -7088,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
@@ -7122,7 +7114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="22.9">
+    <row r="51" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="str">
         <f>Total!D7</f>
         <v>Pablo</v>
@@ -7138,7 +7130,7 @@
       <c r="G51" s="56"/>
       <c r="H51" s="57"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -7172,7 +7164,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>48</v>
       </c>
@@ -7187,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>67</v>
       </c>
@@ -7204,7 +7196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>68</v>
       </c>
@@ -7220,7 +7212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>51</v>
       </c>
@@ -7239,7 +7231,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -7252,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
@@ -7286,7 +7278,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="22.9">
+    <row r="60" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="str">
         <f>Total!D8</f>
         <v>Brice</v>
@@ -7302,7 +7294,7 @@
       <c r="G60" s="56"/>
       <c r="H60" s="57"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -7336,7 +7328,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>48</v>
       </c>
@@ -7351,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>69</v>
       </c>
@@ -7368,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>68</v>
       </c>
@@ -7385,7 +7377,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>53</v>
       </c>
@@ -7404,7 +7396,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -7417,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
@@ -7480,267 +7472,267 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61" style="5" customWidth="1"/>
-    <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
-    <col min="9" max="239" width="8.85546875" style="5"/>
-    <col min="240" max="240" width="43.85546875" style="5" customWidth="1"/>
-    <col min="241" max="246" width="6.140625" style="5" customWidth="1"/>
-    <col min="247" max="247" width="7.42578125" style="5" customWidth="1"/>
-    <col min="248" max="495" width="8.85546875" style="5"/>
-    <col min="496" max="496" width="43.85546875" style="5" customWidth="1"/>
-    <col min="497" max="502" width="6.140625" style="5" customWidth="1"/>
-    <col min="503" max="503" width="7.42578125" style="5" customWidth="1"/>
-    <col min="504" max="751" width="8.85546875" style="5"/>
-    <col min="752" max="752" width="43.85546875" style="5" customWidth="1"/>
-    <col min="753" max="758" width="6.140625" style="5" customWidth="1"/>
-    <col min="759" max="759" width="7.42578125" style="5" customWidth="1"/>
-    <col min="760" max="1007" width="8.85546875" style="5"/>
-    <col min="1008" max="1008" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1009" max="1014" width="6.140625" style="5" customWidth="1"/>
-    <col min="1015" max="1015" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1016" max="1263" width="8.85546875" style="5"/>
-    <col min="1264" max="1264" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1265" max="1270" width="6.140625" style="5" customWidth="1"/>
-    <col min="1271" max="1271" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1272" max="1519" width="8.85546875" style="5"/>
-    <col min="1520" max="1520" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1521" max="1526" width="6.140625" style="5" customWidth="1"/>
-    <col min="1527" max="1527" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1528" max="1775" width="8.85546875" style="5"/>
-    <col min="1776" max="1776" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1777" max="1782" width="6.140625" style="5" customWidth="1"/>
-    <col min="1783" max="1783" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1784" max="2031" width="8.85546875" style="5"/>
-    <col min="2032" max="2032" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2033" max="2038" width="6.140625" style="5" customWidth="1"/>
-    <col min="2039" max="2039" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2040" max="2287" width="8.85546875" style="5"/>
-    <col min="2288" max="2288" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2289" max="2294" width="6.140625" style="5" customWidth="1"/>
-    <col min="2295" max="2295" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2296" max="2543" width="8.85546875" style="5"/>
-    <col min="2544" max="2544" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2545" max="2550" width="6.140625" style="5" customWidth="1"/>
-    <col min="2551" max="2551" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2552" max="2799" width="8.85546875" style="5"/>
-    <col min="2800" max="2800" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2801" max="2806" width="6.140625" style="5" customWidth="1"/>
-    <col min="2807" max="2807" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2808" max="3055" width="8.85546875" style="5"/>
-    <col min="3056" max="3056" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3057" max="3062" width="6.140625" style="5" customWidth="1"/>
-    <col min="3063" max="3063" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3064" max="3311" width="8.85546875" style="5"/>
-    <col min="3312" max="3312" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3313" max="3318" width="6.140625" style="5" customWidth="1"/>
-    <col min="3319" max="3319" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3320" max="3567" width="8.85546875" style="5"/>
-    <col min="3568" max="3568" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3569" max="3574" width="6.140625" style="5" customWidth="1"/>
-    <col min="3575" max="3575" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3576" max="3823" width="8.85546875" style="5"/>
-    <col min="3824" max="3824" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3825" max="3830" width="6.140625" style="5" customWidth="1"/>
-    <col min="3831" max="3831" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3832" max="4079" width="8.85546875" style="5"/>
-    <col min="4080" max="4080" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4081" max="4086" width="6.140625" style="5" customWidth="1"/>
-    <col min="4087" max="4087" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4088" max="4335" width="8.85546875" style="5"/>
-    <col min="4336" max="4336" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4337" max="4342" width="6.140625" style="5" customWidth="1"/>
-    <col min="4343" max="4343" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4344" max="4591" width="8.85546875" style="5"/>
-    <col min="4592" max="4592" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4593" max="4598" width="6.140625" style="5" customWidth="1"/>
-    <col min="4599" max="4599" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4600" max="4847" width="8.85546875" style="5"/>
-    <col min="4848" max="4848" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4849" max="4854" width="6.140625" style="5" customWidth="1"/>
-    <col min="4855" max="4855" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4856" max="5103" width="8.85546875" style="5"/>
-    <col min="5104" max="5104" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5105" max="5110" width="6.140625" style="5" customWidth="1"/>
-    <col min="5111" max="5111" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5112" max="5359" width="8.85546875" style="5"/>
-    <col min="5360" max="5360" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5361" max="5366" width="6.140625" style="5" customWidth="1"/>
-    <col min="5367" max="5367" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5368" max="5615" width="8.85546875" style="5"/>
-    <col min="5616" max="5616" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5617" max="5622" width="6.140625" style="5" customWidth="1"/>
-    <col min="5623" max="5623" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5624" max="5871" width="8.85546875" style="5"/>
-    <col min="5872" max="5872" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5873" max="5878" width="6.140625" style="5" customWidth="1"/>
-    <col min="5879" max="5879" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5880" max="6127" width="8.85546875" style="5"/>
-    <col min="6128" max="6128" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6129" max="6134" width="6.140625" style="5" customWidth="1"/>
-    <col min="6135" max="6135" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6136" max="6383" width="8.85546875" style="5"/>
-    <col min="6384" max="6384" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6385" max="6390" width="6.140625" style="5" customWidth="1"/>
-    <col min="6391" max="6391" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6392" max="6639" width="8.85546875" style="5"/>
-    <col min="6640" max="6640" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6641" max="6646" width="6.140625" style="5" customWidth="1"/>
-    <col min="6647" max="6647" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6648" max="6895" width="8.85546875" style="5"/>
-    <col min="6896" max="6896" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6897" max="6902" width="6.140625" style="5" customWidth="1"/>
-    <col min="6903" max="6903" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6904" max="7151" width="8.85546875" style="5"/>
-    <col min="7152" max="7152" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7153" max="7158" width="6.140625" style="5" customWidth="1"/>
-    <col min="7159" max="7159" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7160" max="7407" width="8.85546875" style="5"/>
-    <col min="7408" max="7408" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7409" max="7414" width="6.140625" style="5" customWidth="1"/>
-    <col min="7415" max="7415" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7416" max="7663" width="8.85546875" style="5"/>
-    <col min="7664" max="7664" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7665" max="7670" width="6.140625" style="5" customWidth="1"/>
-    <col min="7671" max="7671" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7672" max="7919" width="8.85546875" style="5"/>
-    <col min="7920" max="7920" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7921" max="7926" width="6.140625" style="5" customWidth="1"/>
-    <col min="7927" max="7927" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7928" max="8175" width="8.85546875" style="5"/>
-    <col min="8176" max="8176" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8177" max="8182" width="6.140625" style="5" customWidth="1"/>
-    <col min="8183" max="8183" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8184" max="8431" width="8.85546875" style="5"/>
-    <col min="8432" max="8432" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8433" max="8438" width="6.140625" style="5" customWidth="1"/>
-    <col min="8439" max="8439" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8440" max="8687" width="8.85546875" style="5"/>
-    <col min="8688" max="8688" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8689" max="8694" width="6.140625" style="5" customWidth="1"/>
-    <col min="8695" max="8695" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8696" max="8943" width="8.85546875" style="5"/>
-    <col min="8944" max="8944" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8945" max="8950" width="6.140625" style="5" customWidth="1"/>
-    <col min="8951" max="8951" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8952" max="9199" width="8.85546875" style="5"/>
-    <col min="9200" max="9200" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9201" max="9206" width="6.140625" style="5" customWidth="1"/>
-    <col min="9207" max="9207" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9208" max="9455" width="8.85546875" style="5"/>
-    <col min="9456" max="9456" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9457" max="9462" width="6.140625" style="5" customWidth="1"/>
-    <col min="9463" max="9463" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9464" max="9711" width="8.85546875" style="5"/>
-    <col min="9712" max="9712" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9713" max="9718" width="6.140625" style="5" customWidth="1"/>
-    <col min="9719" max="9719" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9720" max="9967" width="8.85546875" style="5"/>
-    <col min="9968" max="9968" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9969" max="9974" width="6.140625" style="5" customWidth="1"/>
-    <col min="9975" max="9975" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9976" max="10223" width="8.85546875" style="5"/>
-    <col min="10224" max="10224" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10225" max="10230" width="6.140625" style="5" customWidth="1"/>
-    <col min="10231" max="10231" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10232" max="10479" width="8.85546875" style="5"/>
-    <col min="10480" max="10480" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10481" max="10486" width="6.140625" style="5" customWidth="1"/>
-    <col min="10487" max="10487" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10488" max="10735" width="8.85546875" style="5"/>
-    <col min="10736" max="10736" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10737" max="10742" width="6.140625" style="5" customWidth="1"/>
-    <col min="10743" max="10743" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10744" max="10991" width="8.85546875" style="5"/>
-    <col min="10992" max="10992" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10993" max="10998" width="6.140625" style="5" customWidth="1"/>
-    <col min="10999" max="10999" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11000" max="11247" width="8.85546875" style="5"/>
-    <col min="11248" max="11248" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11249" max="11254" width="6.140625" style="5" customWidth="1"/>
-    <col min="11255" max="11255" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11256" max="11503" width="8.85546875" style="5"/>
-    <col min="11504" max="11504" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11505" max="11510" width="6.140625" style="5" customWidth="1"/>
-    <col min="11511" max="11511" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11512" max="11759" width="8.85546875" style="5"/>
-    <col min="11760" max="11760" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11761" max="11766" width="6.140625" style="5" customWidth="1"/>
-    <col min="11767" max="11767" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11768" max="12015" width="8.85546875" style="5"/>
-    <col min="12016" max="12016" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12017" max="12022" width="6.140625" style="5" customWidth="1"/>
-    <col min="12023" max="12023" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12024" max="12271" width="8.85546875" style="5"/>
-    <col min="12272" max="12272" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12273" max="12278" width="6.140625" style="5" customWidth="1"/>
-    <col min="12279" max="12279" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12280" max="12527" width="8.85546875" style="5"/>
-    <col min="12528" max="12528" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12529" max="12534" width="6.140625" style="5" customWidth="1"/>
-    <col min="12535" max="12535" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12536" max="12783" width="8.85546875" style="5"/>
-    <col min="12784" max="12784" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12785" max="12790" width="6.140625" style="5" customWidth="1"/>
-    <col min="12791" max="12791" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12792" max="13039" width="8.85546875" style="5"/>
-    <col min="13040" max="13040" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13041" max="13046" width="6.140625" style="5" customWidth="1"/>
-    <col min="13047" max="13047" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13048" max="13295" width="8.85546875" style="5"/>
-    <col min="13296" max="13296" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13297" max="13302" width="6.140625" style="5" customWidth="1"/>
-    <col min="13303" max="13303" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13304" max="13551" width="8.85546875" style="5"/>
-    <col min="13552" max="13552" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13553" max="13558" width="6.140625" style="5" customWidth="1"/>
-    <col min="13559" max="13559" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13560" max="13807" width="8.85546875" style="5"/>
-    <col min="13808" max="13808" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13809" max="13814" width="6.140625" style="5" customWidth="1"/>
-    <col min="13815" max="13815" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13816" max="14063" width="8.85546875" style="5"/>
-    <col min="14064" max="14064" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14065" max="14070" width="6.140625" style="5" customWidth="1"/>
-    <col min="14071" max="14071" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14072" max="14319" width="8.85546875" style="5"/>
-    <col min="14320" max="14320" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14321" max="14326" width="6.140625" style="5" customWidth="1"/>
-    <col min="14327" max="14327" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14328" max="14575" width="8.85546875" style="5"/>
-    <col min="14576" max="14576" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14577" max="14582" width="6.140625" style="5" customWidth="1"/>
-    <col min="14583" max="14583" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14584" max="14831" width="8.85546875" style="5"/>
-    <col min="14832" max="14832" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14833" max="14838" width="6.140625" style="5" customWidth="1"/>
-    <col min="14839" max="14839" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14840" max="15087" width="8.85546875" style="5"/>
-    <col min="15088" max="15088" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15089" max="15094" width="6.140625" style="5" customWidth="1"/>
-    <col min="15095" max="15095" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15096" max="15343" width="8.85546875" style="5"/>
-    <col min="15344" max="15344" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15345" max="15350" width="6.140625" style="5" customWidth="1"/>
-    <col min="15351" max="15351" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15352" max="15599" width="8.85546875" style="5"/>
-    <col min="15600" max="15600" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15601" max="15606" width="6.140625" style="5" customWidth="1"/>
-    <col min="15607" max="15607" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15608" max="15855" width="8.85546875" style="5"/>
-    <col min="15856" max="15856" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15857" max="15862" width="6.140625" style="5" customWidth="1"/>
-    <col min="15863" max="15863" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15864" max="16111" width="8.85546875" style="5"/>
-    <col min="16112" max="16112" width="43.85546875" style="5" customWidth="1"/>
-    <col min="16113" max="16118" width="6.140625" style="5" customWidth="1"/>
-    <col min="16119" max="16119" width="7.42578125" style="5" customWidth="1"/>
-    <col min="16120" max="16384" width="8.85546875" style="5"/>
+    <col min="2" max="7" width="7.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="5" customWidth="1"/>
+    <col min="9" max="239" width="8.88671875" style="5"/>
+    <col min="240" max="240" width="43.88671875" style="5" customWidth="1"/>
+    <col min="241" max="246" width="6.109375" style="5" customWidth="1"/>
+    <col min="247" max="247" width="7.44140625" style="5" customWidth="1"/>
+    <col min="248" max="495" width="8.88671875" style="5"/>
+    <col min="496" max="496" width="43.88671875" style="5" customWidth="1"/>
+    <col min="497" max="502" width="6.109375" style="5" customWidth="1"/>
+    <col min="503" max="503" width="7.44140625" style="5" customWidth="1"/>
+    <col min="504" max="751" width="8.88671875" style="5"/>
+    <col min="752" max="752" width="43.88671875" style="5" customWidth="1"/>
+    <col min="753" max="758" width="6.109375" style="5" customWidth="1"/>
+    <col min="759" max="759" width="7.44140625" style="5" customWidth="1"/>
+    <col min="760" max="1007" width="8.88671875" style="5"/>
+    <col min="1008" max="1008" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1009" max="1014" width="6.109375" style="5" customWidth="1"/>
+    <col min="1015" max="1015" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1016" max="1263" width="8.88671875" style="5"/>
+    <col min="1264" max="1264" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1265" max="1270" width="6.109375" style="5" customWidth="1"/>
+    <col min="1271" max="1271" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1272" max="1519" width="8.88671875" style="5"/>
+    <col min="1520" max="1520" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1521" max="1526" width="6.109375" style="5" customWidth="1"/>
+    <col min="1527" max="1527" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1528" max="1775" width="8.88671875" style="5"/>
+    <col min="1776" max="1776" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1777" max="1782" width="6.109375" style="5" customWidth="1"/>
+    <col min="1783" max="1783" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1784" max="2031" width="8.88671875" style="5"/>
+    <col min="2032" max="2032" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2033" max="2038" width="6.109375" style="5" customWidth="1"/>
+    <col min="2039" max="2039" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2040" max="2287" width="8.88671875" style="5"/>
+    <col min="2288" max="2288" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2289" max="2294" width="6.109375" style="5" customWidth="1"/>
+    <col min="2295" max="2295" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2296" max="2543" width="8.88671875" style="5"/>
+    <col min="2544" max="2544" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2545" max="2550" width="6.109375" style="5" customWidth="1"/>
+    <col min="2551" max="2551" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2552" max="2799" width="8.88671875" style="5"/>
+    <col min="2800" max="2800" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2801" max="2806" width="6.109375" style="5" customWidth="1"/>
+    <col min="2807" max="2807" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2808" max="3055" width="8.88671875" style="5"/>
+    <col min="3056" max="3056" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3057" max="3062" width="6.109375" style="5" customWidth="1"/>
+    <col min="3063" max="3063" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3064" max="3311" width="8.88671875" style="5"/>
+    <col min="3312" max="3312" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3313" max="3318" width="6.109375" style="5" customWidth="1"/>
+    <col min="3319" max="3319" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3320" max="3567" width="8.88671875" style="5"/>
+    <col min="3568" max="3568" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3569" max="3574" width="6.109375" style="5" customWidth="1"/>
+    <col min="3575" max="3575" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3576" max="3823" width="8.88671875" style="5"/>
+    <col min="3824" max="3824" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3825" max="3830" width="6.109375" style="5" customWidth="1"/>
+    <col min="3831" max="3831" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3832" max="4079" width="8.88671875" style="5"/>
+    <col min="4080" max="4080" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4081" max="4086" width="6.109375" style="5" customWidth="1"/>
+    <col min="4087" max="4087" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4088" max="4335" width="8.88671875" style="5"/>
+    <col min="4336" max="4336" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4337" max="4342" width="6.109375" style="5" customWidth="1"/>
+    <col min="4343" max="4343" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4344" max="4591" width="8.88671875" style="5"/>
+    <col min="4592" max="4592" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4593" max="4598" width="6.109375" style="5" customWidth="1"/>
+    <col min="4599" max="4599" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4600" max="4847" width="8.88671875" style="5"/>
+    <col min="4848" max="4848" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4849" max="4854" width="6.109375" style="5" customWidth="1"/>
+    <col min="4855" max="4855" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4856" max="5103" width="8.88671875" style="5"/>
+    <col min="5104" max="5104" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5105" max="5110" width="6.109375" style="5" customWidth="1"/>
+    <col min="5111" max="5111" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5112" max="5359" width="8.88671875" style="5"/>
+    <col min="5360" max="5360" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5361" max="5366" width="6.109375" style="5" customWidth="1"/>
+    <col min="5367" max="5367" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5368" max="5615" width="8.88671875" style="5"/>
+    <col min="5616" max="5616" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5617" max="5622" width="6.109375" style="5" customWidth="1"/>
+    <col min="5623" max="5623" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5624" max="5871" width="8.88671875" style="5"/>
+    <col min="5872" max="5872" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5873" max="5878" width="6.109375" style="5" customWidth="1"/>
+    <col min="5879" max="5879" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5880" max="6127" width="8.88671875" style="5"/>
+    <col min="6128" max="6128" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6129" max="6134" width="6.109375" style="5" customWidth="1"/>
+    <col min="6135" max="6135" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6136" max="6383" width="8.88671875" style="5"/>
+    <col min="6384" max="6384" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6385" max="6390" width="6.109375" style="5" customWidth="1"/>
+    <col min="6391" max="6391" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6392" max="6639" width="8.88671875" style="5"/>
+    <col min="6640" max="6640" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6641" max="6646" width="6.109375" style="5" customWidth="1"/>
+    <col min="6647" max="6647" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6648" max="6895" width="8.88671875" style="5"/>
+    <col min="6896" max="6896" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6897" max="6902" width="6.109375" style="5" customWidth="1"/>
+    <col min="6903" max="6903" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6904" max="7151" width="8.88671875" style="5"/>
+    <col min="7152" max="7152" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7153" max="7158" width="6.109375" style="5" customWidth="1"/>
+    <col min="7159" max="7159" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7160" max="7407" width="8.88671875" style="5"/>
+    <col min="7408" max="7408" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7409" max="7414" width="6.109375" style="5" customWidth="1"/>
+    <col min="7415" max="7415" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7416" max="7663" width="8.88671875" style="5"/>
+    <col min="7664" max="7664" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7665" max="7670" width="6.109375" style="5" customWidth="1"/>
+    <col min="7671" max="7671" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7672" max="7919" width="8.88671875" style="5"/>
+    <col min="7920" max="7920" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7921" max="7926" width="6.109375" style="5" customWidth="1"/>
+    <col min="7927" max="7927" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7928" max="8175" width="8.88671875" style="5"/>
+    <col min="8176" max="8176" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8177" max="8182" width="6.109375" style="5" customWidth="1"/>
+    <col min="8183" max="8183" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8184" max="8431" width="8.88671875" style="5"/>
+    <col min="8432" max="8432" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8433" max="8438" width="6.109375" style="5" customWidth="1"/>
+    <col min="8439" max="8439" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8440" max="8687" width="8.88671875" style="5"/>
+    <col min="8688" max="8688" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8689" max="8694" width="6.109375" style="5" customWidth="1"/>
+    <col min="8695" max="8695" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8696" max="8943" width="8.88671875" style="5"/>
+    <col min="8944" max="8944" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8945" max="8950" width="6.109375" style="5" customWidth="1"/>
+    <col min="8951" max="8951" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8952" max="9199" width="8.88671875" style="5"/>
+    <col min="9200" max="9200" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9201" max="9206" width="6.109375" style="5" customWidth="1"/>
+    <col min="9207" max="9207" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9208" max="9455" width="8.88671875" style="5"/>
+    <col min="9456" max="9456" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9457" max="9462" width="6.109375" style="5" customWidth="1"/>
+    <col min="9463" max="9463" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9464" max="9711" width="8.88671875" style="5"/>
+    <col min="9712" max="9712" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9713" max="9718" width="6.109375" style="5" customWidth="1"/>
+    <col min="9719" max="9719" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9720" max="9967" width="8.88671875" style="5"/>
+    <col min="9968" max="9968" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9969" max="9974" width="6.109375" style="5" customWidth="1"/>
+    <col min="9975" max="9975" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9976" max="10223" width="8.88671875" style="5"/>
+    <col min="10224" max="10224" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10225" max="10230" width="6.109375" style="5" customWidth="1"/>
+    <col min="10231" max="10231" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10232" max="10479" width="8.88671875" style="5"/>
+    <col min="10480" max="10480" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10481" max="10486" width="6.109375" style="5" customWidth="1"/>
+    <col min="10487" max="10487" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10488" max="10735" width="8.88671875" style="5"/>
+    <col min="10736" max="10736" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10737" max="10742" width="6.109375" style="5" customWidth="1"/>
+    <col min="10743" max="10743" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10744" max="10991" width="8.88671875" style="5"/>
+    <col min="10992" max="10992" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10993" max="10998" width="6.109375" style="5" customWidth="1"/>
+    <col min="10999" max="10999" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11000" max="11247" width="8.88671875" style="5"/>
+    <col min="11248" max="11248" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11249" max="11254" width="6.109375" style="5" customWidth="1"/>
+    <col min="11255" max="11255" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11256" max="11503" width="8.88671875" style="5"/>
+    <col min="11504" max="11504" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11505" max="11510" width="6.109375" style="5" customWidth="1"/>
+    <col min="11511" max="11511" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11512" max="11759" width="8.88671875" style="5"/>
+    <col min="11760" max="11760" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11761" max="11766" width="6.109375" style="5" customWidth="1"/>
+    <col min="11767" max="11767" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11768" max="12015" width="8.88671875" style="5"/>
+    <col min="12016" max="12016" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12017" max="12022" width="6.109375" style="5" customWidth="1"/>
+    <col min="12023" max="12023" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12024" max="12271" width="8.88671875" style="5"/>
+    <col min="12272" max="12272" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12273" max="12278" width="6.109375" style="5" customWidth="1"/>
+    <col min="12279" max="12279" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12280" max="12527" width="8.88671875" style="5"/>
+    <col min="12528" max="12528" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12529" max="12534" width="6.109375" style="5" customWidth="1"/>
+    <col min="12535" max="12535" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12536" max="12783" width="8.88671875" style="5"/>
+    <col min="12784" max="12784" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12785" max="12790" width="6.109375" style="5" customWidth="1"/>
+    <col min="12791" max="12791" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12792" max="13039" width="8.88671875" style="5"/>
+    <col min="13040" max="13040" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13041" max="13046" width="6.109375" style="5" customWidth="1"/>
+    <col min="13047" max="13047" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13048" max="13295" width="8.88671875" style="5"/>
+    <col min="13296" max="13296" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13297" max="13302" width="6.109375" style="5" customWidth="1"/>
+    <col min="13303" max="13303" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13304" max="13551" width="8.88671875" style="5"/>
+    <col min="13552" max="13552" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13553" max="13558" width="6.109375" style="5" customWidth="1"/>
+    <col min="13559" max="13559" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13560" max="13807" width="8.88671875" style="5"/>
+    <col min="13808" max="13808" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13809" max="13814" width="6.109375" style="5" customWidth="1"/>
+    <col min="13815" max="13815" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13816" max="14063" width="8.88671875" style="5"/>
+    <col min="14064" max="14064" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14065" max="14070" width="6.109375" style="5" customWidth="1"/>
+    <col min="14071" max="14071" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14072" max="14319" width="8.88671875" style="5"/>
+    <col min="14320" max="14320" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14321" max="14326" width="6.109375" style="5" customWidth="1"/>
+    <col min="14327" max="14327" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14328" max="14575" width="8.88671875" style="5"/>
+    <col min="14576" max="14576" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14577" max="14582" width="6.109375" style="5" customWidth="1"/>
+    <col min="14583" max="14583" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14584" max="14831" width="8.88671875" style="5"/>
+    <col min="14832" max="14832" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14833" max="14838" width="6.109375" style="5" customWidth="1"/>
+    <col min="14839" max="14839" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14840" max="15087" width="8.88671875" style="5"/>
+    <col min="15088" max="15088" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15089" max="15094" width="6.109375" style="5" customWidth="1"/>
+    <col min="15095" max="15095" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15096" max="15343" width="8.88671875" style="5"/>
+    <col min="15344" max="15344" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15345" max="15350" width="6.109375" style="5" customWidth="1"/>
+    <col min="15351" max="15351" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15352" max="15599" width="8.88671875" style="5"/>
+    <col min="15600" max="15600" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15601" max="15606" width="6.109375" style="5" customWidth="1"/>
+    <col min="15607" max="15607" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15608" max="15855" width="8.88671875" style="5"/>
+    <col min="15856" max="15856" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15857" max="15862" width="6.109375" style="5" customWidth="1"/>
+    <col min="15863" max="15863" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15864" max="16111" width="8.88671875" style="5"/>
+    <col min="16112" max="16112" width="43.88671875" style="5" customWidth="1"/>
+    <col min="16113" max="16118" width="6.109375" style="5" customWidth="1"/>
+    <col min="16119" max="16119" width="7.44140625" style="5" customWidth="1"/>
+    <col min="16120" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="str">
         <f>Total!$F$1</f>
         <v>Week 2</v>
@@ -7756,7 +7748,7 @@
       <c r="G1" s="58"/>
       <c r="H1" s="59"/>
     </row>
-    <row r="3" spans="1:8" ht="22.9">
+    <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v xml:space="preserve">Badr </v>
@@ -7772,7 +7764,7 @@
       <c r="G3" s="56"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -7806,7 +7798,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
@@ -7823,7 +7815,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>71</v>
       </c>
@@ -7842,7 +7834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>72</v>
       </c>
@@ -7859,7 +7851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>51</v>
       </c>
@@ -7878,7 +7870,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -7891,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -7925,7 +7917,7 @@
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -7935,7 +7927,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.9">
+    <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Frankie</v>
@@ -7951,7 +7943,7 @@
       <c r="G12" s="56"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -7985,7 +7977,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
@@ -8004,7 +7996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>73</v>
       </c>
@@ -8025,7 +8017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>74</v>
       </c>
@@ -8044,7 +8036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -8057,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -8070,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -8104,7 +8096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="22.9">
+    <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Desmond</v>
@@ -8120,7 +8112,7 @@
       <c r="G21" s="56"/>
       <c r="H21" s="57"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -8154,7 +8146,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>75</v>
       </c>
@@ -8171,7 +8163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>76</v>
       </c>
@@ -8188,7 +8180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -8201,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="41"/>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -8214,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -8227,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -8261,7 +8253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.9">
+    <row r="30" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Georgi</v>
@@ -8277,7 +8269,7 @@
       <c r="G30" s="56"/>
       <c r="H30" s="57"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -8311,7 +8303,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -8330,7 +8322,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
         <v>77</v>
       </c>
@@ -8347,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
         <v>78</v>
       </c>
@@ -8364,7 +8356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>79</v>
       </c>
@@ -8385,7 +8377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>80</v>
       </c>
@@ -8402,7 +8394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>81</v>
       </c>
@@ -8418,7 +8410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>82</v>
       </c>
@@ -8434,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>83</v>
       </c>
@@ -8450,7 +8442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>84</v>
       </c>
@@ -8466,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="26.45">
+    <row r="41" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>85</v>
       </c>
@@ -8482,7 +8474,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>86</v>
       </c>
@@ -8498,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="22" customFormat="1">
+    <row r="43" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -8532,7 +8524,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="22.9">
+    <row r="45" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="str">
         <f>Total!D6</f>
         <v>Marcelo</v>
@@ -8548,7 +8540,7 @@
       <c r="G45" s="56"/>
       <c r="H45" s="57"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -8582,7 +8574,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>53</v>
       </c>
@@ -8601,7 +8593,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>87</v>
       </c>
@@ -8618,7 +8610,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>65</v>
       </c>
@@ -8635,7 +8627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>88</v>
       </c>
@@ -8652,7 +8644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8665,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -8699,7 +8691,7 @@
         <v>11.15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="22.9">
+    <row r="54" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="str">
         <f>Total!D7</f>
         <v>Pablo</v>
@@ -8715,7 +8707,7 @@
       <c r="G54" s="56"/>
       <c r="H54" s="57"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -8749,7 +8741,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>48</v>
       </c>
@@ -8764,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>89</v>
       </c>
@@ -8783,7 +8775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
         <v>90</v>
       </c>
@@ -8802,7 +8794,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>91</v>
       </c>
@@ -8819,7 +8811,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>51</v>
       </c>
@@ -8838,7 +8830,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -8872,7 +8864,7 @@
         <v>15.65</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="22.9">
+    <row r="63" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="str">
         <f>Total!D8</f>
         <v>Brice</v>
@@ -8888,7 +8880,7 @@
       <c r="G63" s="56"/>
       <c r="H63" s="57"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -8922,7 +8914,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>92</v>
       </c>
@@ -8941,7 +8933,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>93</v>
       </c>
@@ -8960,7 +8952,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>88</v>
       </c>
@@ -8977,7 +8969,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -8990,7 +8982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>60</v>
       </c>
@@ -9009,7 +9001,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -9067,267 +9059,267 @@
       <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
-    <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
-    <col min="9" max="239" width="8.85546875" style="5"/>
-    <col min="240" max="240" width="43.85546875" style="5" customWidth="1"/>
-    <col min="241" max="246" width="6.140625" style="5" customWidth="1"/>
-    <col min="247" max="247" width="7.42578125" style="5" customWidth="1"/>
-    <col min="248" max="495" width="8.85546875" style="5"/>
-    <col min="496" max="496" width="43.85546875" style="5" customWidth="1"/>
-    <col min="497" max="502" width="6.140625" style="5" customWidth="1"/>
-    <col min="503" max="503" width="7.42578125" style="5" customWidth="1"/>
-    <col min="504" max="751" width="8.85546875" style="5"/>
-    <col min="752" max="752" width="43.85546875" style="5" customWidth="1"/>
-    <col min="753" max="758" width="6.140625" style="5" customWidth="1"/>
-    <col min="759" max="759" width="7.42578125" style="5" customWidth="1"/>
-    <col min="760" max="1007" width="8.85546875" style="5"/>
-    <col min="1008" max="1008" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1009" max="1014" width="6.140625" style="5" customWidth="1"/>
-    <col min="1015" max="1015" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1016" max="1263" width="8.85546875" style="5"/>
-    <col min="1264" max="1264" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1265" max="1270" width="6.140625" style="5" customWidth="1"/>
-    <col min="1271" max="1271" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1272" max="1519" width="8.85546875" style="5"/>
-    <col min="1520" max="1520" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1521" max="1526" width="6.140625" style="5" customWidth="1"/>
-    <col min="1527" max="1527" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1528" max="1775" width="8.85546875" style="5"/>
-    <col min="1776" max="1776" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1777" max="1782" width="6.140625" style="5" customWidth="1"/>
-    <col min="1783" max="1783" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1784" max="2031" width="8.85546875" style="5"/>
-    <col min="2032" max="2032" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2033" max="2038" width="6.140625" style="5" customWidth="1"/>
-    <col min="2039" max="2039" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2040" max="2287" width="8.85546875" style="5"/>
-    <col min="2288" max="2288" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2289" max="2294" width="6.140625" style="5" customWidth="1"/>
-    <col min="2295" max="2295" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2296" max="2543" width="8.85546875" style="5"/>
-    <col min="2544" max="2544" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2545" max="2550" width="6.140625" style="5" customWidth="1"/>
-    <col min="2551" max="2551" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2552" max="2799" width="8.85546875" style="5"/>
-    <col min="2800" max="2800" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2801" max="2806" width="6.140625" style="5" customWidth="1"/>
-    <col min="2807" max="2807" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2808" max="3055" width="8.85546875" style="5"/>
-    <col min="3056" max="3056" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3057" max="3062" width="6.140625" style="5" customWidth="1"/>
-    <col min="3063" max="3063" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3064" max="3311" width="8.85546875" style="5"/>
-    <col min="3312" max="3312" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3313" max="3318" width="6.140625" style="5" customWidth="1"/>
-    <col min="3319" max="3319" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3320" max="3567" width="8.85546875" style="5"/>
-    <col min="3568" max="3568" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3569" max="3574" width="6.140625" style="5" customWidth="1"/>
-    <col min="3575" max="3575" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3576" max="3823" width="8.85546875" style="5"/>
-    <col min="3824" max="3824" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3825" max="3830" width="6.140625" style="5" customWidth="1"/>
-    <col min="3831" max="3831" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3832" max="4079" width="8.85546875" style="5"/>
-    <col min="4080" max="4080" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4081" max="4086" width="6.140625" style="5" customWidth="1"/>
-    <col min="4087" max="4087" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4088" max="4335" width="8.85546875" style="5"/>
-    <col min="4336" max="4336" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4337" max="4342" width="6.140625" style="5" customWidth="1"/>
-    <col min="4343" max="4343" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4344" max="4591" width="8.85546875" style="5"/>
-    <col min="4592" max="4592" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4593" max="4598" width="6.140625" style="5" customWidth="1"/>
-    <col min="4599" max="4599" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4600" max="4847" width="8.85546875" style="5"/>
-    <col min="4848" max="4848" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4849" max="4854" width="6.140625" style="5" customWidth="1"/>
-    <col min="4855" max="4855" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4856" max="5103" width="8.85546875" style="5"/>
-    <col min="5104" max="5104" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5105" max="5110" width="6.140625" style="5" customWidth="1"/>
-    <col min="5111" max="5111" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5112" max="5359" width="8.85546875" style="5"/>
-    <col min="5360" max="5360" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5361" max="5366" width="6.140625" style="5" customWidth="1"/>
-    <col min="5367" max="5367" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5368" max="5615" width="8.85546875" style="5"/>
-    <col min="5616" max="5616" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5617" max="5622" width="6.140625" style="5" customWidth="1"/>
-    <col min="5623" max="5623" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5624" max="5871" width="8.85546875" style="5"/>
-    <col min="5872" max="5872" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5873" max="5878" width="6.140625" style="5" customWidth="1"/>
-    <col min="5879" max="5879" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5880" max="6127" width="8.85546875" style="5"/>
-    <col min="6128" max="6128" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6129" max="6134" width="6.140625" style="5" customWidth="1"/>
-    <col min="6135" max="6135" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6136" max="6383" width="8.85546875" style="5"/>
-    <col min="6384" max="6384" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6385" max="6390" width="6.140625" style="5" customWidth="1"/>
-    <col min="6391" max="6391" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6392" max="6639" width="8.85546875" style="5"/>
-    <col min="6640" max="6640" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6641" max="6646" width="6.140625" style="5" customWidth="1"/>
-    <col min="6647" max="6647" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6648" max="6895" width="8.85546875" style="5"/>
-    <col min="6896" max="6896" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6897" max="6902" width="6.140625" style="5" customWidth="1"/>
-    <col min="6903" max="6903" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6904" max="7151" width="8.85546875" style="5"/>
-    <col min="7152" max="7152" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7153" max="7158" width="6.140625" style="5" customWidth="1"/>
-    <col min="7159" max="7159" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7160" max="7407" width="8.85546875" style="5"/>
-    <col min="7408" max="7408" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7409" max="7414" width="6.140625" style="5" customWidth="1"/>
-    <col min="7415" max="7415" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7416" max="7663" width="8.85546875" style="5"/>
-    <col min="7664" max="7664" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7665" max="7670" width="6.140625" style="5" customWidth="1"/>
-    <col min="7671" max="7671" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7672" max="7919" width="8.85546875" style="5"/>
-    <col min="7920" max="7920" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7921" max="7926" width="6.140625" style="5" customWidth="1"/>
-    <col min="7927" max="7927" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7928" max="8175" width="8.85546875" style="5"/>
-    <col min="8176" max="8176" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8177" max="8182" width="6.140625" style="5" customWidth="1"/>
-    <col min="8183" max="8183" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8184" max="8431" width="8.85546875" style="5"/>
-    <col min="8432" max="8432" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8433" max="8438" width="6.140625" style="5" customWidth="1"/>
-    <col min="8439" max="8439" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8440" max="8687" width="8.85546875" style="5"/>
-    <col min="8688" max="8688" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8689" max="8694" width="6.140625" style="5" customWidth="1"/>
-    <col min="8695" max="8695" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8696" max="8943" width="8.85546875" style="5"/>
-    <col min="8944" max="8944" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8945" max="8950" width="6.140625" style="5" customWidth="1"/>
-    <col min="8951" max="8951" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8952" max="9199" width="8.85546875" style="5"/>
-    <col min="9200" max="9200" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9201" max="9206" width="6.140625" style="5" customWidth="1"/>
-    <col min="9207" max="9207" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9208" max="9455" width="8.85546875" style="5"/>
-    <col min="9456" max="9456" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9457" max="9462" width="6.140625" style="5" customWidth="1"/>
-    <col min="9463" max="9463" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9464" max="9711" width="8.85546875" style="5"/>
-    <col min="9712" max="9712" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9713" max="9718" width="6.140625" style="5" customWidth="1"/>
-    <col min="9719" max="9719" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9720" max="9967" width="8.85546875" style="5"/>
-    <col min="9968" max="9968" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9969" max="9974" width="6.140625" style="5" customWidth="1"/>
-    <col min="9975" max="9975" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9976" max="10223" width="8.85546875" style="5"/>
-    <col min="10224" max="10224" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10225" max="10230" width="6.140625" style="5" customWidth="1"/>
-    <col min="10231" max="10231" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10232" max="10479" width="8.85546875" style="5"/>
-    <col min="10480" max="10480" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10481" max="10486" width="6.140625" style="5" customWidth="1"/>
-    <col min="10487" max="10487" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10488" max="10735" width="8.85546875" style="5"/>
-    <col min="10736" max="10736" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10737" max="10742" width="6.140625" style="5" customWidth="1"/>
-    <col min="10743" max="10743" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10744" max="10991" width="8.85546875" style="5"/>
-    <col min="10992" max="10992" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10993" max="10998" width="6.140625" style="5" customWidth="1"/>
-    <col min="10999" max="10999" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11000" max="11247" width="8.85546875" style="5"/>
-    <col min="11248" max="11248" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11249" max="11254" width="6.140625" style="5" customWidth="1"/>
-    <col min="11255" max="11255" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11256" max="11503" width="8.85546875" style="5"/>
-    <col min="11504" max="11504" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11505" max="11510" width="6.140625" style="5" customWidth="1"/>
-    <col min="11511" max="11511" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11512" max="11759" width="8.85546875" style="5"/>
-    <col min="11760" max="11760" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11761" max="11766" width="6.140625" style="5" customWidth="1"/>
-    <col min="11767" max="11767" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11768" max="12015" width="8.85546875" style="5"/>
-    <col min="12016" max="12016" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12017" max="12022" width="6.140625" style="5" customWidth="1"/>
-    <col min="12023" max="12023" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12024" max="12271" width="8.85546875" style="5"/>
-    <col min="12272" max="12272" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12273" max="12278" width="6.140625" style="5" customWidth="1"/>
-    <col min="12279" max="12279" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12280" max="12527" width="8.85546875" style="5"/>
-    <col min="12528" max="12528" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12529" max="12534" width="6.140625" style="5" customWidth="1"/>
-    <col min="12535" max="12535" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12536" max="12783" width="8.85546875" style="5"/>
-    <col min="12784" max="12784" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12785" max="12790" width="6.140625" style="5" customWidth="1"/>
-    <col min="12791" max="12791" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12792" max="13039" width="8.85546875" style="5"/>
-    <col min="13040" max="13040" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13041" max="13046" width="6.140625" style="5" customWidth="1"/>
-    <col min="13047" max="13047" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13048" max="13295" width="8.85546875" style="5"/>
-    <col min="13296" max="13296" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13297" max="13302" width="6.140625" style="5" customWidth="1"/>
-    <col min="13303" max="13303" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13304" max="13551" width="8.85546875" style="5"/>
-    <col min="13552" max="13552" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13553" max="13558" width="6.140625" style="5" customWidth="1"/>
-    <col min="13559" max="13559" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13560" max="13807" width="8.85546875" style="5"/>
-    <col min="13808" max="13808" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13809" max="13814" width="6.140625" style="5" customWidth="1"/>
-    <col min="13815" max="13815" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13816" max="14063" width="8.85546875" style="5"/>
-    <col min="14064" max="14064" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14065" max="14070" width="6.140625" style="5" customWidth="1"/>
-    <col min="14071" max="14071" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14072" max="14319" width="8.85546875" style="5"/>
-    <col min="14320" max="14320" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14321" max="14326" width="6.140625" style="5" customWidth="1"/>
-    <col min="14327" max="14327" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14328" max="14575" width="8.85546875" style="5"/>
-    <col min="14576" max="14576" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14577" max="14582" width="6.140625" style="5" customWidth="1"/>
-    <col min="14583" max="14583" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14584" max="14831" width="8.85546875" style="5"/>
-    <col min="14832" max="14832" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14833" max="14838" width="6.140625" style="5" customWidth="1"/>
-    <col min="14839" max="14839" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14840" max="15087" width="8.85546875" style="5"/>
-    <col min="15088" max="15088" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15089" max="15094" width="6.140625" style="5" customWidth="1"/>
-    <col min="15095" max="15095" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15096" max="15343" width="8.85546875" style="5"/>
-    <col min="15344" max="15344" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15345" max="15350" width="6.140625" style="5" customWidth="1"/>
-    <col min="15351" max="15351" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15352" max="15599" width="8.85546875" style="5"/>
-    <col min="15600" max="15600" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15601" max="15606" width="6.140625" style="5" customWidth="1"/>
-    <col min="15607" max="15607" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15608" max="15855" width="8.85546875" style="5"/>
-    <col min="15856" max="15856" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15857" max="15862" width="6.140625" style="5" customWidth="1"/>
-    <col min="15863" max="15863" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15864" max="16111" width="8.85546875" style="5"/>
-    <col min="16112" max="16112" width="43.85546875" style="5" customWidth="1"/>
-    <col min="16113" max="16118" width="6.140625" style="5" customWidth="1"/>
-    <col min="16119" max="16119" width="7.42578125" style="5" customWidth="1"/>
-    <col min="16120" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="71.44140625" style="5" customWidth="1"/>
+    <col min="2" max="7" width="7.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="5" customWidth="1"/>
+    <col min="9" max="239" width="8.88671875" style="5"/>
+    <col min="240" max="240" width="43.88671875" style="5" customWidth="1"/>
+    <col min="241" max="246" width="6.109375" style="5" customWidth="1"/>
+    <col min="247" max="247" width="7.44140625" style="5" customWidth="1"/>
+    <col min="248" max="495" width="8.88671875" style="5"/>
+    <col min="496" max="496" width="43.88671875" style="5" customWidth="1"/>
+    <col min="497" max="502" width="6.109375" style="5" customWidth="1"/>
+    <col min="503" max="503" width="7.44140625" style="5" customWidth="1"/>
+    <col min="504" max="751" width="8.88671875" style="5"/>
+    <col min="752" max="752" width="43.88671875" style="5" customWidth="1"/>
+    <col min="753" max="758" width="6.109375" style="5" customWidth="1"/>
+    <col min="759" max="759" width="7.44140625" style="5" customWidth="1"/>
+    <col min="760" max="1007" width="8.88671875" style="5"/>
+    <col min="1008" max="1008" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1009" max="1014" width="6.109375" style="5" customWidth="1"/>
+    <col min="1015" max="1015" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1016" max="1263" width="8.88671875" style="5"/>
+    <col min="1264" max="1264" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1265" max="1270" width="6.109375" style="5" customWidth="1"/>
+    <col min="1271" max="1271" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1272" max="1519" width="8.88671875" style="5"/>
+    <col min="1520" max="1520" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1521" max="1526" width="6.109375" style="5" customWidth="1"/>
+    <col min="1527" max="1527" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1528" max="1775" width="8.88671875" style="5"/>
+    <col min="1776" max="1776" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1777" max="1782" width="6.109375" style="5" customWidth="1"/>
+    <col min="1783" max="1783" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1784" max="2031" width="8.88671875" style="5"/>
+    <col min="2032" max="2032" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2033" max="2038" width="6.109375" style="5" customWidth="1"/>
+    <col min="2039" max="2039" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2040" max="2287" width="8.88671875" style="5"/>
+    <col min="2288" max="2288" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2289" max="2294" width="6.109375" style="5" customWidth="1"/>
+    <col min="2295" max="2295" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2296" max="2543" width="8.88671875" style="5"/>
+    <col min="2544" max="2544" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2545" max="2550" width="6.109375" style="5" customWidth="1"/>
+    <col min="2551" max="2551" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2552" max="2799" width="8.88671875" style="5"/>
+    <col min="2800" max="2800" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2801" max="2806" width="6.109375" style="5" customWidth="1"/>
+    <col min="2807" max="2807" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2808" max="3055" width="8.88671875" style="5"/>
+    <col min="3056" max="3056" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3057" max="3062" width="6.109375" style="5" customWidth="1"/>
+    <col min="3063" max="3063" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3064" max="3311" width="8.88671875" style="5"/>
+    <col min="3312" max="3312" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3313" max="3318" width="6.109375" style="5" customWidth="1"/>
+    <col min="3319" max="3319" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3320" max="3567" width="8.88671875" style="5"/>
+    <col min="3568" max="3568" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3569" max="3574" width="6.109375" style="5" customWidth="1"/>
+    <col min="3575" max="3575" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3576" max="3823" width="8.88671875" style="5"/>
+    <col min="3824" max="3824" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3825" max="3830" width="6.109375" style="5" customWidth="1"/>
+    <col min="3831" max="3831" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3832" max="4079" width="8.88671875" style="5"/>
+    <col min="4080" max="4080" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4081" max="4086" width="6.109375" style="5" customWidth="1"/>
+    <col min="4087" max="4087" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4088" max="4335" width="8.88671875" style="5"/>
+    <col min="4336" max="4336" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4337" max="4342" width="6.109375" style="5" customWidth="1"/>
+    <col min="4343" max="4343" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4344" max="4591" width="8.88671875" style="5"/>
+    <col min="4592" max="4592" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4593" max="4598" width="6.109375" style="5" customWidth="1"/>
+    <col min="4599" max="4599" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4600" max="4847" width="8.88671875" style="5"/>
+    <col min="4848" max="4848" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4849" max="4854" width="6.109375" style="5" customWidth="1"/>
+    <col min="4855" max="4855" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4856" max="5103" width="8.88671875" style="5"/>
+    <col min="5104" max="5104" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5105" max="5110" width="6.109375" style="5" customWidth="1"/>
+    <col min="5111" max="5111" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5112" max="5359" width="8.88671875" style="5"/>
+    <col min="5360" max="5360" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5361" max="5366" width="6.109375" style="5" customWidth="1"/>
+    <col min="5367" max="5367" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5368" max="5615" width="8.88671875" style="5"/>
+    <col min="5616" max="5616" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5617" max="5622" width="6.109375" style="5" customWidth="1"/>
+    <col min="5623" max="5623" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5624" max="5871" width="8.88671875" style="5"/>
+    <col min="5872" max="5872" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5873" max="5878" width="6.109375" style="5" customWidth="1"/>
+    <col min="5879" max="5879" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5880" max="6127" width="8.88671875" style="5"/>
+    <col min="6128" max="6128" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6129" max="6134" width="6.109375" style="5" customWidth="1"/>
+    <col min="6135" max="6135" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6136" max="6383" width="8.88671875" style="5"/>
+    <col min="6384" max="6384" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6385" max="6390" width="6.109375" style="5" customWidth="1"/>
+    <col min="6391" max="6391" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6392" max="6639" width="8.88671875" style="5"/>
+    <col min="6640" max="6640" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6641" max="6646" width="6.109375" style="5" customWidth="1"/>
+    <col min="6647" max="6647" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6648" max="6895" width="8.88671875" style="5"/>
+    <col min="6896" max="6896" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6897" max="6902" width="6.109375" style="5" customWidth="1"/>
+    <col min="6903" max="6903" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6904" max="7151" width="8.88671875" style="5"/>
+    <col min="7152" max="7152" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7153" max="7158" width="6.109375" style="5" customWidth="1"/>
+    <col min="7159" max="7159" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7160" max="7407" width="8.88671875" style="5"/>
+    <col min="7408" max="7408" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7409" max="7414" width="6.109375" style="5" customWidth="1"/>
+    <col min="7415" max="7415" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7416" max="7663" width="8.88671875" style="5"/>
+    <col min="7664" max="7664" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7665" max="7670" width="6.109375" style="5" customWidth="1"/>
+    <col min="7671" max="7671" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7672" max="7919" width="8.88671875" style="5"/>
+    <col min="7920" max="7920" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7921" max="7926" width="6.109375" style="5" customWidth="1"/>
+    <col min="7927" max="7927" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7928" max="8175" width="8.88671875" style="5"/>
+    <col min="8176" max="8176" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8177" max="8182" width="6.109375" style="5" customWidth="1"/>
+    <col min="8183" max="8183" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8184" max="8431" width="8.88671875" style="5"/>
+    <col min="8432" max="8432" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8433" max="8438" width="6.109375" style="5" customWidth="1"/>
+    <col min="8439" max="8439" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8440" max="8687" width="8.88671875" style="5"/>
+    <col min="8688" max="8688" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8689" max="8694" width="6.109375" style="5" customWidth="1"/>
+    <col min="8695" max="8695" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8696" max="8943" width="8.88671875" style="5"/>
+    <col min="8944" max="8944" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8945" max="8950" width="6.109375" style="5" customWidth="1"/>
+    <col min="8951" max="8951" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8952" max="9199" width="8.88671875" style="5"/>
+    <col min="9200" max="9200" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9201" max="9206" width="6.109375" style="5" customWidth="1"/>
+    <col min="9207" max="9207" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9208" max="9455" width="8.88671875" style="5"/>
+    <col min="9456" max="9456" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9457" max="9462" width="6.109375" style="5" customWidth="1"/>
+    <col min="9463" max="9463" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9464" max="9711" width="8.88671875" style="5"/>
+    <col min="9712" max="9712" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9713" max="9718" width="6.109375" style="5" customWidth="1"/>
+    <col min="9719" max="9719" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9720" max="9967" width="8.88671875" style="5"/>
+    <col min="9968" max="9968" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9969" max="9974" width="6.109375" style="5" customWidth="1"/>
+    <col min="9975" max="9975" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9976" max="10223" width="8.88671875" style="5"/>
+    <col min="10224" max="10224" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10225" max="10230" width="6.109375" style="5" customWidth="1"/>
+    <col min="10231" max="10231" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10232" max="10479" width="8.88671875" style="5"/>
+    <col min="10480" max="10480" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10481" max="10486" width="6.109375" style="5" customWidth="1"/>
+    <col min="10487" max="10487" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10488" max="10735" width="8.88671875" style="5"/>
+    <col min="10736" max="10736" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10737" max="10742" width="6.109375" style="5" customWidth="1"/>
+    <col min="10743" max="10743" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10744" max="10991" width="8.88671875" style="5"/>
+    <col min="10992" max="10992" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10993" max="10998" width="6.109375" style="5" customWidth="1"/>
+    <col min="10999" max="10999" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11000" max="11247" width="8.88671875" style="5"/>
+    <col min="11248" max="11248" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11249" max="11254" width="6.109375" style="5" customWidth="1"/>
+    <col min="11255" max="11255" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11256" max="11503" width="8.88671875" style="5"/>
+    <col min="11504" max="11504" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11505" max="11510" width="6.109375" style="5" customWidth="1"/>
+    <col min="11511" max="11511" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11512" max="11759" width="8.88671875" style="5"/>
+    <col min="11760" max="11760" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11761" max="11766" width="6.109375" style="5" customWidth="1"/>
+    <col min="11767" max="11767" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11768" max="12015" width="8.88671875" style="5"/>
+    <col min="12016" max="12016" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12017" max="12022" width="6.109375" style="5" customWidth="1"/>
+    <col min="12023" max="12023" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12024" max="12271" width="8.88671875" style="5"/>
+    <col min="12272" max="12272" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12273" max="12278" width="6.109375" style="5" customWidth="1"/>
+    <col min="12279" max="12279" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12280" max="12527" width="8.88671875" style="5"/>
+    <col min="12528" max="12528" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12529" max="12534" width="6.109375" style="5" customWidth="1"/>
+    <col min="12535" max="12535" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12536" max="12783" width="8.88671875" style="5"/>
+    <col min="12784" max="12784" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12785" max="12790" width="6.109375" style="5" customWidth="1"/>
+    <col min="12791" max="12791" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12792" max="13039" width="8.88671875" style="5"/>
+    <col min="13040" max="13040" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13041" max="13046" width="6.109375" style="5" customWidth="1"/>
+    <col min="13047" max="13047" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13048" max="13295" width="8.88671875" style="5"/>
+    <col min="13296" max="13296" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13297" max="13302" width="6.109375" style="5" customWidth="1"/>
+    <col min="13303" max="13303" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13304" max="13551" width="8.88671875" style="5"/>
+    <col min="13552" max="13552" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13553" max="13558" width="6.109375" style="5" customWidth="1"/>
+    <col min="13559" max="13559" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13560" max="13807" width="8.88671875" style="5"/>
+    <col min="13808" max="13808" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13809" max="13814" width="6.109375" style="5" customWidth="1"/>
+    <col min="13815" max="13815" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13816" max="14063" width="8.88671875" style="5"/>
+    <col min="14064" max="14064" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14065" max="14070" width="6.109375" style="5" customWidth="1"/>
+    <col min="14071" max="14071" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14072" max="14319" width="8.88671875" style="5"/>
+    <col min="14320" max="14320" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14321" max="14326" width="6.109375" style="5" customWidth="1"/>
+    <col min="14327" max="14327" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14328" max="14575" width="8.88671875" style="5"/>
+    <col min="14576" max="14576" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14577" max="14582" width="6.109375" style="5" customWidth="1"/>
+    <col min="14583" max="14583" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14584" max="14831" width="8.88671875" style="5"/>
+    <col min="14832" max="14832" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14833" max="14838" width="6.109375" style="5" customWidth="1"/>
+    <col min="14839" max="14839" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14840" max="15087" width="8.88671875" style="5"/>
+    <col min="15088" max="15088" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15089" max="15094" width="6.109375" style="5" customWidth="1"/>
+    <col min="15095" max="15095" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15096" max="15343" width="8.88671875" style="5"/>
+    <col min="15344" max="15344" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15345" max="15350" width="6.109375" style="5" customWidth="1"/>
+    <col min="15351" max="15351" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15352" max="15599" width="8.88671875" style="5"/>
+    <col min="15600" max="15600" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15601" max="15606" width="6.109375" style="5" customWidth="1"/>
+    <col min="15607" max="15607" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15608" max="15855" width="8.88671875" style="5"/>
+    <col min="15856" max="15856" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15857" max="15862" width="6.109375" style="5" customWidth="1"/>
+    <col min="15863" max="15863" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15864" max="16111" width="8.88671875" style="5"/>
+    <col min="16112" max="16112" width="43.88671875" style="5" customWidth="1"/>
+    <col min="16113" max="16118" width="6.109375" style="5" customWidth="1"/>
+    <col min="16119" max="16119" width="7.44140625" style="5" customWidth="1"/>
+    <col min="16120" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="str">
         <f>Total!$G$1</f>
         <v>Week 3</v>
@@ -9343,7 +9335,7 @@
       <c r="G1" s="58"/>
       <c r="H1" s="59"/>
     </row>
-    <row r="3" spans="1:8" ht="22.9">
+    <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v xml:space="preserve">Badr </v>
@@ -9359,7 +9351,7 @@
       <c r="G3" s="56"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -9393,7 +9385,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>51</v>
       </c>
@@ -9412,7 +9404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>94</v>
       </c>
@@ -9431,7 +9423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -9444,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -9457,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -9470,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -9504,7 +9496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -9514,7 +9506,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.9">
+    <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Frankie</v>
@@ -9530,7 +9522,7 @@
       <c r="G12" s="56"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -9564,7 +9556,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
@@ -9583,7 +9575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>95</v>
       </c>
@@ -9600,7 +9592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>96</v>
       </c>
@@ -9619,7 +9611,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>97</v>
       </c>
@@ -9636,7 +9628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>98</v>
       </c>
@@ -9650,7 +9642,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>99</v>
       </c>
@@ -9667,7 +9659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="22" customFormat="1">
+    <row r="20" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -9701,7 +9693,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="22.9">
+    <row r="22" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
         <f>Total!D4</f>
         <v>Desmond</v>
@@ -9717,7 +9709,7 @@
       <c r="G22" s="56"/>
       <c r="H22" s="57"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -9751,7 +9743,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
@@ -9770,7 +9762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>100</v>
       </c>
@@ -9789,7 +9781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>101</v>
       </c>
@@ -9806,7 +9798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -9819,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -9832,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="22" customFormat="1">
+    <row r="29" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -9866,7 +9858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="22.9">
+    <row r="31" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
         <f>Total!D5</f>
         <v>Georgi</v>
@@ -9882,7 +9874,7 @@
       <c r="G31" s="56"/>
       <c r="H31" s="57"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -9916,7 +9908,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>60</v>
       </c>
@@ -9935,7 +9927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>102</v>
       </c>
@@ -9952,7 +9944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="26.45">
+    <row r="35" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>103</v>
       </c>
@@ -9969,7 +9961,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="26.45">
+    <row r="36" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>104</v>
       </c>
@@ -9990,7 +9982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>105</v>
       </c>
@@ -10009,7 +10001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="22" customFormat="1">
+    <row r="38" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -10043,7 +10035,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="22.9">
+    <row r="40" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
         <f>Total!D6</f>
         <v>Marcelo</v>
@@ -10059,7 +10051,7 @@
       <c r="G40" s="56"/>
       <c r="H40" s="57"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -10093,7 +10085,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>53</v>
       </c>
@@ -10112,7 +10104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>106</v>
       </c>
@@ -10129,7 +10121,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>107</v>
       </c>
@@ -10146,7 +10138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>108</v>
       </c>
@@ -10163,7 +10155,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -10176,7 +10168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -10210,7 +10202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="22.9">
+    <row r="49" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
         <f>Total!D7</f>
         <v>Pablo</v>
@@ -10226,7 +10218,7 @@
       <c r="G49" s="56"/>
       <c r="H49" s="57"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -10260,7 +10252,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>48</v>
       </c>
@@ -10275,7 +10267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
         <v>90</v>
       </c>
@@ -10294,7 +10286,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>109</v>
       </c>
@@ -10311,7 +10303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>51</v>
       </c>
@@ -10330,7 +10322,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -10343,7 +10335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -10377,7 +10369,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="22.9">
+    <row r="58" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="str">
         <f>Total!D8</f>
         <v>Brice</v>
@@ -10393,7 +10385,7 @@
       <c r="G58" s="56"/>
       <c r="H58" s="57"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -10427,7 +10419,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>48</v>
       </c>
@@ -10442,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>110</v>
       </c>
@@ -10461,7 +10453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>111</v>
       </c>
@@ -10480,7 +10472,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>53</v>
       </c>
@@ -10499,7 +10491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -10512,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -10570,267 +10562,267 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
-    <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
-    <col min="9" max="239" width="8.85546875" style="5"/>
-    <col min="240" max="240" width="43.85546875" style="5" customWidth="1"/>
-    <col min="241" max="246" width="6.140625" style="5" customWidth="1"/>
-    <col min="247" max="247" width="7.42578125" style="5" customWidth="1"/>
-    <col min="248" max="495" width="8.85546875" style="5"/>
-    <col min="496" max="496" width="43.85546875" style="5" customWidth="1"/>
-    <col min="497" max="502" width="6.140625" style="5" customWidth="1"/>
-    <col min="503" max="503" width="7.42578125" style="5" customWidth="1"/>
-    <col min="504" max="751" width="8.85546875" style="5"/>
-    <col min="752" max="752" width="43.85546875" style="5" customWidth="1"/>
-    <col min="753" max="758" width="6.140625" style="5" customWidth="1"/>
-    <col min="759" max="759" width="7.42578125" style="5" customWidth="1"/>
-    <col min="760" max="1007" width="8.85546875" style="5"/>
-    <col min="1008" max="1008" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1009" max="1014" width="6.140625" style="5" customWidth="1"/>
-    <col min="1015" max="1015" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1016" max="1263" width="8.85546875" style="5"/>
-    <col min="1264" max="1264" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1265" max="1270" width="6.140625" style="5" customWidth="1"/>
-    <col min="1271" max="1271" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1272" max="1519" width="8.85546875" style="5"/>
-    <col min="1520" max="1520" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1521" max="1526" width="6.140625" style="5" customWidth="1"/>
-    <col min="1527" max="1527" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1528" max="1775" width="8.85546875" style="5"/>
-    <col min="1776" max="1776" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1777" max="1782" width="6.140625" style="5" customWidth="1"/>
-    <col min="1783" max="1783" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1784" max="2031" width="8.85546875" style="5"/>
-    <col min="2032" max="2032" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2033" max="2038" width="6.140625" style="5" customWidth="1"/>
-    <col min="2039" max="2039" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2040" max="2287" width="8.85546875" style="5"/>
-    <col min="2288" max="2288" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2289" max="2294" width="6.140625" style="5" customWidth="1"/>
-    <col min="2295" max="2295" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2296" max="2543" width="8.85546875" style="5"/>
-    <col min="2544" max="2544" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2545" max="2550" width="6.140625" style="5" customWidth="1"/>
-    <col min="2551" max="2551" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2552" max="2799" width="8.85546875" style="5"/>
-    <col min="2800" max="2800" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2801" max="2806" width="6.140625" style="5" customWidth="1"/>
-    <col min="2807" max="2807" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2808" max="3055" width="8.85546875" style="5"/>
-    <col min="3056" max="3056" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3057" max="3062" width="6.140625" style="5" customWidth="1"/>
-    <col min="3063" max="3063" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3064" max="3311" width="8.85546875" style="5"/>
-    <col min="3312" max="3312" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3313" max="3318" width="6.140625" style="5" customWidth="1"/>
-    <col min="3319" max="3319" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3320" max="3567" width="8.85546875" style="5"/>
-    <col min="3568" max="3568" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3569" max="3574" width="6.140625" style="5" customWidth="1"/>
-    <col min="3575" max="3575" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3576" max="3823" width="8.85546875" style="5"/>
-    <col min="3824" max="3824" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3825" max="3830" width="6.140625" style="5" customWidth="1"/>
-    <col min="3831" max="3831" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3832" max="4079" width="8.85546875" style="5"/>
-    <col min="4080" max="4080" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4081" max="4086" width="6.140625" style="5" customWidth="1"/>
-    <col min="4087" max="4087" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4088" max="4335" width="8.85546875" style="5"/>
-    <col min="4336" max="4336" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4337" max="4342" width="6.140625" style="5" customWidth="1"/>
-    <col min="4343" max="4343" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4344" max="4591" width="8.85546875" style="5"/>
-    <col min="4592" max="4592" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4593" max="4598" width="6.140625" style="5" customWidth="1"/>
-    <col min="4599" max="4599" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4600" max="4847" width="8.85546875" style="5"/>
-    <col min="4848" max="4848" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4849" max="4854" width="6.140625" style="5" customWidth="1"/>
-    <col min="4855" max="4855" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4856" max="5103" width="8.85546875" style="5"/>
-    <col min="5104" max="5104" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5105" max="5110" width="6.140625" style="5" customWidth="1"/>
-    <col min="5111" max="5111" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5112" max="5359" width="8.85546875" style="5"/>
-    <col min="5360" max="5360" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5361" max="5366" width="6.140625" style="5" customWidth="1"/>
-    <col min="5367" max="5367" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5368" max="5615" width="8.85546875" style="5"/>
-    <col min="5616" max="5616" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5617" max="5622" width="6.140625" style="5" customWidth="1"/>
-    <col min="5623" max="5623" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5624" max="5871" width="8.85546875" style="5"/>
-    <col min="5872" max="5872" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5873" max="5878" width="6.140625" style="5" customWidth="1"/>
-    <col min="5879" max="5879" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5880" max="6127" width="8.85546875" style="5"/>
-    <col min="6128" max="6128" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6129" max="6134" width="6.140625" style="5" customWidth="1"/>
-    <col min="6135" max="6135" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6136" max="6383" width="8.85546875" style="5"/>
-    <col min="6384" max="6384" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6385" max="6390" width="6.140625" style="5" customWidth="1"/>
-    <col min="6391" max="6391" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6392" max="6639" width="8.85546875" style="5"/>
-    <col min="6640" max="6640" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6641" max="6646" width="6.140625" style="5" customWidth="1"/>
-    <col min="6647" max="6647" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6648" max="6895" width="8.85546875" style="5"/>
-    <col min="6896" max="6896" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6897" max="6902" width="6.140625" style="5" customWidth="1"/>
-    <col min="6903" max="6903" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6904" max="7151" width="8.85546875" style="5"/>
-    <col min="7152" max="7152" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7153" max="7158" width="6.140625" style="5" customWidth="1"/>
-    <col min="7159" max="7159" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7160" max="7407" width="8.85546875" style="5"/>
-    <col min="7408" max="7408" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7409" max="7414" width="6.140625" style="5" customWidth="1"/>
-    <col min="7415" max="7415" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7416" max="7663" width="8.85546875" style="5"/>
-    <col min="7664" max="7664" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7665" max="7670" width="6.140625" style="5" customWidth="1"/>
-    <col min="7671" max="7671" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7672" max="7919" width="8.85546875" style="5"/>
-    <col min="7920" max="7920" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7921" max="7926" width="6.140625" style="5" customWidth="1"/>
-    <col min="7927" max="7927" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7928" max="8175" width="8.85546875" style="5"/>
-    <col min="8176" max="8176" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8177" max="8182" width="6.140625" style="5" customWidth="1"/>
-    <col min="8183" max="8183" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8184" max="8431" width="8.85546875" style="5"/>
-    <col min="8432" max="8432" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8433" max="8438" width="6.140625" style="5" customWidth="1"/>
-    <col min="8439" max="8439" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8440" max="8687" width="8.85546875" style="5"/>
-    <col min="8688" max="8688" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8689" max="8694" width="6.140625" style="5" customWidth="1"/>
-    <col min="8695" max="8695" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8696" max="8943" width="8.85546875" style="5"/>
-    <col min="8944" max="8944" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8945" max="8950" width="6.140625" style="5" customWidth="1"/>
-    <col min="8951" max="8951" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8952" max="9199" width="8.85546875" style="5"/>
-    <col min="9200" max="9200" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9201" max="9206" width="6.140625" style="5" customWidth="1"/>
-    <col min="9207" max="9207" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9208" max="9455" width="8.85546875" style="5"/>
-    <col min="9456" max="9456" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9457" max="9462" width="6.140625" style="5" customWidth="1"/>
-    <col min="9463" max="9463" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9464" max="9711" width="8.85546875" style="5"/>
-    <col min="9712" max="9712" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9713" max="9718" width="6.140625" style="5" customWidth="1"/>
-    <col min="9719" max="9719" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9720" max="9967" width="8.85546875" style="5"/>
-    <col min="9968" max="9968" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9969" max="9974" width="6.140625" style="5" customWidth="1"/>
-    <col min="9975" max="9975" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9976" max="10223" width="8.85546875" style="5"/>
-    <col min="10224" max="10224" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10225" max="10230" width="6.140625" style="5" customWidth="1"/>
-    <col min="10231" max="10231" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10232" max="10479" width="8.85546875" style="5"/>
-    <col min="10480" max="10480" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10481" max="10486" width="6.140625" style="5" customWidth="1"/>
-    <col min="10487" max="10487" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10488" max="10735" width="8.85546875" style="5"/>
-    <col min="10736" max="10736" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10737" max="10742" width="6.140625" style="5" customWidth="1"/>
-    <col min="10743" max="10743" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10744" max="10991" width="8.85546875" style="5"/>
-    <col min="10992" max="10992" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10993" max="10998" width="6.140625" style="5" customWidth="1"/>
-    <col min="10999" max="10999" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11000" max="11247" width="8.85546875" style="5"/>
-    <col min="11248" max="11248" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11249" max="11254" width="6.140625" style="5" customWidth="1"/>
-    <col min="11255" max="11255" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11256" max="11503" width="8.85546875" style="5"/>
-    <col min="11504" max="11504" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11505" max="11510" width="6.140625" style="5" customWidth="1"/>
-    <col min="11511" max="11511" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11512" max="11759" width="8.85546875" style="5"/>
-    <col min="11760" max="11760" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11761" max="11766" width="6.140625" style="5" customWidth="1"/>
-    <col min="11767" max="11767" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11768" max="12015" width="8.85546875" style="5"/>
-    <col min="12016" max="12016" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12017" max="12022" width="6.140625" style="5" customWidth="1"/>
-    <col min="12023" max="12023" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12024" max="12271" width="8.85546875" style="5"/>
-    <col min="12272" max="12272" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12273" max="12278" width="6.140625" style="5" customWidth="1"/>
-    <col min="12279" max="12279" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12280" max="12527" width="8.85546875" style="5"/>
-    <col min="12528" max="12528" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12529" max="12534" width="6.140625" style="5" customWidth="1"/>
-    <col min="12535" max="12535" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12536" max="12783" width="8.85546875" style="5"/>
-    <col min="12784" max="12784" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12785" max="12790" width="6.140625" style="5" customWidth="1"/>
-    <col min="12791" max="12791" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12792" max="13039" width="8.85546875" style="5"/>
-    <col min="13040" max="13040" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13041" max="13046" width="6.140625" style="5" customWidth="1"/>
-    <col min="13047" max="13047" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13048" max="13295" width="8.85546875" style="5"/>
-    <col min="13296" max="13296" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13297" max="13302" width="6.140625" style="5" customWidth="1"/>
-    <col min="13303" max="13303" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13304" max="13551" width="8.85546875" style="5"/>
-    <col min="13552" max="13552" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13553" max="13558" width="6.140625" style="5" customWidth="1"/>
-    <col min="13559" max="13559" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13560" max="13807" width="8.85546875" style="5"/>
-    <col min="13808" max="13808" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13809" max="13814" width="6.140625" style="5" customWidth="1"/>
-    <col min="13815" max="13815" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13816" max="14063" width="8.85546875" style="5"/>
-    <col min="14064" max="14064" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14065" max="14070" width="6.140625" style="5" customWidth="1"/>
-    <col min="14071" max="14071" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14072" max="14319" width="8.85546875" style="5"/>
-    <col min="14320" max="14320" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14321" max="14326" width="6.140625" style="5" customWidth="1"/>
-    <col min="14327" max="14327" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14328" max="14575" width="8.85546875" style="5"/>
-    <col min="14576" max="14576" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14577" max="14582" width="6.140625" style="5" customWidth="1"/>
-    <col min="14583" max="14583" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14584" max="14831" width="8.85546875" style="5"/>
-    <col min="14832" max="14832" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14833" max="14838" width="6.140625" style="5" customWidth="1"/>
-    <col min="14839" max="14839" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14840" max="15087" width="8.85546875" style="5"/>
-    <col min="15088" max="15088" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15089" max="15094" width="6.140625" style="5" customWidth="1"/>
-    <col min="15095" max="15095" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15096" max="15343" width="8.85546875" style="5"/>
-    <col min="15344" max="15344" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15345" max="15350" width="6.140625" style="5" customWidth="1"/>
-    <col min="15351" max="15351" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15352" max="15599" width="8.85546875" style="5"/>
-    <col min="15600" max="15600" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15601" max="15606" width="6.140625" style="5" customWidth="1"/>
-    <col min="15607" max="15607" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15608" max="15855" width="8.85546875" style="5"/>
-    <col min="15856" max="15856" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15857" max="15862" width="6.140625" style="5" customWidth="1"/>
-    <col min="15863" max="15863" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15864" max="16111" width="8.85546875" style="5"/>
-    <col min="16112" max="16112" width="43.85546875" style="5" customWidth="1"/>
-    <col min="16113" max="16118" width="6.140625" style="5" customWidth="1"/>
-    <col min="16119" max="16119" width="7.42578125" style="5" customWidth="1"/>
-    <col min="16120" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="71.44140625" style="5" customWidth="1"/>
+    <col min="2" max="7" width="7.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="5" customWidth="1"/>
+    <col min="9" max="239" width="8.88671875" style="5"/>
+    <col min="240" max="240" width="43.88671875" style="5" customWidth="1"/>
+    <col min="241" max="246" width="6.109375" style="5" customWidth="1"/>
+    <col min="247" max="247" width="7.44140625" style="5" customWidth="1"/>
+    <col min="248" max="495" width="8.88671875" style="5"/>
+    <col min="496" max="496" width="43.88671875" style="5" customWidth="1"/>
+    <col min="497" max="502" width="6.109375" style="5" customWidth="1"/>
+    <col min="503" max="503" width="7.44140625" style="5" customWidth="1"/>
+    <col min="504" max="751" width="8.88671875" style="5"/>
+    <col min="752" max="752" width="43.88671875" style="5" customWidth="1"/>
+    <col min="753" max="758" width="6.109375" style="5" customWidth="1"/>
+    <col min="759" max="759" width="7.44140625" style="5" customWidth="1"/>
+    <col min="760" max="1007" width="8.88671875" style="5"/>
+    <col min="1008" max="1008" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1009" max="1014" width="6.109375" style="5" customWidth="1"/>
+    <col min="1015" max="1015" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1016" max="1263" width="8.88671875" style="5"/>
+    <col min="1264" max="1264" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1265" max="1270" width="6.109375" style="5" customWidth="1"/>
+    <col min="1271" max="1271" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1272" max="1519" width="8.88671875" style="5"/>
+    <col min="1520" max="1520" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1521" max="1526" width="6.109375" style="5" customWidth="1"/>
+    <col min="1527" max="1527" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1528" max="1775" width="8.88671875" style="5"/>
+    <col min="1776" max="1776" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1777" max="1782" width="6.109375" style="5" customWidth="1"/>
+    <col min="1783" max="1783" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1784" max="2031" width="8.88671875" style="5"/>
+    <col min="2032" max="2032" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2033" max="2038" width="6.109375" style="5" customWidth="1"/>
+    <col min="2039" max="2039" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2040" max="2287" width="8.88671875" style="5"/>
+    <col min="2288" max="2288" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2289" max="2294" width="6.109375" style="5" customWidth="1"/>
+    <col min="2295" max="2295" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2296" max="2543" width="8.88671875" style="5"/>
+    <col min="2544" max="2544" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2545" max="2550" width="6.109375" style="5" customWidth="1"/>
+    <col min="2551" max="2551" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2552" max="2799" width="8.88671875" style="5"/>
+    <col min="2800" max="2800" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2801" max="2806" width="6.109375" style="5" customWidth="1"/>
+    <col min="2807" max="2807" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2808" max="3055" width="8.88671875" style="5"/>
+    <col min="3056" max="3056" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3057" max="3062" width="6.109375" style="5" customWidth="1"/>
+    <col min="3063" max="3063" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3064" max="3311" width="8.88671875" style="5"/>
+    <col min="3312" max="3312" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3313" max="3318" width="6.109375" style="5" customWidth="1"/>
+    <col min="3319" max="3319" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3320" max="3567" width="8.88671875" style="5"/>
+    <col min="3568" max="3568" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3569" max="3574" width="6.109375" style="5" customWidth="1"/>
+    <col min="3575" max="3575" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3576" max="3823" width="8.88671875" style="5"/>
+    <col min="3824" max="3824" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3825" max="3830" width="6.109375" style="5" customWidth="1"/>
+    <col min="3831" max="3831" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3832" max="4079" width="8.88671875" style="5"/>
+    <col min="4080" max="4080" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4081" max="4086" width="6.109375" style="5" customWidth="1"/>
+    <col min="4087" max="4087" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4088" max="4335" width="8.88671875" style="5"/>
+    <col min="4336" max="4336" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4337" max="4342" width="6.109375" style="5" customWidth="1"/>
+    <col min="4343" max="4343" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4344" max="4591" width="8.88671875" style="5"/>
+    <col min="4592" max="4592" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4593" max="4598" width="6.109375" style="5" customWidth="1"/>
+    <col min="4599" max="4599" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4600" max="4847" width="8.88671875" style="5"/>
+    <col min="4848" max="4848" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4849" max="4854" width="6.109375" style="5" customWidth="1"/>
+    <col min="4855" max="4855" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4856" max="5103" width="8.88671875" style="5"/>
+    <col min="5104" max="5104" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5105" max="5110" width="6.109375" style="5" customWidth="1"/>
+    <col min="5111" max="5111" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5112" max="5359" width="8.88671875" style="5"/>
+    <col min="5360" max="5360" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5361" max="5366" width="6.109375" style="5" customWidth="1"/>
+    <col min="5367" max="5367" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5368" max="5615" width="8.88671875" style="5"/>
+    <col min="5616" max="5616" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5617" max="5622" width="6.109375" style="5" customWidth="1"/>
+    <col min="5623" max="5623" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5624" max="5871" width="8.88671875" style="5"/>
+    <col min="5872" max="5872" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5873" max="5878" width="6.109375" style="5" customWidth="1"/>
+    <col min="5879" max="5879" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5880" max="6127" width="8.88671875" style="5"/>
+    <col min="6128" max="6128" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6129" max="6134" width="6.109375" style="5" customWidth="1"/>
+    <col min="6135" max="6135" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6136" max="6383" width="8.88671875" style="5"/>
+    <col min="6384" max="6384" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6385" max="6390" width="6.109375" style="5" customWidth="1"/>
+    <col min="6391" max="6391" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6392" max="6639" width="8.88671875" style="5"/>
+    <col min="6640" max="6640" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6641" max="6646" width="6.109375" style="5" customWidth="1"/>
+    <col min="6647" max="6647" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6648" max="6895" width="8.88671875" style="5"/>
+    <col min="6896" max="6896" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6897" max="6902" width="6.109375" style="5" customWidth="1"/>
+    <col min="6903" max="6903" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6904" max="7151" width="8.88671875" style="5"/>
+    <col min="7152" max="7152" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7153" max="7158" width="6.109375" style="5" customWidth="1"/>
+    <col min="7159" max="7159" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7160" max="7407" width="8.88671875" style="5"/>
+    <col min="7408" max="7408" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7409" max="7414" width="6.109375" style="5" customWidth="1"/>
+    <col min="7415" max="7415" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7416" max="7663" width="8.88671875" style="5"/>
+    <col min="7664" max="7664" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7665" max="7670" width="6.109375" style="5" customWidth="1"/>
+    <col min="7671" max="7671" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7672" max="7919" width="8.88671875" style="5"/>
+    <col min="7920" max="7920" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7921" max="7926" width="6.109375" style="5" customWidth="1"/>
+    <col min="7927" max="7927" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7928" max="8175" width="8.88671875" style="5"/>
+    <col min="8176" max="8176" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8177" max="8182" width="6.109375" style="5" customWidth="1"/>
+    <col min="8183" max="8183" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8184" max="8431" width="8.88671875" style="5"/>
+    <col min="8432" max="8432" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8433" max="8438" width="6.109375" style="5" customWidth="1"/>
+    <col min="8439" max="8439" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8440" max="8687" width="8.88671875" style="5"/>
+    <col min="8688" max="8688" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8689" max="8694" width="6.109375" style="5" customWidth="1"/>
+    <col min="8695" max="8695" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8696" max="8943" width="8.88671875" style="5"/>
+    <col min="8944" max="8944" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8945" max="8950" width="6.109375" style="5" customWidth="1"/>
+    <col min="8951" max="8951" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8952" max="9199" width="8.88671875" style="5"/>
+    <col min="9200" max="9200" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9201" max="9206" width="6.109375" style="5" customWidth="1"/>
+    <col min="9207" max="9207" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9208" max="9455" width="8.88671875" style="5"/>
+    <col min="9456" max="9456" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9457" max="9462" width="6.109375" style="5" customWidth="1"/>
+    <col min="9463" max="9463" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9464" max="9711" width="8.88671875" style="5"/>
+    <col min="9712" max="9712" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9713" max="9718" width="6.109375" style="5" customWidth="1"/>
+    <col min="9719" max="9719" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9720" max="9967" width="8.88671875" style="5"/>
+    <col min="9968" max="9968" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9969" max="9974" width="6.109375" style="5" customWidth="1"/>
+    <col min="9975" max="9975" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9976" max="10223" width="8.88671875" style="5"/>
+    <col min="10224" max="10224" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10225" max="10230" width="6.109375" style="5" customWidth="1"/>
+    <col min="10231" max="10231" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10232" max="10479" width="8.88671875" style="5"/>
+    <col min="10480" max="10480" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10481" max="10486" width="6.109375" style="5" customWidth="1"/>
+    <col min="10487" max="10487" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10488" max="10735" width="8.88671875" style="5"/>
+    <col min="10736" max="10736" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10737" max="10742" width="6.109375" style="5" customWidth="1"/>
+    <col min="10743" max="10743" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10744" max="10991" width="8.88671875" style="5"/>
+    <col min="10992" max="10992" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10993" max="10998" width="6.109375" style="5" customWidth="1"/>
+    <col min="10999" max="10999" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11000" max="11247" width="8.88671875" style="5"/>
+    <col min="11248" max="11248" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11249" max="11254" width="6.109375" style="5" customWidth="1"/>
+    <col min="11255" max="11255" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11256" max="11503" width="8.88671875" style="5"/>
+    <col min="11504" max="11504" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11505" max="11510" width="6.109375" style="5" customWidth="1"/>
+    <col min="11511" max="11511" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11512" max="11759" width="8.88671875" style="5"/>
+    <col min="11760" max="11760" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11761" max="11766" width="6.109375" style="5" customWidth="1"/>
+    <col min="11767" max="11767" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11768" max="12015" width="8.88671875" style="5"/>
+    <col min="12016" max="12016" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12017" max="12022" width="6.109375" style="5" customWidth="1"/>
+    <col min="12023" max="12023" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12024" max="12271" width="8.88671875" style="5"/>
+    <col min="12272" max="12272" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12273" max="12278" width="6.109375" style="5" customWidth="1"/>
+    <col min="12279" max="12279" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12280" max="12527" width="8.88671875" style="5"/>
+    <col min="12528" max="12528" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12529" max="12534" width="6.109375" style="5" customWidth="1"/>
+    <col min="12535" max="12535" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12536" max="12783" width="8.88671875" style="5"/>
+    <col min="12784" max="12784" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12785" max="12790" width="6.109375" style="5" customWidth="1"/>
+    <col min="12791" max="12791" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12792" max="13039" width="8.88671875" style="5"/>
+    <col min="13040" max="13040" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13041" max="13046" width="6.109375" style="5" customWidth="1"/>
+    <col min="13047" max="13047" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13048" max="13295" width="8.88671875" style="5"/>
+    <col min="13296" max="13296" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13297" max="13302" width="6.109375" style="5" customWidth="1"/>
+    <col min="13303" max="13303" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13304" max="13551" width="8.88671875" style="5"/>
+    <col min="13552" max="13552" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13553" max="13558" width="6.109375" style="5" customWidth="1"/>
+    <col min="13559" max="13559" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13560" max="13807" width="8.88671875" style="5"/>
+    <col min="13808" max="13808" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13809" max="13814" width="6.109375" style="5" customWidth="1"/>
+    <col min="13815" max="13815" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13816" max="14063" width="8.88671875" style="5"/>
+    <col min="14064" max="14064" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14065" max="14070" width="6.109375" style="5" customWidth="1"/>
+    <col min="14071" max="14071" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14072" max="14319" width="8.88671875" style="5"/>
+    <col min="14320" max="14320" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14321" max="14326" width="6.109375" style="5" customWidth="1"/>
+    <col min="14327" max="14327" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14328" max="14575" width="8.88671875" style="5"/>
+    <col min="14576" max="14576" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14577" max="14582" width="6.109375" style="5" customWidth="1"/>
+    <col min="14583" max="14583" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14584" max="14831" width="8.88671875" style="5"/>
+    <col min="14832" max="14832" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14833" max="14838" width="6.109375" style="5" customWidth="1"/>
+    <col min="14839" max="14839" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14840" max="15087" width="8.88671875" style="5"/>
+    <col min="15088" max="15088" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15089" max="15094" width="6.109375" style="5" customWidth="1"/>
+    <col min="15095" max="15095" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15096" max="15343" width="8.88671875" style="5"/>
+    <col min="15344" max="15344" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15345" max="15350" width="6.109375" style="5" customWidth="1"/>
+    <col min="15351" max="15351" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15352" max="15599" width="8.88671875" style="5"/>
+    <col min="15600" max="15600" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15601" max="15606" width="6.109375" style="5" customWidth="1"/>
+    <col min="15607" max="15607" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15608" max="15855" width="8.88671875" style="5"/>
+    <col min="15856" max="15856" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15857" max="15862" width="6.109375" style="5" customWidth="1"/>
+    <col min="15863" max="15863" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15864" max="16111" width="8.88671875" style="5"/>
+    <col min="16112" max="16112" width="43.88671875" style="5" customWidth="1"/>
+    <col min="16113" max="16118" width="6.109375" style="5" customWidth="1"/>
+    <col min="16119" max="16119" width="7.44140625" style="5" customWidth="1"/>
+    <col min="16120" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="str">
         <f>Total!$H$1</f>
         <v>Week 4</v>
@@ -10846,7 +10838,7 @@
       <c r="G1" s="58"/>
       <c r="H1" s="59"/>
     </row>
-    <row r="3" spans="1:8" ht="22.9">
+    <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v xml:space="preserve">Badr </v>
@@ -10862,7 +10854,7 @@
       <c r="G3" s="56"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -10896,7 +10888,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>112</v>
       </c>
@@ -10913,7 +10905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>113</v>
       </c>
@@ -10932,7 +10924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>114</v>
       </c>
@@ -10951,7 +10943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>115</v>
       </c>
@@ -10968,7 +10960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -10981,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -11015,7 +11007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11025,7 +11017,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.9">
+    <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Frankie</v>
@@ -11041,7 +11033,7 @@
       <c r="G12" s="56"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -11075,7 +11067,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
@@ -11094,7 +11086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>116</v>
       </c>
@@ -11111,7 +11103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>117</v>
       </c>
@@ -11128,7 +11120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>118</v>
       </c>
@@ -11145,7 +11137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>119</v>
       </c>
@@ -11164,7 +11156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -11198,7 +11190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="22.9">
+    <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Desmond</v>
@@ -11214,7 +11206,7 @@
       <c r="G21" s="56"/>
       <c r="H21" s="57"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -11248,7 +11240,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>53</v>
       </c>
@@ -11267,7 +11259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>120</v>
       </c>
@@ -11284,7 +11276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>121</v>
       </c>
@@ -11303,7 +11295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>122</v>
       </c>
@@ -11320,7 +11312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -11333,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -11367,7 +11359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.9">
+    <row r="30" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Georgi</v>
@@ -11383,7 +11375,7 @@
       <c r="G30" s="56"/>
       <c r="H30" s="57"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -11417,7 +11409,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>60</v>
       </c>
@@ -11436,7 +11428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="26.45">
+    <row r="33" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>123</v>
       </c>
@@ -11455,7 +11447,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="26.45">
+    <row r="34" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>124</v>
       </c>
@@ -11472,7 +11464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="26.45">
+    <row r="35" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>125</v>
       </c>
@@ -11489,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="48">
         <v>44978</v>
       </c>
@@ -11504,7 +11496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1">
+    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -11538,7 +11530,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="22.9">
+    <row r="40" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
         <f>Total!D7</f>
         <v>Pablo</v>
@@ -11554,7 +11546,7 @@
       <c r="G40" s="56"/>
       <c r="H40" s="57"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -11588,7 +11580,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>48</v>
       </c>
@@ -11603,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>51</v>
       </c>
@@ -11622,7 +11614,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
         <v>90</v>
       </c>
@@ -11641,7 +11633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>126</v>
       </c>
@@ -11660,7 +11652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -11673,7 +11665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -11707,7 +11699,7 @@
         <v>14.75</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="22.9">
+    <row r="49" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
         <f>Total!D8</f>
         <v>Brice</v>
@@ -11723,7 +11715,7 @@
       <c r="G49" s="56"/>
       <c r="H49" s="57"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -11757,7 +11749,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>127</v>
       </c>
@@ -11774,7 +11766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>128</v>
       </c>
@@ -11795,7 +11787,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>129</v>
       </c>
@@ -11812,7 +11804,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>130</v>
       </c>
@@ -11829,7 +11821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>131</v>
       </c>
@@ -11846,7 +11838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -11903,267 +11895,267 @@
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="89" style="5" customWidth="1"/>
-    <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
-    <col min="9" max="239" width="8.85546875" style="5"/>
-    <col min="240" max="240" width="43.85546875" style="5" customWidth="1"/>
-    <col min="241" max="246" width="6.140625" style="5" customWidth="1"/>
-    <col min="247" max="247" width="7.42578125" style="5" customWidth="1"/>
-    <col min="248" max="495" width="8.85546875" style="5"/>
-    <col min="496" max="496" width="43.85546875" style="5" customWidth="1"/>
-    <col min="497" max="502" width="6.140625" style="5" customWidth="1"/>
-    <col min="503" max="503" width="7.42578125" style="5" customWidth="1"/>
-    <col min="504" max="751" width="8.85546875" style="5"/>
-    <col min="752" max="752" width="43.85546875" style="5" customWidth="1"/>
-    <col min="753" max="758" width="6.140625" style="5" customWidth="1"/>
-    <col min="759" max="759" width="7.42578125" style="5" customWidth="1"/>
-    <col min="760" max="1007" width="8.85546875" style="5"/>
-    <col min="1008" max="1008" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1009" max="1014" width="6.140625" style="5" customWidth="1"/>
-    <col min="1015" max="1015" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1016" max="1263" width="8.85546875" style="5"/>
-    <col min="1264" max="1264" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1265" max="1270" width="6.140625" style="5" customWidth="1"/>
-    <col min="1271" max="1271" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1272" max="1519" width="8.85546875" style="5"/>
-    <col min="1520" max="1520" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1521" max="1526" width="6.140625" style="5" customWidth="1"/>
-    <col min="1527" max="1527" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1528" max="1775" width="8.85546875" style="5"/>
-    <col min="1776" max="1776" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1777" max="1782" width="6.140625" style="5" customWidth="1"/>
-    <col min="1783" max="1783" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1784" max="2031" width="8.85546875" style="5"/>
-    <col min="2032" max="2032" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2033" max="2038" width="6.140625" style="5" customWidth="1"/>
-    <col min="2039" max="2039" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2040" max="2287" width="8.85546875" style="5"/>
-    <col min="2288" max="2288" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2289" max="2294" width="6.140625" style="5" customWidth="1"/>
-    <col min="2295" max="2295" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2296" max="2543" width="8.85546875" style="5"/>
-    <col min="2544" max="2544" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2545" max="2550" width="6.140625" style="5" customWidth="1"/>
-    <col min="2551" max="2551" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2552" max="2799" width="8.85546875" style="5"/>
-    <col min="2800" max="2800" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2801" max="2806" width="6.140625" style="5" customWidth="1"/>
-    <col min="2807" max="2807" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2808" max="3055" width="8.85546875" style="5"/>
-    <col min="3056" max="3056" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3057" max="3062" width="6.140625" style="5" customWidth="1"/>
-    <col min="3063" max="3063" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3064" max="3311" width="8.85546875" style="5"/>
-    <col min="3312" max="3312" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3313" max="3318" width="6.140625" style="5" customWidth="1"/>
-    <col min="3319" max="3319" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3320" max="3567" width="8.85546875" style="5"/>
-    <col min="3568" max="3568" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3569" max="3574" width="6.140625" style="5" customWidth="1"/>
-    <col min="3575" max="3575" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3576" max="3823" width="8.85546875" style="5"/>
-    <col min="3824" max="3824" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3825" max="3830" width="6.140625" style="5" customWidth="1"/>
-    <col min="3831" max="3831" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3832" max="4079" width="8.85546875" style="5"/>
-    <col min="4080" max="4080" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4081" max="4086" width="6.140625" style="5" customWidth="1"/>
-    <col min="4087" max="4087" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4088" max="4335" width="8.85546875" style="5"/>
-    <col min="4336" max="4336" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4337" max="4342" width="6.140625" style="5" customWidth="1"/>
-    <col min="4343" max="4343" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4344" max="4591" width="8.85546875" style="5"/>
-    <col min="4592" max="4592" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4593" max="4598" width="6.140625" style="5" customWidth="1"/>
-    <col min="4599" max="4599" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4600" max="4847" width="8.85546875" style="5"/>
-    <col min="4848" max="4848" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4849" max="4854" width="6.140625" style="5" customWidth="1"/>
-    <col min="4855" max="4855" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4856" max="5103" width="8.85546875" style="5"/>
-    <col min="5104" max="5104" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5105" max="5110" width="6.140625" style="5" customWidth="1"/>
-    <col min="5111" max="5111" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5112" max="5359" width="8.85546875" style="5"/>
-    <col min="5360" max="5360" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5361" max="5366" width="6.140625" style="5" customWidth="1"/>
-    <col min="5367" max="5367" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5368" max="5615" width="8.85546875" style="5"/>
-    <col min="5616" max="5616" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5617" max="5622" width="6.140625" style="5" customWidth="1"/>
-    <col min="5623" max="5623" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5624" max="5871" width="8.85546875" style="5"/>
-    <col min="5872" max="5872" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5873" max="5878" width="6.140625" style="5" customWidth="1"/>
-    <col min="5879" max="5879" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5880" max="6127" width="8.85546875" style="5"/>
-    <col min="6128" max="6128" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6129" max="6134" width="6.140625" style="5" customWidth="1"/>
-    <col min="6135" max="6135" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6136" max="6383" width="8.85546875" style="5"/>
-    <col min="6384" max="6384" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6385" max="6390" width="6.140625" style="5" customWidth="1"/>
-    <col min="6391" max="6391" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6392" max="6639" width="8.85546875" style="5"/>
-    <col min="6640" max="6640" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6641" max="6646" width="6.140625" style="5" customWidth="1"/>
-    <col min="6647" max="6647" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6648" max="6895" width="8.85546875" style="5"/>
-    <col min="6896" max="6896" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6897" max="6902" width="6.140625" style="5" customWidth="1"/>
-    <col min="6903" max="6903" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6904" max="7151" width="8.85546875" style="5"/>
-    <col min="7152" max="7152" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7153" max="7158" width="6.140625" style="5" customWidth="1"/>
-    <col min="7159" max="7159" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7160" max="7407" width="8.85546875" style="5"/>
-    <col min="7408" max="7408" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7409" max="7414" width="6.140625" style="5" customWidth="1"/>
-    <col min="7415" max="7415" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7416" max="7663" width="8.85546875" style="5"/>
-    <col min="7664" max="7664" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7665" max="7670" width="6.140625" style="5" customWidth="1"/>
-    <col min="7671" max="7671" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7672" max="7919" width="8.85546875" style="5"/>
-    <col min="7920" max="7920" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7921" max="7926" width="6.140625" style="5" customWidth="1"/>
-    <col min="7927" max="7927" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7928" max="8175" width="8.85546875" style="5"/>
-    <col min="8176" max="8176" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8177" max="8182" width="6.140625" style="5" customWidth="1"/>
-    <col min="8183" max="8183" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8184" max="8431" width="8.85546875" style="5"/>
-    <col min="8432" max="8432" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8433" max="8438" width="6.140625" style="5" customWidth="1"/>
-    <col min="8439" max="8439" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8440" max="8687" width="8.85546875" style="5"/>
-    <col min="8688" max="8688" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8689" max="8694" width="6.140625" style="5" customWidth="1"/>
-    <col min="8695" max="8695" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8696" max="8943" width="8.85546875" style="5"/>
-    <col min="8944" max="8944" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8945" max="8950" width="6.140625" style="5" customWidth="1"/>
-    <col min="8951" max="8951" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8952" max="9199" width="8.85546875" style="5"/>
-    <col min="9200" max="9200" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9201" max="9206" width="6.140625" style="5" customWidth="1"/>
-    <col min="9207" max="9207" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9208" max="9455" width="8.85546875" style="5"/>
-    <col min="9456" max="9456" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9457" max="9462" width="6.140625" style="5" customWidth="1"/>
-    <col min="9463" max="9463" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9464" max="9711" width="8.85546875" style="5"/>
-    <col min="9712" max="9712" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9713" max="9718" width="6.140625" style="5" customWidth="1"/>
-    <col min="9719" max="9719" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9720" max="9967" width="8.85546875" style="5"/>
-    <col min="9968" max="9968" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9969" max="9974" width="6.140625" style="5" customWidth="1"/>
-    <col min="9975" max="9975" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9976" max="10223" width="8.85546875" style="5"/>
-    <col min="10224" max="10224" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10225" max="10230" width="6.140625" style="5" customWidth="1"/>
-    <col min="10231" max="10231" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10232" max="10479" width="8.85546875" style="5"/>
-    <col min="10480" max="10480" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10481" max="10486" width="6.140625" style="5" customWidth="1"/>
-    <col min="10487" max="10487" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10488" max="10735" width="8.85546875" style="5"/>
-    <col min="10736" max="10736" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10737" max="10742" width="6.140625" style="5" customWidth="1"/>
-    <col min="10743" max="10743" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10744" max="10991" width="8.85546875" style="5"/>
-    <col min="10992" max="10992" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10993" max="10998" width="6.140625" style="5" customWidth="1"/>
-    <col min="10999" max="10999" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11000" max="11247" width="8.85546875" style="5"/>
-    <col min="11248" max="11248" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11249" max="11254" width="6.140625" style="5" customWidth="1"/>
-    <col min="11255" max="11255" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11256" max="11503" width="8.85546875" style="5"/>
-    <col min="11504" max="11504" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11505" max="11510" width="6.140625" style="5" customWidth="1"/>
-    <col min="11511" max="11511" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11512" max="11759" width="8.85546875" style="5"/>
-    <col min="11760" max="11760" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11761" max="11766" width="6.140625" style="5" customWidth="1"/>
-    <col min="11767" max="11767" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11768" max="12015" width="8.85546875" style="5"/>
-    <col min="12016" max="12016" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12017" max="12022" width="6.140625" style="5" customWidth="1"/>
-    <col min="12023" max="12023" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12024" max="12271" width="8.85546875" style="5"/>
-    <col min="12272" max="12272" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12273" max="12278" width="6.140625" style="5" customWidth="1"/>
-    <col min="12279" max="12279" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12280" max="12527" width="8.85546875" style="5"/>
-    <col min="12528" max="12528" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12529" max="12534" width="6.140625" style="5" customWidth="1"/>
-    <col min="12535" max="12535" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12536" max="12783" width="8.85546875" style="5"/>
-    <col min="12784" max="12784" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12785" max="12790" width="6.140625" style="5" customWidth="1"/>
-    <col min="12791" max="12791" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12792" max="13039" width="8.85546875" style="5"/>
-    <col min="13040" max="13040" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13041" max="13046" width="6.140625" style="5" customWidth="1"/>
-    <col min="13047" max="13047" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13048" max="13295" width="8.85546875" style="5"/>
-    <col min="13296" max="13296" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13297" max="13302" width="6.140625" style="5" customWidth="1"/>
-    <col min="13303" max="13303" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13304" max="13551" width="8.85546875" style="5"/>
-    <col min="13552" max="13552" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13553" max="13558" width="6.140625" style="5" customWidth="1"/>
-    <col min="13559" max="13559" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13560" max="13807" width="8.85546875" style="5"/>
-    <col min="13808" max="13808" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13809" max="13814" width="6.140625" style="5" customWidth="1"/>
-    <col min="13815" max="13815" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13816" max="14063" width="8.85546875" style="5"/>
-    <col min="14064" max="14064" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14065" max="14070" width="6.140625" style="5" customWidth="1"/>
-    <col min="14071" max="14071" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14072" max="14319" width="8.85546875" style="5"/>
-    <col min="14320" max="14320" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14321" max="14326" width="6.140625" style="5" customWidth="1"/>
-    <col min="14327" max="14327" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14328" max="14575" width="8.85546875" style="5"/>
-    <col min="14576" max="14576" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14577" max="14582" width="6.140625" style="5" customWidth="1"/>
-    <col min="14583" max="14583" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14584" max="14831" width="8.85546875" style="5"/>
-    <col min="14832" max="14832" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14833" max="14838" width="6.140625" style="5" customWidth="1"/>
-    <col min="14839" max="14839" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14840" max="15087" width="8.85546875" style="5"/>
-    <col min="15088" max="15088" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15089" max="15094" width="6.140625" style="5" customWidth="1"/>
-    <col min="15095" max="15095" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15096" max="15343" width="8.85546875" style="5"/>
-    <col min="15344" max="15344" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15345" max="15350" width="6.140625" style="5" customWidth="1"/>
-    <col min="15351" max="15351" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15352" max="15599" width="8.85546875" style="5"/>
-    <col min="15600" max="15600" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15601" max="15606" width="6.140625" style="5" customWidth="1"/>
-    <col min="15607" max="15607" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15608" max="15855" width="8.85546875" style="5"/>
-    <col min="15856" max="15856" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15857" max="15862" width="6.140625" style="5" customWidth="1"/>
-    <col min="15863" max="15863" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15864" max="16111" width="8.85546875" style="5"/>
-    <col min="16112" max="16112" width="43.85546875" style="5" customWidth="1"/>
-    <col min="16113" max="16118" width="6.140625" style="5" customWidth="1"/>
-    <col min="16119" max="16119" width="7.42578125" style="5" customWidth="1"/>
-    <col min="16120" max="16384" width="8.85546875" style="5"/>
+    <col min="2" max="7" width="7.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="5" customWidth="1"/>
+    <col min="9" max="239" width="8.88671875" style="5"/>
+    <col min="240" max="240" width="43.88671875" style="5" customWidth="1"/>
+    <col min="241" max="246" width="6.109375" style="5" customWidth="1"/>
+    <col min="247" max="247" width="7.44140625" style="5" customWidth="1"/>
+    <col min="248" max="495" width="8.88671875" style="5"/>
+    <col min="496" max="496" width="43.88671875" style="5" customWidth="1"/>
+    <col min="497" max="502" width="6.109375" style="5" customWidth="1"/>
+    <col min="503" max="503" width="7.44140625" style="5" customWidth="1"/>
+    <col min="504" max="751" width="8.88671875" style="5"/>
+    <col min="752" max="752" width="43.88671875" style="5" customWidth="1"/>
+    <col min="753" max="758" width="6.109375" style="5" customWidth="1"/>
+    <col min="759" max="759" width="7.44140625" style="5" customWidth="1"/>
+    <col min="760" max="1007" width="8.88671875" style="5"/>
+    <col min="1008" max="1008" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1009" max="1014" width="6.109375" style="5" customWidth="1"/>
+    <col min="1015" max="1015" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1016" max="1263" width="8.88671875" style="5"/>
+    <col min="1264" max="1264" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1265" max="1270" width="6.109375" style="5" customWidth="1"/>
+    <col min="1271" max="1271" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1272" max="1519" width="8.88671875" style="5"/>
+    <col min="1520" max="1520" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1521" max="1526" width="6.109375" style="5" customWidth="1"/>
+    <col min="1527" max="1527" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1528" max="1775" width="8.88671875" style="5"/>
+    <col min="1776" max="1776" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1777" max="1782" width="6.109375" style="5" customWidth="1"/>
+    <col min="1783" max="1783" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1784" max="2031" width="8.88671875" style="5"/>
+    <col min="2032" max="2032" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2033" max="2038" width="6.109375" style="5" customWidth="1"/>
+    <col min="2039" max="2039" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2040" max="2287" width="8.88671875" style="5"/>
+    <col min="2288" max="2288" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2289" max="2294" width="6.109375" style="5" customWidth="1"/>
+    <col min="2295" max="2295" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2296" max="2543" width="8.88671875" style="5"/>
+    <col min="2544" max="2544" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2545" max="2550" width="6.109375" style="5" customWidth="1"/>
+    <col min="2551" max="2551" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2552" max="2799" width="8.88671875" style="5"/>
+    <col min="2800" max="2800" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2801" max="2806" width="6.109375" style="5" customWidth="1"/>
+    <col min="2807" max="2807" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2808" max="3055" width="8.88671875" style="5"/>
+    <col min="3056" max="3056" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3057" max="3062" width="6.109375" style="5" customWidth="1"/>
+    <col min="3063" max="3063" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3064" max="3311" width="8.88671875" style="5"/>
+    <col min="3312" max="3312" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3313" max="3318" width="6.109375" style="5" customWidth="1"/>
+    <col min="3319" max="3319" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3320" max="3567" width="8.88671875" style="5"/>
+    <col min="3568" max="3568" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3569" max="3574" width="6.109375" style="5" customWidth="1"/>
+    <col min="3575" max="3575" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3576" max="3823" width="8.88671875" style="5"/>
+    <col min="3824" max="3824" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3825" max="3830" width="6.109375" style="5" customWidth="1"/>
+    <col min="3831" max="3831" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3832" max="4079" width="8.88671875" style="5"/>
+    <col min="4080" max="4080" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4081" max="4086" width="6.109375" style="5" customWidth="1"/>
+    <col min="4087" max="4087" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4088" max="4335" width="8.88671875" style="5"/>
+    <col min="4336" max="4336" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4337" max="4342" width="6.109375" style="5" customWidth="1"/>
+    <col min="4343" max="4343" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4344" max="4591" width="8.88671875" style="5"/>
+    <col min="4592" max="4592" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4593" max="4598" width="6.109375" style="5" customWidth="1"/>
+    <col min="4599" max="4599" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4600" max="4847" width="8.88671875" style="5"/>
+    <col min="4848" max="4848" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4849" max="4854" width="6.109375" style="5" customWidth="1"/>
+    <col min="4855" max="4855" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4856" max="5103" width="8.88671875" style="5"/>
+    <col min="5104" max="5104" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5105" max="5110" width="6.109375" style="5" customWidth="1"/>
+    <col min="5111" max="5111" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5112" max="5359" width="8.88671875" style="5"/>
+    <col min="5360" max="5360" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5361" max="5366" width="6.109375" style="5" customWidth="1"/>
+    <col min="5367" max="5367" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5368" max="5615" width="8.88671875" style="5"/>
+    <col min="5616" max="5616" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5617" max="5622" width="6.109375" style="5" customWidth="1"/>
+    <col min="5623" max="5623" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5624" max="5871" width="8.88671875" style="5"/>
+    <col min="5872" max="5872" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5873" max="5878" width="6.109375" style="5" customWidth="1"/>
+    <col min="5879" max="5879" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5880" max="6127" width="8.88671875" style="5"/>
+    <col min="6128" max="6128" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6129" max="6134" width="6.109375" style="5" customWidth="1"/>
+    <col min="6135" max="6135" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6136" max="6383" width="8.88671875" style="5"/>
+    <col min="6384" max="6384" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6385" max="6390" width="6.109375" style="5" customWidth="1"/>
+    <col min="6391" max="6391" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6392" max="6639" width="8.88671875" style="5"/>
+    <col min="6640" max="6640" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6641" max="6646" width="6.109375" style="5" customWidth="1"/>
+    <col min="6647" max="6647" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6648" max="6895" width="8.88671875" style="5"/>
+    <col min="6896" max="6896" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6897" max="6902" width="6.109375" style="5" customWidth="1"/>
+    <col min="6903" max="6903" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6904" max="7151" width="8.88671875" style="5"/>
+    <col min="7152" max="7152" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7153" max="7158" width="6.109375" style="5" customWidth="1"/>
+    <col min="7159" max="7159" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7160" max="7407" width="8.88671875" style="5"/>
+    <col min="7408" max="7408" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7409" max="7414" width="6.109375" style="5" customWidth="1"/>
+    <col min="7415" max="7415" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7416" max="7663" width="8.88671875" style="5"/>
+    <col min="7664" max="7664" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7665" max="7670" width="6.109375" style="5" customWidth="1"/>
+    <col min="7671" max="7671" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7672" max="7919" width="8.88671875" style="5"/>
+    <col min="7920" max="7920" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7921" max="7926" width="6.109375" style="5" customWidth="1"/>
+    <col min="7927" max="7927" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7928" max="8175" width="8.88671875" style="5"/>
+    <col min="8176" max="8176" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8177" max="8182" width="6.109375" style="5" customWidth="1"/>
+    <col min="8183" max="8183" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8184" max="8431" width="8.88671875" style="5"/>
+    <col min="8432" max="8432" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8433" max="8438" width="6.109375" style="5" customWidth="1"/>
+    <col min="8439" max="8439" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8440" max="8687" width="8.88671875" style="5"/>
+    <col min="8688" max="8688" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8689" max="8694" width="6.109375" style="5" customWidth="1"/>
+    <col min="8695" max="8695" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8696" max="8943" width="8.88671875" style="5"/>
+    <col min="8944" max="8944" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8945" max="8950" width="6.109375" style="5" customWidth="1"/>
+    <col min="8951" max="8951" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8952" max="9199" width="8.88671875" style="5"/>
+    <col min="9200" max="9200" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9201" max="9206" width="6.109375" style="5" customWidth="1"/>
+    <col min="9207" max="9207" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9208" max="9455" width="8.88671875" style="5"/>
+    <col min="9456" max="9456" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9457" max="9462" width="6.109375" style="5" customWidth="1"/>
+    <col min="9463" max="9463" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9464" max="9711" width="8.88671875" style="5"/>
+    <col min="9712" max="9712" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9713" max="9718" width="6.109375" style="5" customWidth="1"/>
+    <col min="9719" max="9719" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9720" max="9967" width="8.88671875" style="5"/>
+    <col min="9968" max="9968" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9969" max="9974" width="6.109375" style="5" customWidth="1"/>
+    <col min="9975" max="9975" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9976" max="10223" width="8.88671875" style="5"/>
+    <col min="10224" max="10224" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10225" max="10230" width="6.109375" style="5" customWidth="1"/>
+    <col min="10231" max="10231" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10232" max="10479" width="8.88671875" style="5"/>
+    <col min="10480" max="10480" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10481" max="10486" width="6.109375" style="5" customWidth="1"/>
+    <col min="10487" max="10487" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10488" max="10735" width="8.88671875" style="5"/>
+    <col min="10736" max="10736" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10737" max="10742" width="6.109375" style="5" customWidth="1"/>
+    <col min="10743" max="10743" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10744" max="10991" width="8.88671875" style="5"/>
+    <col min="10992" max="10992" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10993" max="10998" width="6.109375" style="5" customWidth="1"/>
+    <col min="10999" max="10999" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11000" max="11247" width="8.88671875" style="5"/>
+    <col min="11248" max="11248" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11249" max="11254" width="6.109375" style="5" customWidth="1"/>
+    <col min="11255" max="11255" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11256" max="11503" width="8.88671875" style="5"/>
+    <col min="11504" max="11504" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11505" max="11510" width="6.109375" style="5" customWidth="1"/>
+    <col min="11511" max="11511" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11512" max="11759" width="8.88671875" style="5"/>
+    <col min="11760" max="11760" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11761" max="11766" width="6.109375" style="5" customWidth="1"/>
+    <col min="11767" max="11767" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11768" max="12015" width="8.88671875" style="5"/>
+    <col min="12016" max="12016" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12017" max="12022" width="6.109375" style="5" customWidth="1"/>
+    <col min="12023" max="12023" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12024" max="12271" width="8.88671875" style="5"/>
+    <col min="12272" max="12272" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12273" max="12278" width="6.109375" style="5" customWidth="1"/>
+    <col min="12279" max="12279" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12280" max="12527" width="8.88671875" style="5"/>
+    <col min="12528" max="12528" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12529" max="12534" width="6.109375" style="5" customWidth="1"/>
+    <col min="12535" max="12535" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12536" max="12783" width="8.88671875" style="5"/>
+    <col min="12784" max="12784" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12785" max="12790" width="6.109375" style="5" customWidth="1"/>
+    <col min="12791" max="12791" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12792" max="13039" width="8.88671875" style="5"/>
+    <col min="13040" max="13040" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13041" max="13046" width="6.109375" style="5" customWidth="1"/>
+    <col min="13047" max="13047" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13048" max="13295" width="8.88671875" style="5"/>
+    <col min="13296" max="13296" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13297" max="13302" width="6.109375" style="5" customWidth="1"/>
+    <col min="13303" max="13303" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13304" max="13551" width="8.88671875" style="5"/>
+    <col min="13552" max="13552" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13553" max="13558" width="6.109375" style="5" customWidth="1"/>
+    <col min="13559" max="13559" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13560" max="13807" width="8.88671875" style="5"/>
+    <col min="13808" max="13808" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13809" max="13814" width="6.109375" style="5" customWidth="1"/>
+    <col min="13815" max="13815" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13816" max="14063" width="8.88671875" style="5"/>
+    <col min="14064" max="14064" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14065" max="14070" width="6.109375" style="5" customWidth="1"/>
+    <col min="14071" max="14071" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14072" max="14319" width="8.88671875" style="5"/>
+    <col min="14320" max="14320" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14321" max="14326" width="6.109375" style="5" customWidth="1"/>
+    <col min="14327" max="14327" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14328" max="14575" width="8.88671875" style="5"/>
+    <col min="14576" max="14576" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14577" max="14582" width="6.109375" style="5" customWidth="1"/>
+    <col min="14583" max="14583" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14584" max="14831" width="8.88671875" style="5"/>
+    <col min="14832" max="14832" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14833" max="14838" width="6.109375" style="5" customWidth="1"/>
+    <col min="14839" max="14839" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14840" max="15087" width="8.88671875" style="5"/>
+    <col min="15088" max="15088" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15089" max="15094" width="6.109375" style="5" customWidth="1"/>
+    <col min="15095" max="15095" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15096" max="15343" width="8.88671875" style="5"/>
+    <col min="15344" max="15344" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15345" max="15350" width="6.109375" style="5" customWidth="1"/>
+    <col min="15351" max="15351" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15352" max="15599" width="8.88671875" style="5"/>
+    <col min="15600" max="15600" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15601" max="15606" width="6.109375" style="5" customWidth="1"/>
+    <col min="15607" max="15607" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15608" max="15855" width="8.88671875" style="5"/>
+    <col min="15856" max="15856" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15857" max="15862" width="6.109375" style="5" customWidth="1"/>
+    <col min="15863" max="15863" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15864" max="16111" width="8.88671875" style="5"/>
+    <col min="16112" max="16112" width="43.88671875" style="5" customWidth="1"/>
+    <col min="16113" max="16118" width="6.109375" style="5" customWidth="1"/>
+    <col min="16119" max="16119" width="7.44140625" style="5" customWidth="1"/>
+    <col min="16120" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="str">
         <f>Total!$I$1</f>
         <v>Week 5</v>
@@ -12179,7 +12171,7 @@
       <c r="G1" s="58"/>
       <c r="H1" s="59"/>
     </row>
-    <row r="3" spans="1:8" ht="22.9">
+    <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v xml:space="preserve">Badr </v>
@@ -12194,7 +12186,7 @@
       <c r="G3" s="56"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -12228,7 +12220,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>60</v>
       </c>
@@ -12247,7 +12239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>133</v>
       </c>
@@ -12264,7 +12256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>134</v>
       </c>
@@ -12283,7 +12275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>135</v>
       </c>
@@ -12300,7 +12292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -12313,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -12347,7 +12339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -12357,7 +12349,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.9">
+    <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Frankie</v>
@@ -12373,7 +12365,7 @@
       <c r="G12" s="56"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -12407,7 +12399,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
@@ -12426,7 +12418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>136</v>
       </c>
@@ -12445,7 +12437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>137</v>
       </c>
@@ -12464,7 +12456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>138</v>
       </c>
@@ -12481,7 +12473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -12494,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -12528,7 +12520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="22.9">
+    <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Desmond</v>
@@ -12544,7 +12536,7 @@
       <c r="G21" s="56"/>
       <c r="H21" s="57"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -12578,7 +12570,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>53</v>
       </c>
@@ -12595,7 +12587,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>139</v>
       </c>
@@ -12614,7 +12606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>140</v>
       </c>
@@ -12631,7 +12623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>141</v>
       </c>
@@ -12648,7 +12640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>142</v>
       </c>
@@ -12665,7 +12657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -12699,7 +12691,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.9">
+    <row r="30" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Georgi</v>
@@ -12715,7 +12707,7 @@
       <c r="G30" s="56"/>
       <c r="H30" s="57"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -12749,7 +12741,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>143</v>
       </c>
@@ -12768,7 +12760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.45">
+    <row r="33" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>144</v>
       </c>
@@ -12785,7 +12777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.45">
+    <row r="34" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>145</v>
       </c>
@@ -12802,7 +12794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>146</v>
       </c>
@@ -12819,7 +12811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>147</v>
       </c>
@@ -12836,7 +12828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1">
+    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -12870,7 +12862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="22.9">
+    <row r="40" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
         <f>Total!D7</f>
         <v>Pablo</v>
@@ -12886,7 +12878,7 @@
       <c r="G40" s="56"/>
       <c r="H40" s="57"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -12920,7 +12912,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>48</v>
       </c>
@@ -12935,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>148</v>
       </c>
@@ -12954,7 +12946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>143</v>
       </c>
@@ -12973,7 +12965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>149</v>
       </c>
@@ -12992,7 +12984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -13005,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -13039,7 +13031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="22.9">
+    <row r="49" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
         <f>Total!D8</f>
         <v>Brice</v>
@@ -13055,7 +13047,7 @@
       <c r="G49" s="56"/>
       <c r="H49" s="57"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -13089,7 +13081,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>48</v>
       </c>
@@ -13104,7 +13096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>53</v>
       </c>
@@ -13123,7 +13115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>150</v>
       </c>
@@ -13144,7 +13136,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -13157,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -13170,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -13227,267 +13219,267 @@
       <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.5703125" style="5" customWidth="1"/>
-    <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
-    <col min="9" max="239" width="8.85546875" style="5"/>
-    <col min="240" max="240" width="43.85546875" style="5" customWidth="1"/>
-    <col min="241" max="246" width="6.140625" style="5" customWidth="1"/>
-    <col min="247" max="247" width="7.42578125" style="5" customWidth="1"/>
-    <col min="248" max="495" width="8.85546875" style="5"/>
-    <col min="496" max="496" width="43.85546875" style="5" customWidth="1"/>
-    <col min="497" max="502" width="6.140625" style="5" customWidth="1"/>
-    <col min="503" max="503" width="7.42578125" style="5" customWidth="1"/>
-    <col min="504" max="751" width="8.85546875" style="5"/>
-    <col min="752" max="752" width="43.85546875" style="5" customWidth="1"/>
-    <col min="753" max="758" width="6.140625" style="5" customWidth="1"/>
-    <col min="759" max="759" width="7.42578125" style="5" customWidth="1"/>
-    <col min="760" max="1007" width="8.85546875" style="5"/>
-    <col min="1008" max="1008" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1009" max="1014" width="6.140625" style="5" customWidth="1"/>
-    <col min="1015" max="1015" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1016" max="1263" width="8.85546875" style="5"/>
-    <col min="1264" max="1264" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1265" max="1270" width="6.140625" style="5" customWidth="1"/>
-    <col min="1271" max="1271" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1272" max="1519" width="8.85546875" style="5"/>
-    <col min="1520" max="1520" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1521" max="1526" width="6.140625" style="5" customWidth="1"/>
-    <col min="1527" max="1527" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1528" max="1775" width="8.85546875" style="5"/>
-    <col min="1776" max="1776" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1777" max="1782" width="6.140625" style="5" customWidth="1"/>
-    <col min="1783" max="1783" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1784" max="2031" width="8.85546875" style="5"/>
-    <col min="2032" max="2032" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2033" max="2038" width="6.140625" style="5" customWidth="1"/>
-    <col min="2039" max="2039" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2040" max="2287" width="8.85546875" style="5"/>
-    <col min="2288" max="2288" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2289" max="2294" width="6.140625" style="5" customWidth="1"/>
-    <col min="2295" max="2295" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2296" max="2543" width="8.85546875" style="5"/>
-    <col min="2544" max="2544" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2545" max="2550" width="6.140625" style="5" customWidth="1"/>
-    <col min="2551" max="2551" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2552" max="2799" width="8.85546875" style="5"/>
-    <col min="2800" max="2800" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2801" max="2806" width="6.140625" style="5" customWidth="1"/>
-    <col min="2807" max="2807" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2808" max="3055" width="8.85546875" style="5"/>
-    <col min="3056" max="3056" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3057" max="3062" width="6.140625" style="5" customWidth="1"/>
-    <col min="3063" max="3063" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3064" max="3311" width="8.85546875" style="5"/>
-    <col min="3312" max="3312" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3313" max="3318" width="6.140625" style="5" customWidth="1"/>
-    <col min="3319" max="3319" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3320" max="3567" width="8.85546875" style="5"/>
-    <col min="3568" max="3568" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3569" max="3574" width="6.140625" style="5" customWidth="1"/>
-    <col min="3575" max="3575" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3576" max="3823" width="8.85546875" style="5"/>
-    <col min="3824" max="3824" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3825" max="3830" width="6.140625" style="5" customWidth="1"/>
-    <col min="3831" max="3831" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3832" max="4079" width="8.85546875" style="5"/>
-    <col min="4080" max="4080" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4081" max="4086" width="6.140625" style="5" customWidth="1"/>
-    <col min="4087" max="4087" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4088" max="4335" width="8.85546875" style="5"/>
-    <col min="4336" max="4336" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4337" max="4342" width="6.140625" style="5" customWidth="1"/>
-    <col min="4343" max="4343" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4344" max="4591" width="8.85546875" style="5"/>
-    <col min="4592" max="4592" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4593" max="4598" width="6.140625" style="5" customWidth="1"/>
-    <col min="4599" max="4599" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4600" max="4847" width="8.85546875" style="5"/>
-    <col min="4848" max="4848" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4849" max="4854" width="6.140625" style="5" customWidth="1"/>
-    <col min="4855" max="4855" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4856" max="5103" width="8.85546875" style="5"/>
-    <col min="5104" max="5104" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5105" max="5110" width="6.140625" style="5" customWidth="1"/>
-    <col min="5111" max="5111" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5112" max="5359" width="8.85546875" style="5"/>
-    <col min="5360" max="5360" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5361" max="5366" width="6.140625" style="5" customWidth="1"/>
-    <col min="5367" max="5367" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5368" max="5615" width="8.85546875" style="5"/>
-    <col min="5616" max="5616" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5617" max="5622" width="6.140625" style="5" customWidth="1"/>
-    <col min="5623" max="5623" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5624" max="5871" width="8.85546875" style="5"/>
-    <col min="5872" max="5872" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5873" max="5878" width="6.140625" style="5" customWidth="1"/>
-    <col min="5879" max="5879" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5880" max="6127" width="8.85546875" style="5"/>
-    <col min="6128" max="6128" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6129" max="6134" width="6.140625" style="5" customWidth="1"/>
-    <col min="6135" max="6135" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6136" max="6383" width="8.85546875" style="5"/>
-    <col min="6384" max="6384" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6385" max="6390" width="6.140625" style="5" customWidth="1"/>
-    <col min="6391" max="6391" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6392" max="6639" width="8.85546875" style="5"/>
-    <col min="6640" max="6640" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6641" max="6646" width="6.140625" style="5" customWidth="1"/>
-    <col min="6647" max="6647" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6648" max="6895" width="8.85546875" style="5"/>
-    <col min="6896" max="6896" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6897" max="6902" width="6.140625" style="5" customWidth="1"/>
-    <col min="6903" max="6903" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6904" max="7151" width="8.85546875" style="5"/>
-    <col min="7152" max="7152" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7153" max="7158" width="6.140625" style="5" customWidth="1"/>
-    <col min="7159" max="7159" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7160" max="7407" width="8.85546875" style="5"/>
-    <col min="7408" max="7408" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7409" max="7414" width="6.140625" style="5" customWidth="1"/>
-    <col min="7415" max="7415" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7416" max="7663" width="8.85546875" style="5"/>
-    <col min="7664" max="7664" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7665" max="7670" width="6.140625" style="5" customWidth="1"/>
-    <col min="7671" max="7671" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7672" max="7919" width="8.85546875" style="5"/>
-    <col min="7920" max="7920" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7921" max="7926" width="6.140625" style="5" customWidth="1"/>
-    <col min="7927" max="7927" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7928" max="8175" width="8.85546875" style="5"/>
-    <col min="8176" max="8176" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8177" max="8182" width="6.140625" style="5" customWidth="1"/>
-    <col min="8183" max="8183" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8184" max="8431" width="8.85546875" style="5"/>
-    <col min="8432" max="8432" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8433" max="8438" width="6.140625" style="5" customWidth="1"/>
-    <col min="8439" max="8439" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8440" max="8687" width="8.85546875" style="5"/>
-    <col min="8688" max="8688" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8689" max="8694" width="6.140625" style="5" customWidth="1"/>
-    <col min="8695" max="8695" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8696" max="8943" width="8.85546875" style="5"/>
-    <col min="8944" max="8944" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8945" max="8950" width="6.140625" style="5" customWidth="1"/>
-    <col min="8951" max="8951" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8952" max="9199" width="8.85546875" style="5"/>
-    <col min="9200" max="9200" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9201" max="9206" width="6.140625" style="5" customWidth="1"/>
-    <col min="9207" max="9207" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9208" max="9455" width="8.85546875" style="5"/>
-    <col min="9456" max="9456" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9457" max="9462" width="6.140625" style="5" customWidth="1"/>
-    <col min="9463" max="9463" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9464" max="9711" width="8.85546875" style="5"/>
-    <col min="9712" max="9712" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9713" max="9718" width="6.140625" style="5" customWidth="1"/>
-    <col min="9719" max="9719" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9720" max="9967" width="8.85546875" style="5"/>
-    <col min="9968" max="9968" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9969" max="9974" width="6.140625" style="5" customWidth="1"/>
-    <col min="9975" max="9975" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9976" max="10223" width="8.85546875" style="5"/>
-    <col min="10224" max="10224" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10225" max="10230" width="6.140625" style="5" customWidth="1"/>
-    <col min="10231" max="10231" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10232" max="10479" width="8.85546875" style="5"/>
-    <col min="10480" max="10480" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10481" max="10486" width="6.140625" style="5" customWidth="1"/>
-    <col min="10487" max="10487" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10488" max="10735" width="8.85546875" style="5"/>
-    <col min="10736" max="10736" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10737" max="10742" width="6.140625" style="5" customWidth="1"/>
-    <col min="10743" max="10743" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10744" max="10991" width="8.85546875" style="5"/>
-    <col min="10992" max="10992" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10993" max="10998" width="6.140625" style="5" customWidth="1"/>
-    <col min="10999" max="10999" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11000" max="11247" width="8.85546875" style="5"/>
-    <col min="11248" max="11248" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11249" max="11254" width="6.140625" style="5" customWidth="1"/>
-    <col min="11255" max="11255" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11256" max="11503" width="8.85546875" style="5"/>
-    <col min="11504" max="11504" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11505" max="11510" width="6.140625" style="5" customWidth="1"/>
-    <col min="11511" max="11511" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11512" max="11759" width="8.85546875" style="5"/>
-    <col min="11760" max="11760" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11761" max="11766" width="6.140625" style="5" customWidth="1"/>
-    <col min="11767" max="11767" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11768" max="12015" width="8.85546875" style="5"/>
-    <col min="12016" max="12016" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12017" max="12022" width="6.140625" style="5" customWidth="1"/>
-    <col min="12023" max="12023" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12024" max="12271" width="8.85546875" style="5"/>
-    <col min="12272" max="12272" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12273" max="12278" width="6.140625" style="5" customWidth="1"/>
-    <col min="12279" max="12279" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12280" max="12527" width="8.85546875" style="5"/>
-    <col min="12528" max="12528" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12529" max="12534" width="6.140625" style="5" customWidth="1"/>
-    <col min="12535" max="12535" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12536" max="12783" width="8.85546875" style="5"/>
-    <col min="12784" max="12784" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12785" max="12790" width="6.140625" style="5" customWidth="1"/>
-    <col min="12791" max="12791" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12792" max="13039" width="8.85546875" style="5"/>
-    <col min="13040" max="13040" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13041" max="13046" width="6.140625" style="5" customWidth="1"/>
-    <col min="13047" max="13047" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13048" max="13295" width="8.85546875" style="5"/>
-    <col min="13296" max="13296" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13297" max="13302" width="6.140625" style="5" customWidth="1"/>
-    <col min="13303" max="13303" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13304" max="13551" width="8.85546875" style="5"/>
-    <col min="13552" max="13552" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13553" max="13558" width="6.140625" style="5" customWidth="1"/>
-    <col min="13559" max="13559" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13560" max="13807" width="8.85546875" style="5"/>
-    <col min="13808" max="13808" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13809" max="13814" width="6.140625" style="5" customWidth="1"/>
-    <col min="13815" max="13815" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13816" max="14063" width="8.85546875" style="5"/>
-    <col min="14064" max="14064" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14065" max="14070" width="6.140625" style="5" customWidth="1"/>
-    <col min="14071" max="14071" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14072" max="14319" width="8.85546875" style="5"/>
-    <col min="14320" max="14320" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14321" max="14326" width="6.140625" style="5" customWidth="1"/>
-    <col min="14327" max="14327" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14328" max="14575" width="8.85546875" style="5"/>
-    <col min="14576" max="14576" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14577" max="14582" width="6.140625" style="5" customWidth="1"/>
-    <col min="14583" max="14583" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14584" max="14831" width="8.85546875" style="5"/>
-    <col min="14832" max="14832" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14833" max="14838" width="6.140625" style="5" customWidth="1"/>
-    <col min="14839" max="14839" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14840" max="15087" width="8.85546875" style="5"/>
-    <col min="15088" max="15088" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15089" max="15094" width="6.140625" style="5" customWidth="1"/>
-    <col min="15095" max="15095" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15096" max="15343" width="8.85546875" style="5"/>
-    <col min="15344" max="15344" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15345" max="15350" width="6.140625" style="5" customWidth="1"/>
-    <col min="15351" max="15351" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15352" max="15599" width="8.85546875" style="5"/>
-    <col min="15600" max="15600" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15601" max="15606" width="6.140625" style="5" customWidth="1"/>
-    <col min="15607" max="15607" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15608" max="15855" width="8.85546875" style="5"/>
-    <col min="15856" max="15856" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15857" max="15862" width="6.140625" style="5" customWidth="1"/>
-    <col min="15863" max="15863" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15864" max="16111" width="8.85546875" style="5"/>
-    <col min="16112" max="16112" width="43.85546875" style="5" customWidth="1"/>
-    <col min="16113" max="16118" width="6.140625" style="5" customWidth="1"/>
-    <col min="16119" max="16119" width="7.42578125" style="5" customWidth="1"/>
-    <col min="16120" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="84.5546875" style="5" customWidth="1"/>
+    <col min="2" max="7" width="7.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="5" customWidth="1"/>
+    <col min="9" max="239" width="8.88671875" style="5"/>
+    <col min="240" max="240" width="43.88671875" style="5" customWidth="1"/>
+    <col min="241" max="246" width="6.109375" style="5" customWidth="1"/>
+    <col min="247" max="247" width="7.44140625" style="5" customWidth="1"/>
+    <col min="248" max="495" width="8.88671875" style="5"/>
+    <col min="496" max="496" width="43.88671875" style="5" customWidth="1"/>
+    <col min="497" max="502" width="6.109375" style="5" customWidth="1"/>
+    <col min="503" max="503" width="7.44140625" style="5" customWidth="1"/>
+    <col min="504" max="751" width="8.88671875" style="5"/>
+    <col min="752" max="752" width="43.88671875" style="5" customWidth="1"/>
+    <col min="753" max="758" width="6.109375" style="5" customWidth="1"/>
+    <col min="759" max="759" width="7.44140625" style="5" customWidth="1"/>
+    <col min="760" max="1007" width="8.88671875" style="5"/>
+    <col min="1008" max="1008" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1009" max="1014" width="6.109375" style="5" customWidth="1"/>
+    <col min="1015" max="1015" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1016" max="1263" width="8.88671875" style="5"/>
+    <col min="1264" max="1264" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1265" max="1270" width="6.109375" style="5" customWidth="1"/>
+    <col min="1271" max="1271" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1272" max="1519" width="8.88671875" style="5"/>
+    <col min="1520" max="1520" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1521" max="1526" width="6.109375" style="5" customWidth="1"/>
+    <col min="1527" max="1527" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1528" max="1775" width="8.88671875" style="5"/>
+    <col min="1776" max="1776" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1777" max="1782" width="6.109375" style="5" customWidth="1"/>
+    <col min="1783" max="1783" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1784" max="2031" width="8.88671875" style="5"/>
+    <col min="2032" max="2032" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2033" max="2038" width="6.109375" style="5" customWidth="1"/>
+    <col min="2039" max="2039" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2040" max="2287" width="8.88671875" style="5"/>
+    <col min="2288" max="2288" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2289" max="2294" width="6.109375" style="5" customWidth="1"/>
+    <col min="2295" max="2295" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2296" max="2543" width="8.88671875" style="5"/>
+    <col min="2544" max="2544" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2545" max="2550" width="6.109375" style="5" customWidth="1"/>
+    <col min="2551" max="2551" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2552" max="2799" width="8.88671875" style="5"/>
+    <col min="2800" max="2800" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2801" max="2806" width="6.109375" style="5" customWidth="1"/>
+    <col min="2807" max="2807" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2808" max="3055" width="8.88671875" style="5"/>
+    <col min="3056" max="3056" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3057" max="3062" width="6.109375" style="5" customWidth="1"/>
+    <col min="3063" max="3063" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3064" max="3311" width="8.88671875" style="5"/>
+    <col min="3312" max="3312" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3313" max="3318" width="6.109375" style="5" customWidth="1"/>
+    <col min="3319" max="3319" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3320" max="3567" width="8.88671875" style="5"/>
+    <col min="3568" max="3568" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3569" max="3574" width="6.109375" style="5" customWidth="1"/>
+    <col min="3575" max="3575" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3576" max="3823" width="8.88671875" style="5"/>
+    <col min="3824" max="3824" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3825" max="3830" width="6.109375" style="5" customWidth="1"/>
+    <col min="3831" max="3831" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3832" max="4079" width="8.88671875" style="5"/>
+    <col min="4080" max="4080" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4081" max="4086" width="6.109375" style="5" customWidth="1"/>
+    <col min="4087" max="4087" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4088" max="4335" width="8.88671875" style="5"/>
+    <col min="4336" max="4336" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4337" max="4342" width="6.109375" style="5" customWidth="1"/>
+    <col min="4343" max="4343" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4344" max="4591" width="8.88671875" style="5"/>
+    <col min="4592" max="4592" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4593" max="4598" width="6.109375" style="5" customWidth="1"/>
+    <col min="4599" max="4599" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4600" max="4847" width="8.88671875" style="5"/>
+    <col min="4848" max="4848" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4849" max="4854" width="6.109375" style="5" customWidth="1"/>
+    <col min="4855" max="4855" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4856" max="5103" width="8.88671875" style="5"/>
+    <col min="5104" max="5104" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5105" max="5110" width="6.109375" style="5" customWidth="1"/>
+    <col min="5111" max="5111" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5112" max="5359" width="8.88671875" style="5"/>
+    <col min="5360" max="5360" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5361" max="5366" width="6.109375" style="5" customWidth="1"/>
+    <col min="5367" max="5367" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5368" max="5615" width="8.88671875" style="5"/>
+    <col min="5616" max="5616" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5617" max="5622" width="6.109375" style="5" customWidth="1"/>
+    <col min="5623" max="5623" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5624" max="5871" width="8.88671875" style="5"/>
+    <col min="5872" max="5872" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5873" max="5878" width="6.109375" style="5" customWidth="1"/>
+    <col min="5879" max="5879" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5880" max="6127" width="8.88671875" style="5"/>
+    <col min="6128" max="6128" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6129" max="6134" width="6.109375" style="5" customWidth="1"/>
+    <col min="6135" max="6135" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6136" max="6383" width="8.88671875" style="5"/>
+    <col min="6384" max="6384" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6385" max="6390" width="6.109375" style="5" customWidth="1"/>
+    <col min="6391" max="6391" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6392" max="6639" width="8.88671875" style="5"/>
+    <col min="6640" max="6640" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6641" max="6646" width="6.109375" style="5" customWidth="1"/>
+    <col min="6647" max="6647" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6648" max="6895" width="8.88671875" style="5"/>
+    <col min="6896" max="6896" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6897" max="6902" width="6.109375" style="5" customWidth="1"/>
+    <col min="6903" max="6903" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6904" max="7151" width="8.88671875" style="5"/>
+    <col min="7152" max="7152" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7153" max="7158" width="6.109375" style="5" customWidth="1"/>
+    <col min="7159" max="7159" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7160" max="7407" width="8.88671875" style="5"/>
+    <col min="7408" max="7408" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7409" max="7414" width="6.109375" style="5" customWidth="1"/>
+    <col min="7415" max="7415" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7416" max="7663" width="8.88671875" style="5"/>
+    <col min="7664" max="7664" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7665" max="7670" width="6.109375" style="5" customWidth="1"/>
+    <col min="7671" max="7671" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7672" max="7919" width="8.88671875" style="5"/>
+    <col min="7920" max="7920" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7921" max="7926" width="6.109375" style="5" customWidth="1"/>
+    <col min="7927" max="7927" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7928" max="8175" width="8.88671875" style="5"/>
+    <col min="8176" max="8176" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8177" max="8182" width="6.109375" style="5" customWidth="1"/>
+    <col min="8183" max="8183" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8184" max="8431" width="8.88671875" style="5"/>
+    <col min="8432" max="8432" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8433" max="8438" width="6.109375" style="5" customWidth="1"/>
+    <col min="8439" max="8439" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8440" max="8687" width="8.88671875" style="5"/>
+    <col min="8688" max="8688" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8689" max="8694" width="6.109375" style="5" customWidth="1"/>
+    <col min="8695" max="8695" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8696" max="8943" width="8.88671875" style="5"/>
+    <col min="8944" max="8944" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8945" max="8950" width="6.109375" style="5" customWidth="1"/>
+    <col min="8951" max="8951" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8952" max="9199" width="8.88671875" style="5"/>
+    <col min="9200" max="9200" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9201" max="9206" width="6.109375" style="5" customWidth="1"/>
+    <col min="9207" max="9207" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9208" max="9455" width="8.88671875" style="5"/>
+    <col min="9456" max="9456" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9457" max="9462" width="6.109375" style="5" customWidth="1"/>
+    <col min="9463" max="9463" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9464" max="9711" width="8.88671875" style="5"/>
+    <col min="9712" max="9712" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9713" max="9718" width="6.109375" style="5" customWidth="1"/>
+    <col min="9719" max="9719" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9720" max="9967" width="8.88671875" style="5"/>
+    <col min="9968" max="9968" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9969" max="9974" width="6.109375" style="5" customWidth="1"/>
+    <col min="9975" max="9975" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9976" max="10223" width="8.88671875" style="5"/>
+    <col min="10224" max="10224" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10225" max="10230" width="6.109375" style="5" customWidth="1"/>
+    <col min="10231" max="10231" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10232" max="10479" width="8.88671875" style="5"/>
+    <col min="10480" max="10480" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10481" max="10486" width="6.109375" style="5" customWidth="1"/>
+    <col min="10487" max="10487" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10488" max="10735" width="8.88671875" style="5"/>
+    <col min="10736" max="10736" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10737" max="10742" width="6.109375" style="5" customWidth="1"/>
+    <col min="10743" max="10743" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10744" max="10991" width="8.88671875" style="5"/>
+    <col min="10992" max="10992" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10993" max="10998" width="6.109375" style="5" customWidth="1"/>
+    <col min="10999" max="10999" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11000" max="11247" width="8.88671875" style="5"/>
+    <col min="11248" max="11248" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11249" max="11254" width="6.109375" style="5" customWidth="1"/>
+    <col min="11255" max="11255" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11256" max="11503" width="8.88671875" style="5"/>
+    <col min="11504" max="11504" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11505" max="11510" width="6.109375" style="5" customWidth="1"/>
+    <col min="11511" max="11511" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11512" max="11759" width="8.88671875" style="5"/>
+    <col min="11760" max="11760" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11761" max="11766" width="6.109375" style="5" customWidth="1"/>
+    <col min="11767" max="11767" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11768" max="12015" width="8.88671875" style="5"/>
+    <col min="12016" max="12016" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12017" max="12022" width="6.109375" style="5" customWidth="1"/>
+    <col min="12023" max="12023" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12024" max="12271" width="8.88671875" style="5"/>
+    <col min="12272" max="12272" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12273" max="12278" width="6.109375" style="5" customWidth="1"/>
+    <col min="12279" max="12279" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12280" max="12527" width="8.88671875" style="5"/>
+    <col min="12528" max="12528" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12529" max="12534" width="6.109375" style="5" customWidth="1"/>
+    <col min="12535" max="12535" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12536" max="12783" width="8.88671875" style="5"/>
+    <col min="12784" max="12784" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12785" max="12790" width="6.109375" style="5" customWidth="1"/>
+    <col min="12791" max="12791" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12792" max="13039" width="8.88671875" style="5"/>
+    <col min="13040" max="13040" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13041" max="13046" width="6.109375" style="5" customWidth="1"/>
+    <col min="13047" max="13047" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13048" max="13295" width="8.88671875" style="5"/>
+    <col min="13296" max="13296" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13297" max="13302" width="6.109375" style="5" customWidth="1"/>
+    <col min="13303" max="13303" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13304" max="13551" width="8.88671875" style="5"/>
+    <col min="13552" max="13552" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13553" max="13558" width="6.109375" style="5" customWidth="1"/>
+    <col min="13559" max="13559" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13560" max="13807" width="8.88671875" style="5"/>
+    <col min="13808" max="13808" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13809" max="13814" width="6.109375" style="5" customWidth="1"/>
+    <col min="13815" max="13815" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13816" max="14063" width="8.88671875" style="5"/>
+    <col min="14064" max="14064" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14065" max="14070" width="6.109375" style="5" customWidth="1"/>
+    <col min="14071" max="14071" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14072" max="14319" width="8.88671875" style="5"/>
+    <col min="14320" max="14320" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14321" max="14326" width="6.109375" style="5" customWidth="1"/>
+    <col min="14327" max="14327" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14328" max="14575" width="8.88671875" style="5"/>
+    <col min="14576" max="14576" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14577" max="14582" width="6.109375" style="5" customWidth="1"/>
+    <col min="14583" max="14583" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14584" max="14831" width="8.88671875" style="5"/>
+    <col min="14832" max="14832" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14833" max="14838" width="6.109375" style="5" customWidth="1"/>
+    <col min="14839" max="14839" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14840" max="15087" width="8.88671875" style="5"/>
+    <col min="15088" max="15088" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15089" max="15094" width="6.109375" style="5" customWidth="1"/>
+    <col min="15095" max="15095" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15096" max="15343" width="8.88671875" style="5"/>
+    <col min="15344" max="15344" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15345" max="15350" width="6.109375" style="5" customWidth="1"/>
+    <col min="15351" max="15351" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15352" max="15599" width="8.88671875" style="5"/>
+    <col min="15600" max="15600" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15601" max="15606" width="6.109375" style="5" customWidth="1"/>
+    <col min="15607" max="15607" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15608" max="15855" width="8.88671875" style="5"/>
+    <col min="15856" max="15856" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15857" max="15862" width="6.109375" style="5" customWidth="1"/>
+    <col min="15863" max="15863" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15864" max="16111" width="8.88671875" style="5"/>
+    <col min="16112" max="16112" width="43.88671875" style="5" customWidth="1"/>
+    <col min="16113" max="16118" width="6.109375" style="5" customWidth="1"/>
+    <col min="16119" max="16119" width="7.44140625" style="5" customWidth="1"/>
+    <col min="16120" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="str">
         <f>Total!$J$1</f>
         <v>Week 6</v>
@@ -13503,7 +13495,7 @@
       <c r="G1" s="58"/>
       <c r="H1" s="59"/>
     </row>
-    <row r="3" spans="1:8" ht="22.9">
+    <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v xml:space="preserve">Badr </v>
@@ -13519,7 +13511,7 @@
       <c r="G3" s="56"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -13553,7 +13545,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>151</v>
       </c>
@@ -13572,7 +13564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>152</v>
       </c>
@@ -13591,7 +13583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>153</v>
       </c>
@@ -13608,7 +13600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>154</v>
       </c>
@@ -13629,7 +13621,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -13642,7 +13634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -13676,7 +13668,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -13686,7 +13678,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.9">
+    <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Frankie</v>
@@ -13702,7 +13694,7 @@
       <c r="G12" s="56"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -13736,7 +13728,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>53</v>
       </c>
@@ -13755,7 +13747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>155</v>
       </c>
@@ -13772,7 +13764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>156</v>
       </c>
@@ -13791,7 +13783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>157</v>
       </c>
@@ -13814,7 +13806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -13827,7 +13819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -13861,7 +13853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="22.9">
+    <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Desmond</v>
@@ -13877,7 +13869,7 @@
       <c r="G21" s="56"/>
       <c r="H21" s="57"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -13911,7 +13903,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>53</v>
       </c>
@@ -13928,7 +13920,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>158</v>
       </c>
@@ -13948,7 +13940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>159</v>
       </c>
@@ -13967,7 +13959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -13980,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -13993,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -14027,7 +14019,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.9">
+    <row r="30" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Georgi</v>
@@ -14043,7 +14035,7 @@
       <c r="G30" s="56"/>
       <c r="H30" s="57"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -14077,7 +14069,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.45">
+    <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -14096,7 +14088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="26.45">
+    <row r="33" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>160</v>
       </c>
@@ -14115,7 +14107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>161</v>
       </c>
@@ -14134,7 +14126,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>162</v>
       </c>
@@ -14151,7 +14143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -14164,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1">
+    <row r="37" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -14198,7 +14190,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="22.9">
+    <row r="40" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="str">
         <f>Total!D7</f>
         <v>Pablo</v>
@@ -14214,7 +14206,7 @@
       <c r="G40" s="56"/>
       <c r="H40" s="57"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -14248,7 +14240,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>48</v>
       </c>
@@ -14263,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>163</v>
       </c>
@@ -14282,7 +14274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.45">
+    <row r="44" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -14301,7 +14293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>164</v>
       </c>
@@ -14318,7 +14310,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>165</v>
       </c>
@@ -14337,7 +14329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -14371,7 +14363,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="22.9">
+    <row r="49" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="str">
         <f>Total!D8</f>
         <v>Brice</v>
@@ -14387,7 +14379,7 @@
       <c r="G49" s="56"/>
       <c r="H49" s="57"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -14421,7 +14413,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>48</v>
       </c>
@@ -14436,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>53</v>
       </c>
@@ -14455,7 +14447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>166</v>
       </c>
@@ -14474,7 +14466,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>167</v>
       </c>
@@ -14493,7 +14485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>168</v>
       </c>
@@ -14512,7 +14504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -14563,273 +14555,273 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BDF61-7E89-4C92-A82D-1FF14F8FEE71}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I51" sqref="A44:I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
-    <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="5" customWidth="1"/>
-    <col min="9" max="239" width="8.85546875" style="5"/>
-    <col min="240" max="240" width="43.85546875" style="5" customWidth="1"/>
-    <col min="241" max="246" width="6.140625" style="5" customWidth="1"/>
-    <col min="247" max="247" width="7.42578125" style="5" customWidth="1"/>
-    <col min="248" max="495" width="8.85546875" style="5"/>
-    <col min="496" max="496" width="43.85546875" style="5" customWidth="1"/>
-    <col min="497" max="502" width="6.140625" style="5" customWidth="1"/>
-    <col min="503" max="503" width="7.42578125" style="5" customWidth="1"/>
-    <col min="504" max="751" width="8.85546875" style="5"/>
-    <col min="752" max="752" width="43.85546875" style="5" customWidth="1"/>
-    <col min="753" max="758" width="6.140625" style="5" customWidth="1"/>
-    <col min="759" max="759" width="7.42578125" style="5" customWidth="1"/>
-    <col min="760" max="1007" width="8.85546875" style="5"/>
-    <col min="1008" max="1008" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1009" max="1014" width="6.140625" style="5" customWidth="1"/>
-    <col min="1015" max="1015" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1016" max="1263" width="8.85546875" style="5"/>
-    <col min="1264" max="1264" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1265" max="1270" width="6.140625" style="5" customWidth="1"/>
-    <col min="1271" max="1271" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1272" max="1519" width="8.85546875" style="5"/>
-    <col min="1520" max="1520" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1521" max="1526" width="6.140625" style="5" customWidth="1"/>
-    <col min="1527" max="1527" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1528" max="1775" width="8.85546875" style="5"/>
-    <col min="1776" max="1776" width="43.85546875" style="5" customWidth="1"/>
-    <col min="1777" max="1782" width="6.140625" style="5" customWidth="1"/>
-    <col min="1783" max="1783" width="7.42578125" style="5" customWidth="1"/>
-    <col min="1784" max="2031" width="8.85546875" style="5"/>
-    <col min="2032" max="2032" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2033" max="2038" width="6.140625" style="5" customWidth="1"/>
-    <col min="2039" max="2039" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2040" max="2287" width="8.85546875" style="5"/>
-    <col min="2288" max="2288" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2289" max="2294" width="6.140625" style="5" customWidth="1"/>
-    <col min="2295" max="2295" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2296" max="2543" width="8.85546875" style="5"/>
-    <col min="2544" max="2544" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2545" max="2550" width="6.140625" style="5" customWidth="1"/>
-    <col min="2551" max="2551" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2552" max="2799" width="8.85546875" style="5"/>
-    <col min="2800" max="2800" width="43.85546875" style="5" customWidth="1"/>
-    <col min="2801" max="2806" width="6.140625" style="5" customWidth="1"/>
-    <col min="2807" max="2807" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2808" max="3055" width="8.85546875" style="5"/>
-    <col min="3056" max="3056" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3057" max="3062" width="6.140625" style="5" customWidth="1"/>
-    <col min="3063" max="3063" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3064" max="3311" width="8.85546875" style="5"/>
-    <col min="3312" max="3312" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3313" max="3318" width="6.140625" style="5" customWidth="1"/>
-    <col min="3319" max="3319" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3320" max="3567" width="8.85546875" style="5"/>
-    <col min="3568" max="3568" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3569" max="3574" width="6.140625" style="5" customWidth="1"/>
-    <col min="3575" max="3575" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3576" max="3823" width="8.85546875" style="5"/>
-    <col min="3824" max="3824" width="43.85546875" style="5" customWidth="1"/>
-    <col min="3825" max="3830" width="6.140625" style="5" customWidth="1"/>
-    <col min="3831" max="3831" width="7.42578125" style="5" customWidth="1"/>
-    <col min="3832" max="4079" width="8.85546875" style="5"/>
-    <col min="4080" max="4080" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4081" max="4086" width="6.140625" style="5" customWidth="1"/>
-    <col min="4087" max="4087" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4088" max="4335" width="8.85546875" style="5"/>
-    <col min="4336" max="4336" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4337" max="4342" width="6.140625" style="5" customWidth="1"/>
-    <col min="4343" max="4343" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4344" max="4591" width="8.85546875" style="5"/>
-    <col min="4592" max="4592" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4593" max="4598" width="6.140625" style="5" customWidth="1"/>
-    <col min="4599" max="4599" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4600" max="4847" width="8.85546875" style="5"/>
-    <col min="4848" max="4848" width="43.85546875" style="5" customWidth="1"/>
-    <col min="4849" max="4854" width="6.140625" style="5" customWidth="1"/>
-    <col min="4855" max="4855" width="7.42578125" style="5" customWidth="1"/>
-    <col min="4856" max="5103" width="8.85546875" style="5"/>
-    <col min="5104" max="5104" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5105" max="5110" width="6.140625" style="5" customWidth="1"/>
-    <col min="5111" max="5111" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5112" max="5359" width="8.85546875" style="5"/>
-    <col min="5360" max="5360" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5361" max="5366" width="6.140625" style="5" customWidth="1"/>
-    <col min="5367" max="5367" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5368" max="5615" width="8.85546875" style="5"/>
-    <col min="5616" max="5616" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5617" max="5622" width="6.140625" style="5" customWidth="1"/>
-    <col min="5623" max="5623" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5624" max="5871" width="8.85546875" style="5"/>
-    <col min="5872" max="5872" width="43.85546875" style="5" customWidth="1"/>
-    <col min="5873" max="5878" width="6.140625" style="5" customWidth="1"/>
-    <col min="5879" max="5879" width="7.42578125" style="5" customWidth="1"/>
-    <col min="5880" max="6127" width="8.85546875" style="5"/>
-    <col min="6128" max="6128" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6129" max="6134" width="6.140625" style="5" customWidth="1"/>
-    <col min="6135" max="6135" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6136" max="6383" width="8.85546875" style="5"/>
-    <col min="6384" max="6384" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6385" max="6390" width="6.140625" style="5" customWidth="1"/>
-    <col min="6391" max="6391" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6392" max="6639" width="8.85546875" style="5"/>
-    <col min="6640" max="6640" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6641" max="6646" width="6.140625" style="5" customWidth="1"/>
-    <col min="6647" max="6647" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6648" max="6895" width="8.85546875" style="5"/>
-    <col min="6896" max="6896" width="43.85546875" style="5" customWidth="1"/>
-    <col min="6897" max="6902" width="6.140625" style="5" customWidth="1"/>
-    <col min="6903" max="6903" width="7.42578125" style="5" customWidth="1"/>
-    <col min="6904" max="7151" width="8.85546875" style="5"/>
-    <col min="7152" max="7152" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7153" max="7158" width="6.140625" style="5" customWidth="1"/>
-    <col min="7159" max="7159" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7160" max="7407" width="8.85546875" style="5"/>
-    <col min="7408" max="7408" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7409" max="7414" width="6.140625" style="5" customWidth="1"/>
-    <col min="7415" max="7415" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7416" max="7663" width="8.85546875" style="5"/>
-    <col min="7664" max="7664" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7665" max="7670" width="6.140625" style="5" customWidth="1"/>
-    <col min="7671" max="7671" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7672" max="7919" width="8.85546875" style="5"/>
-    <col min="7920" max="7920" width="43.85546875" style="5" customWidth="1"/>
-    <col min="7921" max="7926" width="6.140625" style="5" customWidth="1"/>
-    <col min="7927" max="7927" width="7.42578125" style="5" customWidth="1"/>
-    <col min="7928" max="8175" width="8.85546875" style="5"/>
-    <col min="8176" max="8176" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8177" max="8182" width="6.140625" style="5" customWidth="1"/>
-    <col min="8183" max="8183" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8184" max="8431" width="8.85546875" style="5"/>
-    <col min="8432" max="8432" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8433" max="8438" width="6.140625" style="5" customWidth="1"/>
-    <col min="8439" max="8439" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8440" max="8687" width="8.85546875" style="5"/>
-    <col min="8688" max="8688" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8689" max="8694" width="6.140625" style="5" customWidth="1"/>
-    <col min="8695" max="8695" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8696" max="8943" width="8.85546875" style="5"/>
-    <col min="8944" max="8944" width="43.85546875" style="5" customWidth="1"/>
-    <col min="8945" max="8950" width="6.140625" style="5" customWidth="1"/>
-    <col min="8951" max="8951" width="7.42578125" style="5" customWidth="1"/>
-    <col min="8952" max="9199" width="8.85546875" style="5"/>
-    <col min="9200" max="9200" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9201" max="9206" width="6.140625" style="5" customWidth="1"/>
-    <col min="9207" max="9207" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9208" max="9455" width="8.85546875" style="5"/>
-    <col min="9456" max="9456" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9457" max="9462" width="6.140625" style="5" customWidth="1"/>
-    <col min="9463" max="9463" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9464" max="9711" width="8.85546875" style="5"/>
-    <col min="9712" max="9712" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9713" max="9718" width="6.140625" style="5" customWidth="1"/>
-    <col min="9719" max="9719" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9720" max="9967" width="8.85546875" style="5"/>
-    <col min="9968" max="9968" width="43.85546875" style="5" customWidth="1"/>
-    <col min="9969" max="9974" width="6.140625" style="5" customWidth="1"/>
-    <col min="9975" max="9975" width="7.42578125" style="5" customWidth="1"/>
-    <col min="9976" max="10223" width="8.85546875" style="5"/>
-    <col min="10224" max="10224" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10225" max="10230" width="6.140625" style="5" customWidth="1"/>
-    <col min="10231" max="10231" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10232" max="10479" width="8.85546875" style="5"/>
-    <col min="10480" max="10480" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10481" max="10486" width="6.140625" style="5" customWidth="1"/>
-    <col min="10487" max="10487" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10488" max="10735" width="8.85546875" style="5"/>
-    <col min="10736" max="10736" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10737" max="10742" width="6.140625" style="5" customWidth="1"/>
-    <col min="10743" max="10743" width="7.42578125" style="5" customWidth="1"/>
-    <col min="10744" max="10991" width="8.85546875" style="5"/>
-    <col min="10992" max="10992" width="43.85546875" style="5" customWidth="1"/>
-    <col min="10993" max="10998" width="6.140625" style="5" customWidth="1"/>
-    <col min="10999" max="10999" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11000" max="11247" width="8.85546875" style="5"/>
-    <col min="11248" max="11248" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11249" max="11254" width="6.140625" style="5" customWidth="1"/>
-    <col min="11255" max="11255" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11256" max="11503" width="8.85546875" style="5"/>
-    <col min="11504" max="11504" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11505" max="11510" width="6.140625" style="5" customWidth="1"/>
-    <col min="11511" max="11511" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11512" max="11759" width="8.85546875" style="5"/>
-    <col min="11760" max="11760" width="43.85546875" style="5" customWidth="1"/>
-    <col min="11761" max="11766" width="6.140625" style="5" customWidth="1"/>
-    <col min="11767" max="11767" width="7.42578125" style="5" customWidth="1"/>
-    <col min="11768" max="12015" width="8.85546875" style="5"/>
-    <col min="12016" max="12016" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12017" max="12022" width="6.140625" style="5" customWidth="1"/>
-    <col min="12023" max="12023" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12024" max="12271" width="8.85546875" style="5"/>
-    <col min="12272" max="12272" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12273" max="12278" width="6.140625" style="5" customWidth="1"/>
-    <col min="12279" max="12279" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12280" max="12527" width="8.85546875" style="5"/>
-    <col min="12528" max="12528" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12529" max="12534" width="6.140625" style="5" customWidth="1"/>
-    <col min="12535" max="12535" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12536" max="12783" width="8.85546875" style="5"/>
-    <col min="12784" max="12784" width="43.85546875" style="5" customWidth="1"/>
-    <col min="12785" max="12790" width="6.140625" style="5" customWidth="1"/>
-    <col min="12791" max="12791" width="7.42578125" style="5" customWidth="1"/>
-    <col min="12792" max="13039" width="8.85546875" style="5"/>
-    <col min="13040" max="13040" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13041" max="13046" width="6.140625" style="5" customWidth="1"/>
-    <col min="13047" max="13047" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13048" max="13295" width="8.85546875" style="5"/>
-    <col min="13296" max="13296" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13297" max="13302" width="6.140625" style="5" customWidth="1"/>
-    <col min="13303" max="13303" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13304" max="13551" width="8.85546875" style="5"/>
-    <col min="13552" max="13552" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13553" max="13558" width="6.140625" style="5" customWidth="1"/>
-    <col min="13559" max="13559" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13560" max="13807" width="8.85546875" style="5"/>
-    <col min="13808" max="13808" width="43.85546875" style="5" customWidth="1"/>
-    <col min="13809" max="13814" width="6.140625" style="5" customWidth="1"/>
-    <col min="13815" max="13815" width="7.42578125" style="5" customWidth="1"/>
-    <col min="13816" max="14063" width="8.85546875" style="5"/>
-    <col min="14064" max="14064" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14065" max="14070" width="6.140625" style="5" customWidth="1"/>
-    <col min="14071" max="14071" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14072" max="14319" width="8.85546875" style="5"/>
-    <col min="14320" max="14320" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14321" max="14326" width="6.140625" style="5" customWidth="1"/>
-    <col min="14327" max="14327" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14328" max="14575" width="8.85546875" style="5"/>
-    <col min="14576" max="14576" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14577" max="14582" width="6.140625" style="5" customWidth="1"/>
-    <col min="14583" max="14583" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14584" max="14831" width="8.85546875" style="5"/>
-    <col min="14832" max="14832" width="43.85546875" style="5" customWidth="1"/>
-    <col min="14833" max="14838" width="6.140625" style="5" customWidth="1"/>
-    <col min="14839" max="14839" width="7.42578125" style="5" customWidth="1"/>
-    <col min="14840" max="15087" width="8.85546875" style="5"/>
-    <col min="15088" max="15088" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15089" max="15094" width="6.140625" style="5" customWidth="1"/>
-    <col min="15095" max="15095" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15096" max="15343" width="8.85546875" style="5"/>
-    <col min="15344" max="15344" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15345" max="15350" width="6.140625" style="5" customWidth="1"/>
-    <col min="15351" max="15351" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15352" max="15599" width="8.85546875" style="5"/>
-    <col min="15600" max="15600" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15601" max="15606" width="6.140625" style="5" customWidth="1"/>
-    <col min="15607" max="15607" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15608" max="15855" width="8.85546875" style="5"/>
-    <col min="15856" max="15856" width="43.85546875" style="5" customWidth="1"/>
-    <col min="15857" max="15862" width="6.140625" style="5" customWidth="1"/>
-    <col min="15863" max="15863" width="7.42578125" style="5" customWidth="1"/>
-    <col min="15864" max="16111" width="8.85546875" style="5"/>
-    <col min="16112" max="16112" width="43.85546875" style="5" customWidth="1"/>
-    <col min="16113" max="16118" width="6.140625" style="5" customWidth="1"/>
-    <col min="16119" max="16119" width="7.42578125" style="5" customWidth="1"/>
-    <col min="16120" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="71.44140625" style="5" customWidth="1"/>
+    <col min="2" max="7" width="7.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="5" customWidth="1"/>
+    <col min="9" max="239" width="8.88671875" style="5"/>
+    <col min="240" max="240" width="43.88671875" style="5" customWidth="1"/>
+    <col min="241" max="246" width="6.109375" style="5" customWidth="1"/>
+    <col min="247" max="247" width="7.44140625" style="5" customWidth="1"/>
+    <col min="248" max="495" width="8.88671875" style="5"/>
+    <col min="496" max="496" width="43.88671875" style="5" customWidth="1"/>
+    <col min="497" max="502" width="6.109375" style="5" customWidth="1"/>
+    <col min="503" max="503" width="7.44140625" style="5" customWidth="1"/>
+    <col min="504" max="751" width="8.88671875" style="5"/>
+    <col min="752" max="752" width="43.88671875" style="5" customWidth="1"/>
+    <col min="753" max="758" width="6.109375" style="5" customWidth="1"/>
+    <col min="759" max="759" width="7.44140625" style="5" customWidth="1"/>
+    <col min="760" max="1007" width="8.88671875" style="5"/>
+    <col min="1008" max="1008" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1009" max="1014" width="6.109375" style="5" customWidth="1"/>
+    <col min="1015" max="1015" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1016" max="1263" width="8.88671875" style="5"/>
+    <col min="1264" max="1264" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1265" max="1270" width="6.109375" style="5" customWidth="1"/>
+    <col min="1271" max="1271" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1272" max="1519" width="8.88671875" style="5"/>
+    <col min="1520" max="1520" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1521" max="1526" width="6.109375" style="5" customWidth="1"/>
+    <col min="1527" max="1527" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1528" max="1775" width="8.88671875" style="5"/>
+    <col min="1776" max="1776" width="43.88671875" style="5" customWidth="1"/>
+    <col min="1777" max="1782" width="6.109375" style="5" customWidth="1"/>
+    <col min="1783" max="1783" width="7.44140625" style="5" customWidth="1"/>
+    <col min="1784" max="2031" width="8.88671875" style="5"/>
+    <col min="2032" max="2032" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2033" max="2038" width="6.109375" style="5" customWidth="1"/>
+    <col min="2039" max="2039" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2040" max="2287" width="8.88671875" style="5"/>
+    <col min="2288" max="2288" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2289" max="2294" width="6.109375" style="5" customWidth="1"/>
+    <col min="2295" max="2295" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2296" max="2543" width="8.88671875" style="5"/>
+    <col min="2544" max="2544" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2545" max="2550" width="6.109375" style="5" customWidth="1"/>
+    <col min="2551" max="2551" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2552" max="2799" width="8.88671875" style="5"/>
+    <col min="2800" max="2800" width="43.88671875" style="5" customWidth="1"/>
+    <col min="2801" max="2806" width="6.109375" style="5" customWidth="1"/>
+    <col min="2807" max="2807" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2808" max="3055" width="8.88671875" style="5"/>
+    <col min="3056" max="3056" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3057" max="3062" width="6.109375" style="5" customWidth="1"/>
+    <col min="3063" max="3063" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3064" max="3311" width="8.88671875" style="5"/>
+    <col min="3312" max="3312" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3313" max="3318" width="6.109375" style="5" customWidth="1"/>
+    <col min="3319" max="3319" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3320" max="3567" width="8.88671875" style="5"/>
+    <col min="3568" max="3568" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3569" max="3574" width="6.109375" style="5" customWidth="1"/>
+    <col min="3575" max="3575" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3576" max="3823" width="8.88671875" style="5"/>
+    <col min="3824" max="3824" width="43.88671875" style="5" customWidth="1"/>
+    <col min="3825" max="3830" width="6.109375" style="5" customWidth="1"/>
+    <col min="3831" max="3831" width="7.44140625" style="5" customWidth="1"/>
+    <col min="3832" max="4079" width="8.88671875" style="5"/>
+    <col min="4080" max="4080" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4081" max="4086" width="6.109375" style="5" customWidth="1"/>
+    <col min="4087" max="4087" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4088" max="4335" width="8.88671875" style="5"/>
+    <col min="4336" max="4336" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4337" max="4342" width="6.109375" style="5" customWidth="1"/>
+    <col min="4343" max="4343" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4344" max="4591" width="8.88671875" style="5"/>
+    <col min="4592" max="4592" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4593" max="4598" width="6.109375" style="5" customWidth="1"/>
+    <col min="4599" max="4599" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4600" max="4847" width="8.88671875" style="5"/>
+    <col min="4848" max="4848" width="43.88671875" style="5" customWidth="1"/>
+    <col min="4849" max="4854" width="6.109375" style="5" customWidth="1"/>
+    <col min="4855" max="4855" width="7.44140625" style="5" customWidth="1"/>
+    <col min="4856" max="5103" width="8.88671875" style="5"/>
+    <col min="5104" max="5104" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5105" max="5110" width="6.109375" style="5" customWidth="1"/>
+    <col min="5111" max="5111" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5112" max="5359" width="8.88671875" style="5"/>
+    <col min="5360" max="5360" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5361" max="5366" width="6.109375" style="5" customWidth="1"/>
+    <col min="5367" max="5367" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5368" max="5615" width="8.88671875" style="5"/>
+    <col min="5616" max="5616" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5617" max="5622" width="6.109375" style="5" customWidth="1"/>
+    <col min="5623" max="5623" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5624" max="5871" width="8.88671875" style="5"/>
+    <col min="5872" max="5872" width="43.88671875" style="5" customWidth="1"/>
+    <col min="5873" max="5878" width="6.109375" style="5" customWidth="1"/>
+    <col min="5879" max="5879" width="7.44140625" style="5" customWidth="1"/>
+    <col min="5880" max="6127" width="8.88671875" style="5"/>
+    <col min="6128" max="6128" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6129" max="6134" width="6.109375" style="5" customWidth="1"/>
+    <col min="6135" max="6135" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6136" max="6383" width="8.88671875" style="5"/>
+    <col min="6384" max="6384" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6385" max="6390" width="6.109375" style="5" customWidth="1"/>
+    <col min="6391" max="6391" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6392" max="6639" width="8.88671875" style="5"/>
+    <col min="6640" max="6640" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6641" max="6646" width="6.109375" style="5" customWidth="1"/>
+    <col min="6647" max="6647" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6648" max="6895" width="8.88671875" style="5"/>
+    <col min="6896" max="6896" width="43.88671875" style="5" customWidth="1"/>
+    <col min="6897" max="6902" width="6.109375" style="5" customWidth="1"/>
+    <col min="6903" max="6903" width="7.44140625" style="5" customWidth="1"/>
+    <col min="6904" max="7151" width="8.88671875" style="5"/>
+    <col min="7152" max="7152" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7153" max="7158" width="6.109375" style="5" customWidth="1"/>
+    <col min="7159" max="7159" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7160" max="7407" width="8.88671875" style="5"/>
+    <col min="7408" max="7408" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7409" max="7414" width="6.109375" style="5" customWidth="1"/>
+    <col min="7415" max="7415" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7416" max="7663" width="8.88671875" style="5"/>
+    <col min="7664" max="7664" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7665" max="7670" width="6.109375" style="5" customWidth="1"/>
+    <col min="7671" max="7671" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7672" max="7919" width="8.88671875" style="5"/>
+    <col min="7920" max="7920" width="43.88671875" style="5" customWidth="1"/>
+    <col min="7921" max="7926" width="6.109375" style="5" customWidth="1"/>
+    <col min="7927" max="7927" width="7.44140625" style="5" customWidth="1"/>
+    <col min="7928" max="8175" width="8.88671875" style="5"/>
+    <col min="8176" max="8176" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8177" max="8182" width="6.109375" style="5" customWidth="1"/>
+    <col min="8183" max="8183" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8184" max="8431" width="8.88671875" style="5"/>
+    <col min="8432" max="8432" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8433" max="8438" width="6.109375" style="5" customWidth="1"/>
+    <col min="8439" max="8439" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8440" max="8687" width="8.88671875" style="5"/>
+    <col min="8688" max="8688" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8689" max="8694" width="6.109375" style="5" customWidth="1"/>
+    <col min="8695" max="8695" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8696" max="8943" width="8.88671875" style="5"/>
+    <col min="8944" max="8944" width="43.88671875" style="5" customWidth="1"/>
+    <col min="8945" max="8950" width="6.109375" style="5" customWidth="1"/>
+    <col min="8951" max="8951" width="7.44140625" style="5" customWidth="1"/>
+    <col min="8952" max="9199" width="8.88671875" style="5"/>
+    <col min="9200" max="9200" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9201" max="9206" width="6.109375" style="5" customWidth="1"/>
+    <col min="9207" max="9207" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9208" max="9455" width="8.88671875" style="5"/>
+    <col min="9456" max="9456" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9457" max="9462" width="6.109375" style="5" customWidth="1"/>
+    <col min="9463" max="9463" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9464" max="9711" width="8.88671875" style="5"/>
+    <col min="9712" max="9712" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9713" max="9718" width="6.109375" style="5" customWidth="1"/>
+    <col min="9719" max="9719" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9720" max="9967" width="8.88671875" style="5"/>
+    <col min="9968" max="9968" width="43.88671875" style="5" customWidth="1"/>
+    <col min="9969" max="9974" width="6.109375" style="5" customWidth="1"/>
+    <col min="9975" max="9975" width="7.44140625" style="5" customWidth="1"/>
+    <col min="9976" max="10223" width="8.88671875" style="5"/>
+    <col min="10224" max="10224" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10225" max="10230" width="6.109375" style="5" customWidth="1"/>
+    <col min="10231" max="10231" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10232" max="10479" width="8.88671875" style="5"/>
+    <col min="10480" max="10480" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10481" max="10486" width="6.109375" style="5" customWidth="1"/>
+    <col min="10487" max="10487" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10488" max="10735" width="8.88671875" style="5"/>
+    <col min="10736" max="10736" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10737" max="10742" width="6.109375" style="5" customWidth="1"/>
+    <col min="10743" max="10743" width="7.44140625" style="5" customWidth="1"/>
+    <col min="10744" max="10991" width="8.88671875" style="5"/>
+    <col min="10992" max="10992" width="43.88671875" style="5" customWidth="1"/>
+    <col min="10993" max="10998" width="6.109375" style="5" customWidth="1"/>
+    <col min="10999" max="10999" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11000" max="11247" width="8.88671875" style="5"/>
+    <col min="11248" max="11248" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11249" max="11254" width="6.109375" style="5" customWidth="1"/>
+    <col min="11255" max="11255" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11256" max="11503" width="8.88671875" style="5"/>
+    <col min="11504" max="11504" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11505" max="11510" width="6.109375" style="5" customWidth="1"/>
+    <col min="11511" max="11511" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11512" max="11759" width="8.88671875" style="5"/>
+    <col min="11760" max="11760" width="43.88671875" style="5" customWidth="1"/>
+    <col min="11761" max="11766" width="6.109375" style="5" customWidth="1"/>
+    <col min="11767" max="11767" width="7.44140625" style="5" customWidth="1"/>
+    <col min="11768" max="12015" width="8.88671875" style="5"/>
+    <col min="12016" max="12016" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12017" max="12022" width="6.109375" style="5" customWidth="1"/>
+    <col min="12023" max="12023" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12024" max="12271" width="8.88671875" style="5"/>
+    <col min="12272" max="12272" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12273" max="12278" width="6.109375" style="5" customWidth="1"/>
+    <col min="12279" max="12279" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12280" max="12527" width="8.88671875" style="5"/>
+    <col min="12528" max="12528" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12529" max="12534" width="6.109375" style="5" customWidth="1"/>
+    <col min="12535" max="12535" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12536" max="12783" width="8.88671875" style="5"/>
+    <col min="12784" max="12784" width="43.88671875" style="5" customWidth="1"/>
+    <col min="12785" max="12790" width="6.109375" style="5" customWidth="1"/>
+    <col min="12791" max="12791" width="7.44140625" style="5" customWidth="1"/>
+    <col min="12792" max="13039" width="8.88671875" style="5"/>
+    <col min="13040" max="13040" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13041" max="13046" width="6.109375" style="5" customWidth="1"/>
+    <col min="13047" max="13047" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13048" max="13295" width="8.88671875" style="5"/>
+    <col min="13296" max="13296" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13297" max="13302" width="6.109375" style="5" customWidth="1"/>
+    <col min="13303" max="13303" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13304" max="13551" width="8.88671875" style="5"/>
+    <col min="13552" max="13552" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13553" max="13558" width="6.109375" style="5" customWidth="1"/>
+    <col min="13559" max="13559" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13560" max="13807" width="8.88671875" style="5"/>
+    <col min="13808" max="13808" width="43.88671875" style="5" customWidth="1"/>
+    <col min="13809" max="13814" width="6.109375" style="5" customWidth="1"/>
+    <col min="13815" max="13815" width="7.44140625" style="5" customWidth="1"/>
+    <col min="13816" max="14063" width="8.88671875" style="5"/>
+    <col min="14064" max="14064" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14065" max="14070" width="6.109375" style="5" customWidth="1"/>
+    <col min="14071" max="14071" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14072" max="14319" width="8.88671875" style="5"/>
+    <col min="14320" max="14320" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14321" max="14326" width="6.109375" style="5" customWidth="1"/>
+    <col min="14327" max="14327" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14328" max="14575" width="8.88671875" style="5"/>
+    <col min="14576" max="14576" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14577" max="14582" width="6.109375" style="5" customWidth="1"/>
+    <col min="14583" max="14583" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14584" max="14831" width="8.88671875" style="5"/>
+    <col min="14832" max="14832" width="43.88671875" style="5" customWidth="1"/>
+    <col min="14833" max="14838" width="6.109375" style="5" customWidth="1"/>
+    <col min="14839" max="14839" width="7.44140625" style="5" customWidth="1"/>
+    <col min="14840" max="15087" width="8.88671875" style="5"/>
+    <col min="15088" max="15088" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15089" max="15094" width="6.109375" style="5" customWidth="1"/>
+    <col min="15095" max="15095" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15096" max="15343" width="8.88671875" style="5"/>
+    <col min="15344" max="15344" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15345" max="15350" width="6.109375" style="5" customWidth="1"/>
+    <col min="15351" max="15351" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15352" max="15599" width="8.88671875" style="5"/>
+    <col min="15600" max="15600" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15601" max="15606" width="6.109375" style="5" customWidth="1"/>
+    <col min="15607" max="15607" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15608" max="15855" width="8.88671875" style="5"/>
+    <col min="15856" max="15856" width="43.88671875" style="5" customWidth="1"/>
+    <col min="15857" max="15862" width="6.109375" style="5" customWidth="1"/>
+    <col min="15863" max="15863" width="7.44140625" style="5" customWidth="1"/>
+    <col min="15864" max="16111" width="8.88671875" style="5"/>
+    <col min="16112" max="16112" width="43.88671875" style="5" customWidth="1"/>
+    <col min="16113" max="16118" width="6.109375" style="5" customWidth="1"/>
+    <col min="16119" max="16119" width="7.44140625" style="5" customWidth="1"/>
+    <col min="16120" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="str">
         <f>Total!$K$1</f>
         <v>Week 7</v>
@@ -14845,7 +14837,7 @@
       <c r="G1" s="58"/>
       <c r="H1" s="59"/>
     </row>
-    <row r="3" spans="1:8" ht="22.9">
+    <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v xml:space="preserve">Badr </v>
@@ -14861,7 +14853,7 @@
       <c r="G3" s="56"/>
       <c r="H3" s="57"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -14895,7 +14887,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>60</v>
       </c>
@@ -14914,7 +14906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>169</v>
       </c>
@@ -14935,7 +14927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>170</v>
       </c>
@@ -14952,7 +14944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>171</v>
       </c>
@@ -14971,7 +14963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>172</v>
       </c>
@@ -14988,7 +14980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -15022,7 +15014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -15032,7 +15024,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.9">
+    <row r="12" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Frankie</v>
@@ -15048,7 +15040,7 @@
       <c r="G12" s="56"/>
       <c r="H12" s="57"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -15082,7 +15074,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>173</v>
       </c>
@@ -15097,7 +15089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
         <v>174</v>
       </c>
@@ -15109,7 +15101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>175</v>
       </c>
@@ -15121,7 +15113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>176</v>
       </c>
@@ -15133,13 +15125,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H18" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -15173,7 +15165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="22.9">
+    <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Desmond</v>
@@ -15189,7 +15181,7 @@
       <c r="G21" s="56"/>
       <c r="H21" s="57"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -15223,7 +15215,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>53</v>
       </c>
@@ -15240,7 +15232,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>177</v>
       </c>
@@ -15257,7 +15249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>178</v>
       </c>
@@ -15274,7 +15266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>179</v>
       </c>
@@ -15291,7 +15283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>180</v>
       </c>
@@ -15314,7 +15306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -15348,7 +15340,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.9">
+    <row r="30" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Georgi</v>
@@ -15364,7 +15356,7 @@
       <c r="G30" s="56"/>
       <c r="H30" s="57"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -15398,7 +15390,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>143</v>
       </c>
@@ -15417,7 +15409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>181</v>
       </c>
@@ -15436,7 +15428,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>172</v>
       </c>
@@ -15455,7 +15447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="26.45">
+    <row r="35" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>182</v>
       </c>
@@ -15474,7 +15466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="66">
+    <row r="36" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
         <v>183</v>
       </c>
@@ -15494,7 +15486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="26.45">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
         <v>184</v>
       </c>
@@ -15508,7 +15500,7 @@
       </c>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="26.45">
+    <row r="38" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
         <v>185</v>
       </c>
@@ -15522,7 +15514,7 @@
       </c>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
         <v>186</v>
       </c>
@@ -15536,7 +15528,7 @@
       </c>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="26.45">
+    <row r="40" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
         <v>187</v>
       </c>
@@ -15552,7 +15544,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="26.45">
+    <row r="41" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
         <v>188</v>
       </c>
@@ -15569,33 +15561,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
       <c r="B42" s="11">
-        <f>SUM(B32:B41)</f>
+        <f t="shared" ref="B42:G42" si="7">SUM(B32:B41)</f>
         <v>0</v>
       </c>
       <c r="C42" s="11">
-        <f>SUM(C32:C41)</f>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
       <c r="D42" s="11">
-        <f>SUM(D32:D41)</f>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="E42" s="11">
-        <f>SUM(E32:E41)</f>
+        <f t="shared" si="7"/>
         <v>8.5</v>
       </c>
       <c r="F42" s="11">
-        <f>SUM(F32:F41)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="G42" s="11">
-        <f>SUM(G32:G41)</f>
+        <f t="shared" si="7"/>
         <v>7.5</v>
       </c>
       <c r="H42" s="11">
@@ -15603,8 +15595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.25"/>
-    <row r="45" spans="1:8" ht="22.9">
+    <row r="45" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="str">
         <f>Total!D7</f>
         <v>Pablo</v>
@@ -15620,7 +15611,7 @@
       <c r="G45" s="56"/>
       <c r="H45" s="57"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -15630,31 +15621,31 @@
         <v>Ma</v>
       </c>
       <c r="C46" s="8" t="str">
-        <f t="shared" ref="C46:H46" si="7">C$4</f>
+        <f t="shared" ref="C46:H46" si="8">C$4</f>
         <v>Di</v>
       </c>
       <c r="D46" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Wo</v>
       </c>
       <c r="E46" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Do</v>
       </c>
       <c r="F46" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vr</v>
       </c>
       <c r="G46" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Za/Zo</v>
       </c>
       <c r="H46" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>48</v>
       </c>
@@ -15669,7 +15660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>189</v>
       </c>
@@ -15684,11 +15675,11 @@
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="6">
-        <f t="shared" ref="H48:H51" si="8">SUM(B48:G48)</f>
+        <f t="shared" ref="H48:H51" si="9">SUM(B48:G48)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.45">
+    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>143</v>
       </c>
@@ -15707,7 +15698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>190</v>
       </c>
@@ -15722,11 +15713,11 @@
         <v>2</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>191</v>
       </c>
@@ -15741,37 +15732,37 @@
         <v>1.5</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
       <c r="B52" s="11">
-        <f t="shared" ref="B52:G52" si="9">SUM(B47:B51)</f>
+        <f t="shared" ref="B52:G52" si="10">SUM(B47:B51)</f>
         <v>4</v>
       </c>
       <c r="C52" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="D52" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E52" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="F52" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="G52" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.5</v>
       </c>
       <c r="H52" s="11">
@@ -15779,7 +15770,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="22.9">
+    <row r="54" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="str">
         <f>Total!D8</f>
         <v>Brice</v>
@@ -15795,7 +15786,7 @@
       <c r="G54" s="56"/>
       <c r="H54" s="57"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -15805,31 +15796,31 @@
         <v>Ma</v>
       </c>
       <c r="C55" s="8" t="str">
-        <f t="shared" ref="C55:H55" si="10">C$4</f>
+        <f t="shared" ref="C55:H55" si="11">C$4</f>
         <v>Di</v>
       </c>
       <c r="D55" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Wo</v>
       </c>
       <c r="E55" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Do</v>
       </c>
       <c r="F55" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Vr</v>
       </c>
       <c r="G55" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Za/Zo</v>
       </c>
       <c r="H55" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>48</v>
       </c>
@@ -15844,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>143</v>
       </c>
@@ -15857,11 +15848,11 @@
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="6">
-        <f t="shared" ref="H57:H60" si="11">SUM(B57:G57)</f>
+        <f t="shared" ref="H57:H60" si="12">SUM(B57:G57)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>191</v>
       </c>
@@ -15876,11 +15867,11 @@
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>192</v>
       </c>
@@ -15901,11 +15892,11 @@
         <v>1</v>
       </c>
       <c r="H59" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>193</v>
       </c>
@@ -15924,37 +15915,37 @@
         <v>2</v>
       </c>
       <c r="H60" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
       </c>
       <c r="B61" s="11">
-        <f t="shared" ref="B61:G61" si="12">SUM(B56:B60)</f>
+        <f t="shared" ref="B61:G61" si="13">SUM(B56:B60)</f>
         <v>0.5</v>
       </c>
       <c r="C61" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="D61" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="E61" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.5</v>
       </c>
       <c r="F61" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="G61" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="H61" s="11">
@@ -15962,14 +15953,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.25"/>
-    <row r="63" spans="1:8" ht="14.25"/>
-    <row r="64" spans="1:8" ht="14.25"/>
-    <row r="65" ht="14.25"/>
-    <row r="66" ht="14.25"/>
-    <row r="67" ht="14.25"/>
-    <row r="68" ht="14.25"/>
-    <row r="69" ht="14.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B45:H45"/>
@@ -15986,6 +15969,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100294690D6A57C3C4B8650464765815F1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="bf1d2ff51e740e451b46e7c13bf9e6da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45f6ce90-ba85-4ef2-b43f-c64448cd95eb" xmlns:ns3="c7549584-aa9c-449c-abfe-2ca02f3a7188" xmlns:ns4="6c73e52c-07d4-4617-ab67-464747257e8d" xmlns:ns5="ab37b2fe-4f81-426e-b942-40459dbac68c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8575fd65d7959dd12bd4dc11d36e634e" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
@@ -16228,34 +16231,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
+    <ds:schemaRef ds:uri="c7549584-aa9c-449c-abfe-2ca02f3a7188"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>